--- a/DAY.xlsx
+++ b/DAY.xlsx
@@ -1,25 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Environmental_biophysics_homework\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD162EE-6111-48B3-BF20-1B67D2A56BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>Ta</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -27,8 +50,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -59,15 +89,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +179,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +231,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,190 +424,184 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DAY</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Ta</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>RH</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.361916666666667</v>
+        <v>5.3619166666666667</v>
       </c>
       <c r="C2">
-        <v>67.9689583333333</v>
+        <v>67.968958333333305</v>
       </c>
       <c r="D2">
         <v>102.89649375</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.1509375</v>
+        <v>4.1509375000000004</v>
       </c>
       <c r="C3">
-        <v>62.42229166666667</v>
+        <v>62.422291666666673</v>
       </c>
       <c r="D3">
-        <v>102.7508729166667</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>102.75087291666669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3.581520833333334</v>
+        <v>3.5815208333333342</v>
       </c>
       <c r="C4">
-        <v>57.99270833333333</v>
+        <v>57.992708333333333</v>
       </c>
       <c r="D4">
         <v>102.84596875</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.8793333333333334</v>
+        <v>0.87933333333333341</v>
       </c>
       <c r="C5">
-        <v>40.60395833333333</v>
+        <v>40.603958333333331</v>
       </c>
       <c r="D5">
         <v>103.3631145833334</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.178333333333334</v>
+        <v>1.1783333333333339</v>
       </c>
       <c r="C6">
-        <v>41.53020833333333</v>
+        <v>41.530208333333327</v>
       </c>
       <c r="D6">
         <v>103.0668541666667</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3.402729166666665</v>
+        <v>3.4027291666666648</v>
       </c>
       <c r="C7">
-        <v>60.51270833333334</v>
+        <v>60.512708333333343</v>
       </c>
       <c r="D7">
         <v>103.113175</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4.484645833333333</v>
+        <v>4.4846458333333334</v>
       </c>
       <c r="C8">
-        <v>66.37541666666667</v>
+        <v>66.375416666666666</v>
       </c>
       <c r="D8">
         <v>103.36638125</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4.414187499999998</v>
+        <v>4.4141874999999979</v>
       </c>
       <c r="C9">
         <v>84.15000000000002</v>
       </c>
       <c r="D9">
-        <v>103.1000645833333</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>103.10006458333331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4.526083333333333</v>
+        <v>4.5260833333333332</v>
       </c>
       <c r="C10">
-        <v>77.85145833333335</v>
+        <v>77.851458333333355</v>
       </c>
       <c r="D10">
         <v>103.0375270833333</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5.212729166666667</v>
+        <v>5.2127291666666666</v>
       </c>
       <c r="C11">
-        <v>80.08374999999999</v>
+        <v>80.083749999999995</v>
       </c>
       <c r="D11">
         <v>102.8958375</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4.537083333333332</v>
+        <v>4.5370833333333316</v>
       </c>
       <c r="C12">
-        <v>65.16562499999999</v>
+        <v>65.165624999999991</v>
       </c>
       <c r="D12">
         <v>103.3357770833333</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -541,88 +609,88 @@
         <v>3.954416666666666</v>
       </c>
       <c r="C13">
-        <v>64.17187499999999</v>
+        <v>64.171874999999986</v>
       </c>
       <c r="D13">
         <v>102.9121458333333</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>5.199666666666667</v>
+        <v>5.1996666666666673</v>
       </c>
       <c r="C14">
-        <v>82.26312499999999</v>
+        <v>82.263124999999988</v>
       </c>
       <c r="D14">
-        <v>102.5462770833333</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>102.54627708333329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>4.328354166666666</v>
+        <v>4.3283541666666663</v>
       </c>
       <c r="C15">
-        <v>90.93333333333334</v>
+        <v>90.933333333333337</v>
       </c>
       <c r="D15">
         <v>102.2036895833333</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4.789229166666668</v>
+        <v>4.7892291666666678</v>
       </c>
       <c r="C16">
-        <v>86.0175</v>
+        <v>86.017499999999998</v>
       </c>
       <c r="D16">
-        <v>101.9495833333333</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>101.94958333333329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>5.427375000000001</v>
+        <v>5.4273750000000014</v>
       </c>
       <c r="C17">
-        <v>75.56583333333334</v>
+        <v>75.565833333333345</v>
       </c>
       <c r="D17">
-        <v>101.8244125</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>101.82441249999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>5.677687499999998</v>
+        <v>5.6776874999999984</v>
       </c>
       <c r="C18">
-        <v>71.13833333333332</v>
+        <v>71.138333333333321</v>
       </c>
       <c r="D18">
         <v>102.0438020833333</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>6.036499999999999</v>
+        <v>6.0364999999999993</v>
       </c>
       <c r="C19">
         <v>86.02166666666669</v>
@@ -631,21 +699,21 @@
         <v>101.86305625</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>6.192541666666666</v>
+        <v>6.1925416666666662</v>
       </c>
       <c r="C20">
-        <v>79.78687500000001</v>
+        <v>79.786875000000009</v>
       </c>
       <c r="D20">
         <v>102.2004166666667</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -653,13 +721,13 @@
         <v>4.913875</v>
       </c>
       <c r="C21">
-        <v>71.58395833333331</v>
+        <v>71.583958333333314</v>
       </c>
       <c r="D21">
         <v>102.3146479166667</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -673,49 +741,49 @@
         <v>102.4225645833334</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-0.5588125</v>
+        <v>-0.55881250000000005</v>
       </c>
       <c r="C23">
-        <v>71.58458333333334</v>
+        <v>71.584583333333342</v>
       </c>
       <c r="D23">
         <v>103.0114541666667</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-1.172562500000001</v>
+        <v>-1.1725625000000011</v>
       </c>
       <c r="C24">
-        <v>59.82041666666668</v>
+        <v>59.820416666666681</v>
       </c>
       <c r="D24">
         <v>102.9862541666667</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.5269374999999999</v>
+        <v>0.52693749999999995</v>
       </c>
       <c r="C25">
-        <v>55.72708333333333</v>
+        <v>55.727083333333333</v>
       </c>
       <c r="D25">
         <v>102.7617770833334</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -723,46 +791,46 @@
         <v>0.8654791666666668</v>
       </c>
       <c r="C26">
-        <v>50.75416666666666</v>
+        <v>50.754166666666663</v>
       </c>
       <c r="D26">
         <v>102.7972604166666</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2.335354166666667</v>
+        <v>2.3353541666666668</v>
       </c>
       <c r="C27">
-        <v>63.96499999999998</v>
+        <v>63.964999999999982</v>
       </c>
       <c r="D27">
         <v>102.4879979166667</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>4.027833333333333</v>
+        <v>4.0278333333333327</v>
       </c>
       <c r="C28">
-        <v>89.31562500000001</v>
+        <v>89.315625000000011</v>
       </c>
       <c r="D28">
-        <v>102.1181791666667</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>102.11817916666671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>5.204458333333333</v>
+        <v>5.2044583333333332</v>
       </c>
       <c r="C29">
         <v>90.3125</v>
@@ -771,63 +839,63 @@
         <v>102.2538604166667</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>5.742979166666668</v>
+        <v>5.7429791666666681</v>
       </c>
       <c r="C30">
-        <v>76.76291666666667</v>
+        <v>76.762916666666669</v>
       </c>
       <c r="D30">
         <v>102.5757875</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>5.315083333333333</v>
+        <v>5.3150833333333329</v>
       </c>
       <c r="C31">
-        <v>71.49166666666667</v>
+        <v>71.491666666666674</v>
       </c>
       <c r="D31">
         <v>102.8146020833333</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>6.010479166666667</v>
+        <v>6.0104791666666673</v>
       </c>
       <c r="C32">
-        <v>74.71312500000001</v>
+        <v>74.713125000000005</v>
       </c>
       <c r="D32">
         <v>102.3951083333333</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>3.865916666666667</v>
+        <v>3.8659166666666671</v>
       </c>
       <c r="C33">
-        <v>77.88374999999998</v>
+        <v>77.883749999999978</v>
       </c>
       <c r="D33">
         <v>102.7117958333333</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -835,60 +903,60 @@
         <v>-0.3228125</v>
       </c>
       <c r="C34">
-        <v>56.5975</v>
+        <v>56.597499999999997</v>
       </c>
       <c r="D34">
         <v>103.4444041666666</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.3009166666666667</v>
+        <v>0.30091666666666672</v>
       </c>
       <c r="C35">
-        <v>55.17124999999999</v>
+        <v>55.171249999999993</v>
       </c>
       <c r="D35">
         <v>102.8914208333334</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>3.823895833333333</v>
+        <v>3.8238958333333328</v>
       </c>
       <c r="C36">
-        <v>72.82208333333334</v>
+        <v>72.822083333333339</v>
       </c>
       <c r="D36">
         <v>102.36975</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>5.525895833333332</v>
+        <v>5.5258958333333323</v>
       </c>
       <c r="C37">
-        <v>90.37145833333334</v>
+        <v>90.371458333333337</v>
       </c>
       <c r="D37">
         <v>101.95804375</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>7.129319148936171</v>
+        <v>7.1293191489361707</v>
       </c>
       <c r="C38">
         <v>91.03638297872341</v>
@@ -897,21 +965,21 @@
         <v>101.4931042553191</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.2571041666666667</v>
+        <v>0.25710416666666669</v>
       </c>
       <c r="C39">
-        <v>48.63854166666666</v>
+        <v>48.638541666666661</v>
       </c>
       <c r="D39">
         <v>102.7456416666666</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -919,41 +987,41 @@
         <v>-0.3575000000000001</v>
       </c>
       <c r="C40">
-        <v>37.29166666666667</v>
+        <v>37.291666666666671</v>
       </c>
       <c r="D40">
         <v>102.9990770833334</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1.79825</v>
+        <v>1.7982499999999999</v>
       </c>
       <c r="C41">
-        <v>46.54166666666668</v>
+        <v>46.541666666666679</v>
       </c>
       <c r="D41">
         <v>102.6763895833334</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.9998124999999999</v>
+        <v>0.99981249999999988</v>
       </c>
       <c r="C42">
-        <v>83.60249999999998</v>
+        <v>83.602499999999978</v>
       </c>
       <c r="D42">
         <v>102.7687395833333</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -961,13 +1029,13 @@
         <v>2.533104166666666</v>
       </c>
       <c r="C43">
-        <v>81.85708333333336</v>
+        <v>81.857083333333364</v>
       </c>
       <c r="D43">
         <v>102.8764729166667</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -975,41 +1043,41 @@
         <v>5.006145833333334</v>
       </c>
       <c r="C44">
-        <v>84.81708333333333</v>
+        <v>84.817083333333329</v>
       </c>
       <c r="D44">
         <v>102.3489979166667</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>4.389458333333334</v>
+        <v>4.3894583333333337</v>
       </c>
       <c r="C45">
-        <v>94.11458333333333</v>
+        <v>94.114583333333329</v>
       </c>
       <c r="D45">
         <v>102.1641354166667</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>4.732541666666667</v>
+        <v>4.7325416666666671</v>
       </c>
       <c r="C46">
-        <v>95.01666666666664</v>
+        <v>95.016666666666637</v>
       </c>
       <c r="D46">
         <v>102.0826729166667</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1017,27 +1085,27 @@
         <v>4.231416666666667</v>
       </c>
       <c r="C47">
-        <v>82.65770833333332</v>
+        <v>82.657708333333318</v>
       </c>
       <c r="D47">
-        <v>102.3083895833333</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>102.30838958333329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>3.683541666666667</v>
+        <v>3.6835416666666672</v>
       </c>
       <c r="C48">
-        <v>75.34562500000001</v>
+        <v>75.345625000000013</v>
       </c>
       <c r="D48">
-        <v>102.6449</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>102.64490000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1045,13 +1113,13 @@
         <v>4.053375</v>
       </c>
       <c r="C49">
-        <v>62.74979166666667</v>
+        <v>62.749791666666667</v>
       </c>
       <c r="D49">
         <v>102.8874166666667</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1059,13 +1127,13 @@
         <v>1.018944444444444</v>
       </c>
       <c r="C50">
-        <v>64.53277777777777</v>
+        <v>64.532777777777767</v>
       </c>
       <c r="D50">
         <v>103.2239888888889</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>57</v>
       </c>
@@ -1076,80 +1144,80 @@
         <v>66.83</v>
       </c>
       <c r="D51">
-        <v>102.8247</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>102.82470000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>58</v>
       </c>
       <c r="B52">
-        <v>3.12725</v>
+        <v>3.1272500000000001</v>
       </c>
       <c r="C52">
-        <v>62.59354166666667</v>
+        <v>62.593541666666667</v>
       </c>
       <c r="D52">
         <v>102.5557583333334</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>59</v>
       </c>
       <c r="B53">
-        <v>3.655125000000001</v>
+        <v>3.6551250000000008</v>
       </c>
       <c r="C53">
-        <v>76.72729166666666</v>
+        <v>76.727291666666659</v>
       </c>
       <c r="D53">
         <v>102.0895791666667</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>60</v>
       </c>
       <c r="B54">
-        <v>4.980707317073172</v>
+        <v>4.9807073170731719</v>
       </c>
       <c r="C54">
-        <v>84.76829268292681</v>
+        <v>84.768292682926813</v>
       </c>
       <c r="D54">
         <v>101.9298170731707</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>61</v>
       </c>
       <c r="B55">
-        <v>7.183</v>
+        <v>7.1829999999999998</v>
       </c>
       <c r="C55">
-        <v>80.09999999999999</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="D55">
         <v>101.5016</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>62</v>
       </c>
       <c r="B56">
-        <v>5.643565217391304</v>
+        <v>5.6435652173913038</v>
       </c>
       <c r="C56">
-        <v>83.26391304347827</v>
+        <v>83.263913043478269</v>
       </c>
       <c r="D56">
         <v>102.1424347826087</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>63</v>
       </c>
@@ -1157,27 +1225,27 @@
         <v>4.664545454545455</v>
       </c>
       <c r="C57">
-        <v>79.45181818181818</v>
+        <v>79.451818181818183</v>
       </c>
       <c r="D57">
         <v>102.1763</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>68</v>
       </c>
       <c r="B58">
-        <v>5.760416666666665</v>
+        <v>5.7604166666666652</v>
       </c>
       <c r="C58">
-        <v>75.24250000000001</v>
+        <v>75.242500000000007</v>
       </c>
       <c r="D58">
         <v>102.0598</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>69</v>
       </c>
@@ -1191,91 +1259,91 @@
         <v>102.35933125</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>70</v>
       </c>
       <c r="B60">
-        <v>4.833604166666666</v>
+        <v>4.8336041666666656</v>
       </c>
       <c r="C60">
-        <v>56.55041666666668</v>
+        <v>56.550416666666678</v>
       </c>
       <c r="D60">
         <v>102.4292770833333</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>71</v>
       </c>
       <c r="B61">
-        <v>5.751645833333336</v>
+        <v>5.7516458333333356</v>
       </c>
       <c r="C61">
-        <v>67.19062500000001</v>
+        <v>67.190625000000011</v>
       </c>
       <c r="D61">
-        <v>102.7857520833333</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>102.78575208333331</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>72</v>
       </c>
       <c r="B62">
-        <v>3.308645833333334</v>
+        <v>3.3086458333333342</v>
       </c>
       <c r="C62">
-        <v>59.27729166666668</v>
+        <v>59.277291666666677</v>
       </c>
       <c r="D62">
         <v>102.95911875</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>73</v>
       </c>
       <c r="B63">
-        <v>6.887708333333333</v>
+        <v>6.8877083333333333</v>
       </c>
       <c r="C63">
-        <v>69.32541666666664</v>
+        <v>69.325416666666641</v>
       </c>
       <c r="D63">
         <v>102.4955979166667</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>74</v>
       </c>
       <c r="B64">
-        <v>9.623408163265307</v>
+        <v>9.6234081632653066</v>
       </c>
       <c r="C64">
-        <v>69.14714285714285</v>
+        <v>69.147142857142853</v>
       </c>
       <c r="D64">
-        <v>102.248793877551</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>102.24879387755099</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>75</v>
       </c>
       <c r="B65">
-        <v>10.180625</v>
+        <v>10.180624999999999</v>
       </c>
       <c r="C65">
-        <v>89.11583333333334</v>
+        <v>89.115833333333342</v>
       </c>
       <c r="D65">
         <v>101.96265</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>76</v>
       </c>
@@ -1283,13 +1351,13 @@
         <v>10.84</v>
       </c>
       <c r="C66">
-        <v>94.05675675675677</v>
+        <v>94.056756756756769</v>
       </c>
       <c r="D66">
-        <v>101.210872972973</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>101.21087297297299</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>77</v>
       </c>
@@ -1297,13 +1365,13 @@
         <v>10.70958333333334</v>
       </c>
       <c r="C67">
-        <v>91.85208333333331</v>
+        <v>91.852083333333312</v>
       </c>
       <c r="D67">
         <v>101.2416145833333</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>78</v>
       </c>
@@ -1311,27 +1379,27 @@
         <v>10.81625</v>
       </c>
       <c r="C68">
-        <v>85.07499999999999</v>
+        <v>85.074999999999989</v>
       </c>
       <c r="D68">
         <v>101.7388645833333</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>79</v>
       </c>
       <c r="B69">
-        <v>6.961958333333332</v>
+        <v>6.9619583333333317</v>
       </c>
       <c r="C69">
-        <v>77.57312500000002</v>
+        <v>77.573125000000019</v>
       </c>
       <c r="D69">
         <v>102.0573541666667</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>80</v>
       </c>
@@ -1339,55 +1407,55 @@
         <v>6.368854166666666</v>
       </c>
       <c r="C70">
-        <v>74.86645833333334</v>
+        <v>74.866458333333341</v>
       </c>
       <c r="D70">
         <v>102.2260354166667</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>81</v>
       </c>
       <c r="B71">
-        <v>7.923645833333332</v>
+        <v>7.9236458333333317</v>
       </c>
       <c r="C71">
         <v>70.31645833333333</v>
       </c>
       <c r="D71">
-        <v>102.1175520833334</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>102.11755208333339</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>82</v>
       </c>
       <c r="B72">
-        <v>9.838936170212762</v>
+        <v>9.8389361702127616</v>
       </c>
       <c r="C72">
-        <v>83.77489361702126</v>
+        <v>83.774893617021263</v>
       </c>
       <c r="D72">
         <v>101.3264872340426</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>83</v>
       </c>
       <c r="B73">
-        <v>8.246</v>
+        <v>8.2460000000000004</v>
       </c>
       <c r="C73">
-        <v>80.13354166666669</v>
+        <v>80.133541666666687</v>
       </c>
       <c r="D73">
         <v>101.8161770833333</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>84</v>
       </c>
@@ -1395,13 +1463,13 @@
         <v>11.14458333333334</v>
       </c>
       <c r="C74">
-        <v>53.10729166666666</v>
+        <v>53.107291666666661</v>
       </c>
       <c r="D74">
         <v>102.1614458333333</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>85</v>
       </c>
@@ -1409,13 +1477,13 @@
         <v>12.93166666666667</v>
       </c>
       <c r="C75">
-        <v>60.38041666666667</v>
+        <v>60.380416666666669</v>
       </c>
       <c r="D75">
         <v>102.18025625</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>86</v>
       </c>
@@ -1423,41 +1491,41 @@
         <v>12.26125</v>
       </c>
       <c r="C76">
-        <v>70.406875</v>
+        <v>70.406874999999999</v>
       </c>
       <c r="D76">
         <v>102.2909875</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>87</v>
       </c>
       <c r="B77">
-        <v>15.98375</v>
+        <v>15.983750000000001</v>
       </c>
       <c r="C77">
-        <v>59.73020833333334</v>
+        <v>59.730208333333337</v>
       </c>
       <c r="D77">
         <v>102.1160166666667</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>88</v>
       </c>
       <c r="B78">
-        <v>16.29604166666667</v>
+        <v>16.296041666666671</v>
       </c>
       <c r="C78">
-        <v>66.59541666666667</v>
+        <v>66.595416666666665</v>
       </c>
       <c r="D78">
         <v>102.1349229166667</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>89</v>
       </c>
@@ -1465,13 +1533,13 @@
         <v>16.27291666666666</v>
       </c>
       <c r="C79">
-        <v>69.09104166666667</v>
+        <v>69.091041666666669</v>
       </c>
       <c r="D79">
         <v>101.7418395833334</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>90</v>
       </c>
@@ -1479,13 +1547,13 @@
         <v>14.37333333333333</v>
       </c>
       <c r="C80">
-        <v>85.34604166666668</v>
+        <v>85.346041666666679</v>
       </c>
       <c r="D80">
         <v>101.6289520833333</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>91</v>
       </c>
@@ -1493,13 +1561,13 @@
         <v>13.56958333333333</v>
       </c>
       <c r="C81">
-        <v>54.75833333333333</v>
+        <v>54.758333333333333</v>
       </c>
       <c r="D81">
         <v>102.2774375</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>92</v>
       </c>
@@ -1507,13 +1575,13 @@
         <v>15.855</v>
       </c>
       <c r="C82">
-        <v>56.75395833333334</v>
+        <v>56.753958333333337</v>
       </c>
       <c r="D82">
-        <v>101.7630458333333</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>101.76304583333329</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>93</v>
       </c>
@@ -1521,13 +1589,13 @@
         <v>18.37886363636364</v>
       </c>
       <c r="C83">
-        <v>56.3765909090909</v>
+        <v>56.376590909090901</v>
       </c>
       <c r="D83">
         <v>100.8905704545454</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>94</v>
       </c>
@@ -1535,13 +1603,13 @@
         <v>12.51288888888889</v>
       </c>
       <c r="C84">
-        <v>57.79488888888886</v>
+        <v>57.794888888888863</v>
       </c>
       <c r="D84">
         <v>102.1112777777778</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>95</v>
       </c>
@@ -1549,13 +1617,13 @@
         <v>15.123125</v>
       </c>
       <c r="C85">
-        <v>55.825625</v>
+        <v>55.825625000000002</v>
       </c>
       <c r="D85">
         <v>101.5980520833334</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>96</v>
       </c>
@@ -1563,13 +1631,13 @@
         <v>15.98041666666666</v>
       </c>
       <c r="C86">
-        <v>58.81604166666666</v>
+        <v>58.816041666666663</v>
       </c>
       <c r="D86">
         <v>101.5220958333333</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>97</v>
       </c>
@@ -1577,18 +1645,18 @@
         <v>15.65520833333334</v>
       </c>
       <c r="C87">
-        <v>49.88854166666666</v>
+        <v>49.888541666666661</v>
       </c>
       <c r="D87">
-        <v>101.8472875</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>101.84728749999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>98</v>
       </c>
       <c r="B88">
-        <v>16.340625</v>
+        <v>16.340624999999999</v>
       </c>
       <c r="C88">
         <v>56.29666666666666</v>
@@ -1597,35 +1665,3761 @@
         <v>102.00225625</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>99</v>
       </c>
       <c r="B89">
-        <v>16.97604166666667</v>
+        <v>16.976041666666671</v>
       </c>
       <c r="C89">
-        <v>72.97104166666668</v>
+        <v>72.971041666666679</v>
       </c>
       <c r="D89">
         <v>101.76719375</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>100</v>
       </c>
       <c r="B90">
-        <v>16.50625</v>
+        <v>16.506250000000001</v>
       </c>
       <c r="C90">
-        <v>84.05833333333332</v>
+        <v>84.058333333333323</v>
       </c>
       <c r="D90">
-        <v>101.6183541666667</v>
+        <v>101.61835416666671</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>101</v>
+      </c>
+      <c r="B91">
+        <v>19.59</v>
+      </c>
+      <c r="C91">
+        <v>85.431666666666672</v>
+      </c>
+      <c r="D91">
+        <v>100.96078958333339</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>102</v>
+      </c>
+      <c r="B92">
+        <v>17.39553191489361</v>
+      </c>
+      <c r="C92">
+        <v>81.330425531914884</v>
+      </c>
+      <c r="D92">
+        <v>101.1156191489362</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>103</v>
+      </c>
+      <c r="B93">
+        <v>14.83770833333333</v>
+      </c>
+      <c r="C93">
+        <v>78.123333333333306</v>
+      </c>
+      <c r="D93">
+        <v>101.0505979166667</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>104</v>
+      </c>
+      <c r="B94">
+        <v>14.676875000000001</v>
+      </c>
+      <c r="C94">
+        <v>86.231250000000003</v>
+      </c>
+      <c r="D94">
+        <v>101.11560625</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>105</v>
+      </c>
+      <c r="B95">
+        <v>15.573958333333341</v>
+      </c>
+      <c r="C95">
+        <v>83.014583333333334</v>
+      </c>
+      <c r="D95">
+        <v>101.33183958333331</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>106</v>
+      </c>
+      <c r="B96">
+        <v>16.177291666666669</v>
+      </c>
+      <c r="C96">
+        <v>75.76895833333333</v>
+      </c>
+      <c r="D96">
+        <v>101.0920541666667</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>107</v>
+      </c>
+      <c r="B97">
+        <v>17.557708333333331</v>
+      </c>
+      <c r="C97">
+        <v>77.438541666666666</v>
+      </c>
+      <c r="D97">
+        <v>101.3005416666667</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>108</v>
+      </c>
+      <c r="B98">
+        <v>15.90875</v>
+      </c>
+      <c r="C98">
+        <v>69.970833333333317</v>
+      </c>
+      <c r="D98">
+        <v>101.36841041666671</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>109</v>
+      </c>
+      <c r="B99">
+        <v>16.587291666666658</v>
+      </c>
+      <c r="C99">
+        <v>75.539166666666674</v>
+      </c>
+      <c r="D99">
+        <v>101.04343125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>110</v>
+      </c>
+      <c r="B100">
+        <v>18.068958333333331</v>
+      </c>
+      <c r="C100">
+        <v>81.779374999999987</v>
+      </c>
+      <c r="D100">
+        <v>101.0974395833334</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>111</v>
+      </c>
+      <c r="B101">
+        <v>16.434791666666669</v>
+      </c>
+      <c r="C101">
+        <v>85.214583333333366</v>
+      </c>
+      <c r="D101">
+        <v>101.0529229166667</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>112</v>
+      </c>
+      <c r="B102">
+        <v>16.37791666666666</v>
+      </c>
+      <c r="C102">
+        <v>82.812083333333334</v>
+      </c>
+      <c r="D102">
+        <v>100.66945625</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>113</v>
+      </c>
+      <c r="B103">
+        <v>19.803333333333331</v>
+      </c>
+      <c r="C103">
+        <v>70.431875000000005</v>
+      </c>
+      <c r="D103">
+        <v>100.8604104166666</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>114</v>
+      </c>
+      <c r="B104">
+        <v>21.845624999999998</v>
+      </c>
+      <c r="C104">
+        <v>73.492916666666659</v>
+      </c>
+      <c r="D104">
+        <v>100.60068333333329</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>115</v>
+      </c>
+      <c r="B105">
+        <v>21.701041666666669</v>
+      </c>
+      <c r="C105">
+        <v>86.853333333333339</v>
+      </c>
+      <c r="D105">
+        <v>100.06962</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>116</v>
+      </c>
+      <c r="B106">
+        <v>19.03875</v>
+      </c>
+      <c r="C106">
+        <v>80.777916666666684</v>
+      </c>
+      <c r="D106">
+        <v>100.49661708333331</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>117</v>
+      </c>
+      <c r="B107">
+        <v>19.551458333333329</v>
+      </c>
+      <c r="C107">
+        <v>49.172500000000007</v>
+      </c>
+      <c r="D107">
+        <v>101.2086791666666</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>118</v>
+      </c>
+      <c r="B108">
+        <v>20.438124999999999</v>
+      </c>
+      <c r="C108">
+        <v>63.952083333333341</v>
+      </c>
+      <c r="D108">
+        <v>100.7854</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>119</v>
+      </c>
+      <c r="B109">
+        <v>21.64574468085106</v>
+      </c>
+      <c r="C109">
+        <v>74.733617021276601</v>
+      </c>
+      <c r="D109">
+        <v>100.7506617021277</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>120</v>
+      </c>
+      <c r="B110">
+        <v>22.279166666666669</v>
+      </c>
+      <c r="C110">
+        <v>87.155208333333334</v>
+      </c>
+      <c r="D110">
+        <v>100.4041479166667</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>121</v>
+      </c>
+      <c r="B111">
+        <v>18.91375</v>
+      </c>
+      <c r="C111">
+        <v>85.940625000000026</v>
+      </c>
+      <c r="D111">
+        <v>100.5447375</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>122</v>
+      </c>
+      <c r="B112">
+        <v>17.736666666666672</v>
+      </c>
+      <c r="C112">
+        <v>88.393749999999955</v>
+      </c>
+      <c r="D112">
+        <v>100.49736666666669</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>123</v>
+      </c>
+      <c r="B113">
+        <v>19.745000000000001</v>
+      </c>
+      <c r="C113">
+        <v>78.965833333333322</v>
+      </c>
+      <c r="D113">
+        <v>100.7872604166667</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>124</v>
+      </c>
+      <c r="B114">
+        <v>22.082916666666669</v>
+      </c>
+      <c r="C114">
+        <v>77.947708333333352</v>
+      </c>
+      <c r="D114">
+        <v>100.8115416666667</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>125</v>
+      </c>
+      <c r="B115">
+        <v>23.092083333333331</v>
+      </c>
+      <c r="C115">
+        <v>70.379166666666663</v>
+      </c>
+      <c r="D115">
+        <v>100.85194375</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>126</v>
+      </c>
+      <c r="B116">
+        <v>23.91791666666667</v>
+      </c>
+      <c r="C116">
+        <v>62.382291666666653</v>
+      </c>
+      <c r="D116">
+        <v>100.89196041666661</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>127</v>
+      </c>
+      <c r="B117">
+        <v>26.158958333333331</v>
+      </c>
+      <c r="C117">
+        <v>56.906666666666659</v>
+      </c>
+      <c r="D117">
+        <v>100.8249020833333</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>128</v>
+      </c>
+      <c r="B118">
+        <v>26.229791666666671</v>
+      </c>
+      <c r="C118">
+        <v>62.959583333333342</v>
+      </c>
+      <c r="D118">
+        <v>100.5657875</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>129</v>
+      </c>
+      <c r="B119">
+        <v>21.08208333333333</v>
+      </c>
+      <c r="C119">
+        <v>87.274583333333325</v>
+      </c>
+      <c r="D119">
+        <v>100.3292604166667</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>130</v>
+      </c>
+      <c r="B120">
+        <v>19.994583333333331</v>
+      </c>
+      <c r="C120">
+        <v>78.786874999999995</v>
+      </c>
+      <c r="D120">
+        <v>101.1540604166667</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>131</v>
+      </c>
+      <c r="B121">
+        <v>20.509166666666658</v>
+      </c>
+      <c r="C121">
+        <v>77.283333333333331</v>
+      </c>
+      <c r="D121">
+        <v>101.252325</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>132</v>
+      </c>
+      <c r="B122">
+        <v>19.647291666666661</v>
+      </c>
+      <c r="C122">
+        <v>76.239583333333314</v>
+      </c>
+      <c r="D122">
+        <v>101.0456166666667</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>133</v>
+      </c>
+      <c r="B123">
+        <v>22.203749999999999</v>
+      </c>
+      <c r="C123">
+        <v>79.548333333333332</v>
+      </c>
+      <c r="D123">
+        <v>100.63782083333339</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>134</v>
+      </c>
+      <c r="B124">
+        <v>21.470416666666669</v>
+      </c>
+      <c r="C124">
+        <v>85.857291666666683</v>
+      </c>
+      <c r="D124">
+        <v>100.4939270833333</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>135</v>
+      </c>
+      <c r="B125">
+        <v>20.239583333333329</v>
+      </c>
+      <c r="C125">
+        <v>85.798125000000013</v>
+      </c>
+      <c r="D125">
+        <v>100.7109916666667</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>136</v>
+      </c>
+      <c r="B126">
+        <v>21.102916666666669</v>
+      </c>
+      <c r="C126">
+        <v>68.726666666666659</v>
+      </c>
+      <c r="D126">
+        <v>100.9212541666667</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>137</v>
+      </c>
+      <c r="B127">
+        <v>24.185625000000002</v>
+      </c>
+      <c r="C127">
+        <v>65.50395833333333</v>
+      </c>
+      <c r="D127">
+        <v>100.5597208333333</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <v>138</v>
+      </c>
+      <c r="B128">
+        <v>24.44958333333334</v>
+      </c>
+      <c r="C128">
+        <v>54.477708333333332</v>
+      </c>
+      <c r="D128">
+        <v>100.79424791666671</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <v>139</v>
+      </c>
+      <c r="B129">
+        <v>24.608958333333341</v>
+      </c>
+      <c r="C129">
+        <v>52.910000000000018</v>
+      </c>
+      <c r="D129">
+        <v>100.9924875</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <v>140</v>
+      </c>
+      <c r="B130">
+        <v>18.276250000000001</v>
+      </c>
+      <c r="C130">
+        <v>81.915208333333354</v>
+      </c>
+      <c r="D130">
+        <v>100.9646166666666</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A131">
+        <v>141</v>
+      </c>
+      <c r="B131">
+        <v>17.757291666666671</v>
+      </c>
+      <c r="C131">
+        <v>84.204374999999985</v>
+      </c>
+      <c r="D131">
+        <v>101.1857916666667</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A132">
+        <v>142</v>
+      </c>
+      <c r="B132">
+        <v>20.063958333333339</v>
+      </c>
+      <c r="C132">
+        <v>72.451041666666683</v>
+      </c>
+      <c r="D132">
+        <v>101.3623833333334</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A133">
+        <v>143</v>
+      </c>
+      <c r="B133">
+        <v>20.362083333333331</v>
+      </c>
+      <c r="C133">
+        <v>75.260208333333352</v>
+      </c>
+      <c r="D133">
+        <v>101.22171458333329</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <v>144</v>
+      </c>
+      <c r="B134">
+        <v>20.751249999999999</v>
+      </c>
+      <c r="C134">
+        <v>82.108124999999987</v>
+      </c>
+      <c r="D134">
+        <v>100.9974375</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A135">
+        <v>145</v>
+      </c>
+      <c r="B135">
+        <v>19.34</v>
+      </c>
+      <c r="C135">
+        <v>90.293749999999989</v>
+      </c>
+      <c r="D135">
+        <v>100.8512958333333</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A136">
+        <v>146</v>
+      </c>
+      <c r="B136">
+        <v>20.491875</v>
+      </c>
+      <c r="C136">
+        <v>82.516458333333347</v>
+      </c>
+      <c r="D136">
+        <v>101.0144375</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A137">
+        <v>147</v>
+      </c>
+      <c r="B137">
+        <v>21.206250000000001</v>
+      </c>
+      <c r="C137">
+        <v>72.669583333333335</v>
+      </c>
+      <c r="D137">
+        <v>101.0277</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A138">
+        <v>148</v>
+      </c>
+      <c r="B138">
+        <v>22.35916666666667</v>
+      </c>
+      <c r="C138">
+        <v>64.748541666666668</v>
+      </c>
+      <c r="D138">
+        <v>101.10272291666671</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <v>149</v>
+      </c>
+      <c r="B139">
+        <v>22.826041666666669</v>
+      </c>
+      <c r="C139">
+        <v>64.582083333333344</v>
+      </c>
+      <c r="D139">
+        <v>101.3342958333333</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A140">
+        <v>150</v>
+      </c>
+      <c r="B140">
+        <v>22.772083333333331</v>
+      </c>
+      <c r="C140">
+        <v>73.071041666666659</v>
+      </c>
+      <c r="D140">
+        <v>101.2683895833333</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A141">
+        <v>151</v>
+      </c>
+      <c r="B141">
+        <v>19.782499999999999</v>
+      </c>
+      <c r="C141">
+        <v>88.602083333333326</v>
+      </c>
+      <c r="D141">
+        <v>101.1269291666666</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A142">
+        <v>152</v>
+      </c>
+      <c r="B142">
+        <v>21.107500000000002</v>
+      </c>
+      <c r="C142">
+        <v>74.688333333333347</v>
+      </c>
+      <c r="D142">
+        <v>101.4760395833334</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A143">
+        <v>153</v>
+      </c>
+      <c r="B143">
+        <v>20.95666666666666</v>
+      </c>
+      <c r="C143">
+        <v>78.442708333333343</v>
+      </c>
+      <c r="D143">
+        <v>101.27900833333329</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A144">
+        <v>154</v>
+      </c>
+      <c r="B144">
+        <v>21.540624999999999</v>
+      </c>
+      <c r="C144">
+        <v>75.369583333333338</v>
+      </c>
+      <c r="D144">
+        <v>101.08925000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A145">
+        <v>155</v>
+      </c>
+      <c r="B145">
+        <v>21.748333333333331</v>
+      </c>
+      <c r="C145">
+        <v>75.765000000000001</v>
+      </c>
+      <c r="D145">
+        <v>100.8977458333334</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A146">
+        <v>156</v>
+      </c>
+      <c r="B146">
+        <v>22.576458333333331</v>
+      </c>
+      <c r="C146">
+        <v>81.56645833333333</v>
+      </c>
+      <c r="D146">
+        <v>100.61869375000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A147">
+        <v>157</v>
+      </c>
+      <c r="B147">
+        <v>23.706875</v>
+      </c>
+      <c r="C147">
+        <v>79.113124999999982</v>
+      </c>
+      <c r="D147">
+        <v>100.5249541666667</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A148">
+        <v>158</v>
+      </c>
+      <c r="B148">
+        <v>22.89041666666667</v>
+      </c>
+      <c r="C148">
+        <v>84.701666666666668</v>
+      </c>
+      <c r="D148">
+        <v>100.29609375</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A149">
+        <v>159</v>
+      </c>
+      <c r="B149">
+        <v>25.022083333333342</v>
+      </c>
+      <c r="C149">
+        <v>84.832916666666648</v>
+      </c>
+      <c r="D149">
+        <v>100.0682835416667</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A150">
+        <v>160</v>
+      </c>
+      <c r="B150">
+        <v>27.503125000000001</v>
+      </c>
+      <c r="C150">
+        <v>79.228541666666658</v>
+      </c>
+      <c r="D150">
+        <v>100.05604416666669</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A151">
+        <v>161</v>
+      </c>
+      <c r="B151">
+        <v>28.380833333333332</v>
+      </c>
+      <c r="C151">
+        <v>78.053333333333327</v>
+      </c>
+      <c r="D151">
+        <v>99.899642916666721</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A152">
+        <v>162</v>
+      </c>
+      <c r="B152">
+        <v>27.37895833333333</v>
+      </c>
+      <c r="C152">
+        <v>85.008958333333339</v>
+      </c>
+      <c r="D152">
+        <v>99.735872083333334</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A153">
+        <v>163</v>
+      </c>
+      <c r="B153">
+        <v>25.897500000000001</v>
+      </c>
+      <c r="C153">
+        <v>84.854791666666671</v>
+      </c>
+      <c r="D153">
+        <v>99.730882291666703</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A154">
+        <v>164</v>
+      </c>
+      <c r="B154">
+        <v>26.42270833333334</v>
+      </c>
+      <c r="C154">
+        <v>76.728125000000006</v>
+      </c>
+      <c r="D154">
+        <v>99.886050000000012</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A155">
+        <v>165</v>
+      </c>
+      <c r="B155">
+        <v>26.05854166666667</v>
+      </c>
+      <c r="C155">
+        <v>74.154999999999987</v>
+      </c>
+      <c r="D155">
+        <v>100.2002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A156">
+        <v>166</v>
+      </c>
+      <c r="B156">
+        <v>25.197083333333339</v>
+      </c>
+      <c r="C156">
+        <v>79.118958333333325</v>
+      </c>
+      <c r="D156">
+        <v>100.33992291666669</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A157">
+        <v>167</v>
+      </c>
+      <c r="B157">
+        <v>26.043958333333329</v>
+      </c>
+      <c r="C157">
+        <v>77.187916666666652</v>
+      </c>
+      <c r="D157">
+        <v>100.30183125000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A158">
+        <v>168</v>
+      </c>
+      <c r="B158">
+        <v>24.767083333333328</v>
+      </c>
+      <c r="C158">
+        <v>75.800208333333359</v>
+      </c>
+      <c r="D158">
+        <v>100.6127625</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A159">
+        <v>169</v>
+      </c>
+      <c r="B159">
+        <v>23.036041666666659</v>
+      </c>
+      <c r="C159">
+        <v>87.887500000000003</v>
+      </c>
+      <c r="D159">
+        <v>100.7257625</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A160">
+        <v>170</v>
+      </c>
+      <c r="B160">
+        <v>23.17229166666667</v>
+      </c>
+      <c r="C160">
+        <v>90.460416666666674</v>
+      </c>
+      <c r="D160">
+        <v>100.22528333333329</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A161">
+        <v>171</v>
+      </c>
+      <c r="B161">
+        <v>23.480625</v>
+      </c>
+      <c r="C161">
+        <v>84.548749999999984</v>
+      </c>
+      <c r="D161">
+        <v>99.989581458333348</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A162">
+        <v>172</v>
+      </c>
+      <c r="B162">
+        <v>23.785625</v>
+      </c>
+      <c r="C162">
+        <v>80.472291666666678</v>
+      </c>
+      <c r="D162">
+        <v>100.205575</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A163">
+        <v>173</v>
+      </c>
+      <c r="B163">
+        <v>25.069583333333341</v>
+      </c>
+      <c r="C163">
+        <v>75.502499999999998</v>
+      </c>
+      <c r="D163">
+        <v>100.45868125</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A164">
+        <v>174</v>
+      </c>
+      <c r="B164">
+        <v>23.705625000000001</v>
+      </c>
+      <c r="C164">
+        <v>87.354166666666643</v>
+      </c>
+      <c r="D164">
+        <v>100.52187708333329</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A165">
+        <v>175</v>
+      </c>
+      <c r="B165">
+        <v>22.32326086956521</v>
+      </c>
+      <c r="C165">
+        <v>91.634782608695673</v>
+      </c>
+      <c r="D165">
+        <v>100.1582217391305</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A166">
+        <v>176</v>
+      </c>
+      <c r="B166">
+        <v>24.141666666666669</v>
+      </c>
+      <c r="C166">
+        <v>82.37895833333333</v>
+      </c>
+      <c r="D166">
+        <v>100.1640708333333</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A167">
+        <v>177</v>
+      </c>
+      <c r="B167">
+        <v>26.641041666666659</v>
+      </c>
+      <c r="C167">
+        <v>81.677708333333342</v>
+      </c>
+      <c r="D167">
+        <v>100.15401249999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A168">
+        <v>178</v>
+      </c>
+      <c r="B168">
+        <v>24.275531914893609</v>
+      </c>
+      <c r="C168">
+        <v>93.270212765957467</v>
+      </c>
+      <c r="D168">
+        <v>100.24821063829791</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A169">
+        <v>179</v>
+      </c>
+      <c r="B169">
+        <v>24</v>
+      </c>
+      <c r="C169">
+        <v>90.975000000000023</v>
+      </c>
+      <c r="D169">
+        <v>100.5532270833333</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A170">
+        <v>180</v>
+      </c>
+      <c r="B170">
+        <v>25.618958333333332</v>
+      </c>
+      <c r="C170">
+        <v>90.256250000000023</v>
+      </c>
+      <c r="D170">
+        <v>100.62695416666671</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A171">
+        <v>181</v>
+      </c>
+      <c r="B171">
+        <v>28.86624999999999</v>
+      </c>
+      <c r="C171">
+        <v>79.968749999999986</v>
+      </c>
+      <c r="D171">
+        <v>100.2815916666667</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A172">
+        <v>182</v>
+      </c>
+      <c r="B172">
+        <v>29.529791666666661</v>
+      </c>
+      <c r="C172">
+        <v>78.258333333333312</v>
+      </c>
+      <c r="D172">
+        <v>100.2988104166667</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A173">
+        <v>183</v>
+      </c>
+      <c r="B173">
+        <v>29.783541666666661</v>
+      </c>
+      <c r="C173">
+        <v>78.222708333333301</v>
+      </c>
+      <c r="D173">
+        <v>100.47505833333329</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A174">
+        <v>184</v>
+      </c>
+      <c r="B174">
+        <v>31.116875</v>
+      </c>
+      <c r="C174">
+        <v>71.842708333333306</v>
+      </c>
+      <c r="D174">
+        <v>100.20250875000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A175">
+        <v>185</v>
+      </c>
+      <c r="B175">
+        <v>29.235833333333339</v>
+      </c>
+      <c r="C175">
+        <v>74.718958333333333</v>
+      </c>
+      <c r="D175">
+        <v>100.02056374999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A176">
+        <v>186</v>
+      </c>
+      <c r="B176">
+        <v>30.5</v>
+      </c>
+      <c r="C176">
+        <v>75.251458333333304</v>
+      </c>
+      <c r="D176">
+        <v>100.0843597916667</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A177">
+        <v>187</v>
+      </c>
+      <c r="B177">
+        <v>32.611666666666657</v>
+      </c>
+      <c r="C177">
+        <v>70.295208333333349</v>
+      </c>
+      <c r="D177">
+        <v>100.14523541666669</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A178">
+        <v>188</v>
+      </c>
+      <c r="B178">
+        <v>31.027083333333341</v>
+      </c>
+      <c r="C178">
+        <v>72.724374999999995</v>
+      </c>
+      <c r="D178">
+        <v>100.1527689583333</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A179">
+        <v>189</v>
+      </c>
+      <c r="B179">
+        <v>28.681666666666661</v>
+      </c>
+      <c r="C179">
+        <v>81.916458333333352</v>
+      </c>
+      <c r="D179">
+        <v>100.2169479166667</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A180">
+        <v>190</v>
+      </c>
+      <c r="B180">
+        <v>28.170208333333331</v>
+      </c>
+      <c r="C180">
+        <v>84.400208333333339</v>
+      </c>
+      <c r="D180">
+        <v>100.1985458333333</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A181">
+        <v>191</v>
+      </c>
+      <c r="B181">
+        <v>30.623541666666679</v>
+      </c>
+      <c r="C181">
+        <v>78.949374999999989</v>
+      </c>
+      <c r="D181">
+        <v>100.12833437499999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A182">
+        <v>192</v>
+      </c>
+      <c r="B182">
+        <v>32.079166666666659</v>
+      </c>
+      <c r="C182">
+        <v>73.224374999999995</v>
+      </c>
+      <c r="D182">
+        <v>99.835346249999972</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A183">
+        <v>193</v>
+      </c>
+      <c r="B183">
+        <v>30.153749999999999</v>
+      </c>
+      <c r="C183">
+        <v>80.733958333333348</v>
+      </c>
+      <c r="D183">
+        <v>99.787638333333348</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A184">
+        <v>194</v>
+      </c>
+      <c r="B184">
+        <v>29.94041666666666</v>
+      </c>
+      <c r="C184">
+        <v>79.757499999999979</v>
+      </c>
+      <c r="D184">
+        <v>99.904283124999992</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A185">
+        <v>195</v>
+      </c>
+      <c r="B185">
+        <v>27.557500000000001</v>
+      </c>
+      <c r="C185">
+        <v>83.553124999999966</v>
+      </c>
+      <c r="D185">
+        <v>99.968932291666633</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A186">
+        <v>196</v>
+      </c>
+      <c r="B186">
+        <v>26.19062499999999</v>
+      </c>
+      <c r="C186">
+        <v>87.841666666666697</v>
+      </c>
+      <c r="D186">
+        <v>99.834439999999972</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A187">
+        <v>197</v>
+      </c>
+      <c r="B187">
+        <v>25.72229166666666</v>
+      </c>
+      <c r="C187">
+        <v>77.674583333333331</v>
+      </c>
+      <c r="D187">
+        <v>100.34921249999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A188">
+        <v>198</v>
+      </c>
+      <c r="B188">
+        <v>26.919791666666669</v>
+      </c>
+      <c r="C188">
+        <v>79.690208333333317</v>
+      </c>
+      <c r="D188">
+        <v>100.57944375</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A189">
+        <v>199</v>
+      </c>
+      <c r="B189">
+        <v>26.021458333333339</v>
+      </c>
+      <c r="C189">
+        <v>84.035624999999996</v>
+      </c>
+      <c r="D189">
+        <v>100.5393416666667</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A190">
+        <v>200</v>
+      </c>
+      <c r="B190">
+        <v>27.058749999999989</v>
+      </c>
+      <c r="C190">
+        <v>78.227708333333339</v>
+      </c>
+      <c r="D190">
+        <v>100.45033125</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A191">
+        <v>201</v>
+      </c>
+      <c r="B191">
+        <v>29.369166666666661</v>
+      </c>
+      <c r="C191">
+        <v>69.41791666666667</v>
+      </c>
+      <c r="D191">
+        <v>100.577975</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A192">
+        <v>202</v>
+      </c>
+      <c r="B192">
+        <v>28.70333333333333</v>
+      </c>
+      <c r="C192">
+        <v>81.159374999999997</v>
+      </c>
+      <c r="D192">
+        <v>100.5306208333333</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A193">
+        <v>203</v>
+      </c>
+      <c r="B193">
+        <v>30.146041666666669</v>
+      </c>
+      <c r="C193">
+        <v>78.714999999999989</v>
+      </c>
+      <c r="D193">
+        <v>100.39292500000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A194">
+        <v>204</v>
+      </c>
+      <c r="B194">
+        <v>30.7</v>
+      </c>
+      <c r="C194">
+        <v>73.452708333333348</v>
+      </c>
+      <c r="D194">
+        <v>100.22398124999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A195">
+        <v>205</v>
+      </c>
+      <c r="B195">
+        <v>30.278541666666669</v>
+      </c>
+      <c r="C195">
+        <v>74.33541666666666</v>
+      </c>
+      <c r="D195">
+        <v>100.38527499999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A196">
+        <v>206</v>
+      </c>
+      <c r="B196">
+        <v>29.94520833333333</v>
+      </c>
+      <c r="C196">
+        <v>75.392916666666693</v>
+      </c>
+      <c r="D196">
+        <v>100.730225</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A197">
+        <v>207</v>
+      </c>
+      <c r="B197">
+        <v>29.548541666666669</v>
+      </c>
+      <c r="C197">
+        <v>72.221458333333345</v>
+      </c>
+      <c r="D197">
+        <v>100.8740895833333</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A198">
+        <v>208</v>
+      </c>
+      <c r="B198">
+        <v>29.725208333333342</v>
+      </c>
+      <c r="C198">
+        <v>73.004375000000024</v>
+      </c>
+      <c r="D198">
+        <v>100.6346354166667</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A199">
+        <v>209</v>
+      </c>
+      <c r="B199">
+        <v>30.183125</v>
+      </c>
+      <c r="C199">
+        <v>75.066666666666663</v>
+      </c>
+      <c r="D199">
+        <v>100.5371458333333</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A200">
+        <v>210</v>
+      </c>
+      <c r="B200">
+        <v>30.568541666666661</v>
+      </c>
+      <c r="C200">
+        <v>74.245416666666671</v>
+      </c>
+      <c r="D200">
+        <v>100.558375</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A201">
+        <v>211</v>
+      </c>
+      <c r="B201">
+        <v>30.859375</v>
+      </c>
+      <c r="C201">
+        <v>69.883125000000007</v>
+      </c>
+      <c r="D201">
+        <v>100.3306291666667</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A202">
+        <v>212</v>
+      </c>
+      <c r="B202">
+        <v>30.4</v>
+      </c>
+      <c r="C202">
+        <v>69.775416666666658</v>
+      </c>
+      <c r="D202">
+        <v>100.1817958333334</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A203">
+        <v>213</v>
+      </c>
+      <c r="B203">
+        <v>29.977499999999999</v>
+      </c>
+      <c r="C203">
+        <v>72.798333333333332</v>
+      </c>
+      <c r="D203">
+        <v>100.2055125</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A204">
+        <v>214</v>
+      </c>
+      <c r="B204">
+        <v>29.83229166666667</v>
+      </c>
+      <c r="C204">
+        <v>69.449791666666655</v>
+      </c>
+      <c r="D204">
+        <v>100.1846708333334</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A205">
+        <v>215</v>
+      </c>
+      <c r="B205">
+        <v>28.798333333333328</v>
+      </c>
+      <c r="C205">
+        <v>78.106875000000002</v>
+      </c>
+      <c r="D205">
+        <v>99.949087708333309</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A206">
+        <v>216</v>
+      </c>
+      <c r="B206">
+        <v>28.73708333333332</v>
+      </c>
+      <c r="C206">
+        <v>82.564583333333346</v>
+      </c>
+      <c r="D206">
+        <v>99.826110208333361</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A207">
+        <v>217</v>
+      </c>
+      <c r="B207">
+        <v>28.988749999999989</v>
+      </c>
+      <c r="C207">
+        <v>79.165624999999963</v>
+      </c>
+      <c r="D207">
+        <v>100.1624777083334</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A208">
+        <v>218</v>
+      </c>
+      <c r="B208">
+        <v>28.98520833333334</v>
+      </c>
+      <c r="C208">
+        <v>75.546250000000001</v>
+      </c>
+      <c r="D208">
+        <v>100.4157229166667</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A209">
+        <v>219</v>
+      </c>
+      <c r="B209">
+        <v>28.651458333333341</v>
+      </c>
+      <c r="C209">
+        <v>78.269166666666663</v>
+      </c>
+      <c r="D209">
+        <v>100.3341708333334</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A210">
+        <v>220</v>
+      </c>
+      <c r="B210">
+        <v>28.496249999999989</v>
+      </c>
+      <c r="C210">
+        <v>78.475625000000008</v>
+      </c>
+      <c r="D210">
+        <v>100.19938437499999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A211">
+        <v>221</v>
+      </c>
+      <c r="B211">
+        <v>26.41062500000001</v>
+      </c>
+      <c r="C211">
+        <v>90.549166666666636</v>
+      </c>
+      <c r="D211">
+        <v>99.154211041666656</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A212">
+        <v>222</v>
+      </c>
+      <c r="B212">
+        <v>28.322708333333331</v>
+      </c>
+      <c r="C212">
+        <v>84.496041666666628</v>
+      </c>
+      <c r="D212">
+        <v>99.501526041666679</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A213">
+        <v>223</v>
+      </c>
+      <c r="B213">
+        <v>28.230000000000011</v>
+      </c>
+      <c r="C213">
+        <v>84.667083333333366</v>
+      </c>
+      <c r="D213">
+        <v>99.779662291666682</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A214">
+        <v>224</v>
+      </c>
+      <c r="B214">
+        <v>28.607500000000002</v>
+      </c>
+      <c r="C214">
+        <v>81.827500000000029</v>
+      </c>
+      <c r="D214">
+        <v>99.980643125000014</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A215">
+        <v>225</v>
+      </c>
+      <c r="B215">
+        <v>30.104166666666661</v>
+      </c>
+      <c r="C215">
+        <v>75.487500000000026</v>
+      </c>
+      <c r="D215">
+        <v>100.00659437500001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A216">
+        <v>226</v>
+      </c>
+      <c r="B216">
+        <v>30.623750000000001</v>
+      </c>
+      <c r="C216">
+        <v>77.469583333333318</v>
+      </c>
+      <c r="D216">
+        <v>100.11761312500001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A217">
+        <v>227</v>
+      </c>
+      <c r="B217">
+        <v>31.276875</v>
+      </c>
+      <c r="C217">
+        <v>79.194583333333327</v>
+      </c>
+      <c r="D217">
+        <v>100.2998270833333</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A218">
+        <v>228</v>
+      </c>
+      <c r="B218">
+        <v>30.56645833333334</v>
+      </c>
+      <c r="C218">
+        <v>79.972708333333316</v>
+      </c>
+      <c r="D218">
+        <v>100.4354791666667</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A219">
+        <v>229</v>
+      </c>
+      <c r="B219">
+        <v>30.498750000000008</v>
+      </c>
+      <c r="C219">
+        <v>77.511041666666642</v>
+      </c>
+      <c r="D219">
+        <v>100.644475</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A220">
+        <v>230</v>
+      </c>
+      <c r="B220">
+        <v>30.35062499999999</v>
+      </c>
+      <c r="C220">
+        <v>77.759791666666686</v>
+      </c>
+      <c r="D220">
+        <v>100.6748770833333</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A221">
+        <v>231</v>
+      </c>
+      <c r="B221">
+        <v>30.80166666666668</v>
+      </c>
+      <c r="C221">
+        <v>75.645208333333329</v>
+      </c>
+      <c r="D221">
+        <v>100.6442</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A222">
+        <v>232</v>
+      </c>
+      <c r="B222">
+        <v>30.547916666666659</v>
+      </c>
+      <c r="C222">
+        <v>76.036249999999981</v>
+      </c>
+      <c r="D222">
+        <v>100.51983958333339</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A223">
+        <v>233</v>
+      </c>
+      <c r="B223">
+        <v>29.68375</v>
+      </c>
+      <c r="C223">
+        <v>76.491041666666675</v>
+      </c>
+      <c r="D223">
+        <v>100.43205</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A224">
+        <v>234</v>
+      </c>
+      <c r="B224">
+        <v>29.075833333333339</v>
+      </c>
+      <c r="C224">
+        <v>78.933333333333337</v>
+      </c>
+      <c r="D224">
+        <v>100.46736875000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A225">
+        <v>235</v>
+      </c>
+      <c r="B225">
+        <v>24.405625000000001</v>
+      </c>
+      <c r="C225">
+        <v>84.489583333333329</v>
+      </c>
+      <c r="D225">
+        <v>100.94155625</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A226">
+        <v>236</v>
+      </c>
+      <c r="B226">
+        <v>23.703749999999999</v>
+      </c>
+      <c r="C226">
+        <v>78.199583333333337</v>
+      </c>
+      <c r="D226">
+        <v>101.0675270833333</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A227">
+        <v>237</v>
+      </c>
+      <c r="B227">
+        <v>25.339166666666671</v>
+      </c>
+      <c r="C227">
+        <v>84.209583333333299</v>
+      </c>
+      <c r="D227">
+        <v>100.99935208333331</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A228">
+        <v>238</v>
+      </c>
+      <c r="B228">
+        <v>26.162500000000001</v>
+      </c>
+      <c r="C228">
+        <v>90.06874999999998</v>
+      </c>
+      <c r="D228">
+        <v>100.97013541666669</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A229">
+        <v>239</v>
+      </c>
+      <c r="B229">
+        <v>27.88229166666666</v>
+      </c>
+      <c r="C229">
+        <v>79.321458333333325</v>
+      </c>
+      <c r="D229">
+        <v>100.65309375</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A230">
+        <v>240</v>
+      </c>
+      <c r="B230">
+        <v>27.88645833333333</v>
+      </c>
+      <c r="C230">
+        <v>79.249999999999972</v>
+      </c>
+      <c r="D230">
+        <v>100.08087083333329</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A231">
+        <v>241</v>
+      </c>
+      <c r="B231">
+        <v>26.393541666666671</v>
+      </c>
+      <c r="C231">
+        <v>82.871875000000003</v>
+      </c>
+      <c r="D231">
+        <v>100.16814125000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A232">
+        <v>242</v>
+      </c>
+      <c r="B232">
+        <v>27.705208333333331</v>
+      </c>
+      <c r="C232">
+        <v>79.004791666666677</v>
+      </c>
+      <c r="D232">
+        <v>100.59349374999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A233">
+        <v>243</v>
+      </c>
+      <c r="B233">
+        <v>28.23833333333333</v>
+      </c>
+      <c r="C233">
+        <v>77.441874999999982</v>
+      </c>
+      <c r="D233">
+        <v>100.794775</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A234">
+        <v>244</v>
+      </c>
+      <c r="B234">
+        <v>27.320208333333341</v>
+      </c>
+      <c r="C234">
+        <v>76.427083333333343</v>
+      </c>
+      <c r="D234">
+        <v>101.02519375</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A235">
+        <v>245</v>
+      </c>
+      <c r="B235">
+        <v>26.381041666666661</v>
+      </c>
+      <c r="C235">
+        <v>73.779791666666668</v>
+      </c>
+      <c r="D235">
+        <v>101.0558625</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A236">
+        <v>246</v>
+      </c>
+      <c r="B236">
+        <v>26.636041666666671</v>
+      </c>
+      <c r="C236">
+        <v>77.458333333333357</v>
+      </c>
+      <c r="D236">
+        <v>100.8098270833333</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A237">
+        <v>247</v>
+      </c>
+      <c r="B237">
+        <v>25.450208333333329</v>
+      </c>
+      <c r="C237">
+        <v>84.031041666666667</v>
+      </c>
+      <c r="D237">
+        <v>100.8209875</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A238">
+        <v>248</v>
+      </c>
+      <c r="B238">
+        <v>23.335208333333341</v>
+      </c>
+      <c r="C238">
+        <v>82.481666666666669</v>
+      </c>
+      <c r="D238">
+        <v>101.3645104166667</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A239">
+        <v>249</v>
+      </c>
+      <c r="B239">
+        <v>24.289583333333329</v>
+      </c>
+      <c r="C239">
+        <v>75.847916666666663</v>
+      </c>
+      <c r="D239">
+        <v>101.7301208333333</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A240">
+        <v>250</v>
+      </c>
+      <c r="B240">
+        <v>25.507083333333341</v>
+      </c>
+      <c r="C240">
+        <v>81.192708333333329</v>
+      </c>
+      <c r="D240">
+        <v>101.6167333333333</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A241">
+        <v>251</v>
+      </c>
+      <c r="B241">
+        <v>25.57113636363637</v>
+      </c>
+      <c r="C241">
+        <v>86.020000000000024</v>
+      </c>
+      <c r="D241">
+        <v>101.260125</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A242">
+        <v>252</v>
+      </c>
+      <c r="B242">
+        <v>25.673541666666669</v>
+      </c>
+      <c r="C242">
+        <v>84.969374999999999</v>
+      </c>
+      <c r="D242">
+        <v>101.1353729166667</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A243">
+        <v>253</v>
+      </c>
+      <c r="B243">
+        <v>23.630625000000009</v>
+      </c>
+      <c r="C243">
+        <v>90.297916666666666</v>
+      </c>
+      <c r="D243">
+        <v>101.06910208333331</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A244">
+        <v>254</v>
+      </c>
+      <c r="B244">
+        <v>24.142916666666679</v>
+      </c>
+      <c r="C244">
+        <v>75.806666666666629</v>
+      </c>
+      <c r="D244">
+        <v>101.3079291666667</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A245">
+        <v>255</v>
+      </c>
+      <c r="B245">
+        <v>24.599583333333332</v>
+      </c>
+      <c r="C245">
+        <v>74.702708333333305</v>
+      </c>
+      <c r="D245">
+        <v>101.08173125</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A246">
+        <v>256</v>
+      </c>
+      <c r="B246">
+        <v>24.71916666666667</v>
+      </c>
+      <c r="C246">
+        <v>85.847916666666677</v>
+      </c>
+      <c r="D246">
+        <v>100.8006583333333</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A247">
+        <v>257</v>
+      </c>
+      <c r="B247">
+        <v>21.28145833333333</v>
+      </c>
+      <c r="C247">
+        <v>84.299374999999984</v>
+      </c>
+      <c r="D247">
+        <v>101.217775</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A248">
+        <v>258</v>
+      </c>
+      <c r="B248">
+        <v>21.471875000000001</v>
+      </c>
+      <c r="C248">
+        <v>69.554374999999993</v>
+      </c>
+      <c r="D248">
+        <v>101.5649854166667</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A249">
+        <v>259</v>
+      </c>
+      <c r="B249">
+        <v>21.958124999999999</v>
+      </c>
+      <c r="C249">
+        <v>65.870208333333338</v>
+      </c>
+      <c r="D249">
+        <v>101.6554125</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A250">
+        <v>260</v>
+      </c>
+      <c r="B250">
+        <v>22.340833333333329</v>
+      </c>
+      <c r="C250">
+        <v>64.415624999999991</v>
+      </c>
+      <c r="D250">
+        <v>101.3516729166667</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A251">
+        <v>261</v>
+      </c>
+      <c r="B251">
+        <v>21.443541666666661</v>
+      </c>
+      <c r="C251">
+        <v>63.355416666666677</v>
+      </c>
+      <c r="D251">
+        <v>101.09625</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A252">
+        <v>262</v>
+      </c>
+      <c r="B252">
+        <v>22.132916666666659</v>
+      </c>
+      <c r="C252">
+        <v>64.006874999999994</v>
+      </c>
+      <c r="D252">
+        <v>101.0257145833333</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A253">
+        <v>263</v>
+      </c>
+      <c r="B253">
+        <v>23.17229166666667</v>
+      </c>
+      <c r="C253">
+        <v>63.532500000000013</v>
+      </c>
+      <c r="D253">
+        <v>101.1770375</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A254">
+        <v>264</v>
+      </c>
+      <c r="B254">
+        <v>23.689374999999998</v>
+      </c>
+      <c r="C254">
+        <v>73.846041666666693</v>
+      </c>
+      <c r="D254">
+        <v>101.3120520833333</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A255">
+        <v>265</v>
+      </c>
+      <c r="B255">
+        <v>23.286666666666669</v>
+      </c>
+      <c r="C255">
+        <v>81.754583333333329</v>
+      </c>
+      <c r="D255">
+        <v>101.22099375000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A256">
+        <v>266</v>
+      </c>
+      <c r="B256">
+        <v>19.953125</v>
+      </c>
+      <c r="C256">
+        <v>87.197916666666686</v>
+      </c>
+      <c r="D256">
+        <v>101.04244375</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A257">
+        <v>267</v>
+      </c>
+      <c r="B257">
+        <v>22.303958333333341</v>
+      </c>
+      <c r="C257">
+        <v>76.307708333333338</v>
+      </c>
+      <c r="D257">
+        <v>101.1315291666667</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A258">
+        <v>268</v>
+      </c>
+      <c r="B258">
+        <v>23.18729166666667</v>
+      </c>
+      <c r="C258">
+        <v>66.16354166666666</v>
+      </c>
+      <c r="D258">
+        <v>101.2921229166667</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A259">
+        <v>269</v>
+      </c>
+      <c r="B259">
+        <v>23.056458333333332</v>
+      </c>
+      <c r="C259">
+        <v>71.161458333333343</v>
+      </c>
+      <c r="D259">
+        <v>101.5749458333334</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A260">
+        <v>270</v>
+      </c>
+      <c r="B260">
+        <v>23.826666666666672</v>
+      </c>
+      <c r="C260">
+        <v>76.092291666666668</v>
+      </c>
+      <c r="D260">
+        <v>101.62104375</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A261">
+        <v>271</v>
+      </c>
+      <c r="B261">
+        <v>23.71083333333333</v>
+      </c>
+      <c r="C261">
+        <v>78.57854166666668</v>
+      </c>
+      <c r="D261">
+        <v>101.53257916666669</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A262">
+        <v>272</v>
+      </c>
+      <c r="B262">
+        <v>22.59333333333333</v>
+      </c>
+      <c r="C262">
+        <v>71.857708333333335</v>
+      </c>
+      <c r="D262">
+        <v>101.4543770833333</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A263">
+        <v>273</v>
+      </c>
+      <c r="B263">
+        <v>20.575208333333329</v>
+      </c>
+      <c r="C263">
+        <v>43.200416666666662</v>
+      </c>
+      <c r="D263">
+        <v>101.6127041666667</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A264">
+        <v>274</v>
+      </c>
+      <c r="B264">
+        <v>20.59333333333333</v>
+      </c>
+      <c r="C264">
+        <v>47.714791666666663</v>
+      </c>
+      <c r="D264">
+        <v>101.6456104166667</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A265">
+        <v>275</v>
+      </c>
+      <c r="B265">
+        <v>20.42520833333333</v>
+      </c>
+      <c r="C265">
+        <v>56.176041666666642</v>
+      </c>
+      <c r="D265">
+        <v>101.7279958333334</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A266">
+        <v>276</v>
+      </c>
+      <c r="B266">
+        <v>20.673749999999998</v>
+      </c>
+      <c r="C266">
+        <v>62.703124999999993</v>
+      </c>
+      <c r="D266">
+        <v>101.64631875000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A267">
+        <v>277</v>
+      </c>
+      <c r="B267">
+        <v>20.82458333333334</v>
+      </c>
+      <c r="C267">
+        <v>63.701666666666647</v>
+      </c>
+      <c r="D267">
+        <v>101.3024104166667</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A268">
+        <v>278</v>
+      </c>
+      <c r="B268">
+        <v>20.869375000000002</v>
+      </c>
+      <c r="C268">
+        <v>67.433541666666642</v>
+      </c>
+      <c r="D268">
+        <v>101.3535854166667</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A269">
+        <v>279</v>
+      </c>
+      <c r="B269">
+        <v>21.01125</v>
+      </c>
+      <c r="C269">
+        <v>73.857083333333335</v>
+      </c>
+      <c r="D269">
+        <v>101.68466875</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A270">
+        <v>280</v>
+      </c>
+      <c r="B270">
+        <v>21.642708333333331</v>
+      </c>
+      <c r="C270">
+        <v>73.822500000000005</v>
+      </c>
+      <c r="D270">
+        <v>102.000675</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A271">
+        <v>281</v>
+      </c>
+      <c r="B271">
+        <v>21.260208333333331</v>
+      </c>
+      <c r="C271">
+        <v>65.020833333333314</v>
+      </c>
+      <c r="D271">
+        <v>102.0911916666667</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A272">
+        <v>282</v>
+      </c>
+      <c r="B272">
+        <v>20.483750000000001</v>
+      </c>
+      <c r="C272">
+        <v>64.029583333333321</v>
+      </c>
+      <c r="D272">
+        <v>101.85615</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A273">
+        <v>283</v>
+      </c>
+      <c r="B273">
+        <v>21.391249999999999</v>
+      </c>
+      <c r="C273">
+        <v>70.638958333333321</v>
+      </c>
+      <c r="D273">
+        <v>101.5513583333333</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A274">
+        <v>284</v>
+      </c>
+      <c r="B274">
+        <v>21.714583333333341</v>
+      </c>
+      <c r="C274">
+        <v>61.503541666666678</v>
+      </c>
+      <c r="D274">
+        <v>101.66092500000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A275">
+        <v>285</v>
+      </c>
+      <c r="B275">
+        <v>19.434583333333329</v>
+      </c>
+      <c r="C275">
+        <v>57.383541666666673</v>
+      </c>
+      <c r="D275">
+        <v>101.83806875000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A276">
+        <v>286</v>
+      </c>
+      <c r="B276">
+        <v>19.647500000000001</v>
+      </c>
+      <c r="C276">
+        <v>57.676458333333329</v>
+      </c>
+      <c r="D276">
+        <v>101.6802979166667</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A277">
+        <v>287</v>
+      </c>
+      <c r="B277">
+        <v>20.33979166666667</v>
+      </c>
+      <c r="C277">
+        <v>69.953749999999999</v>
+      </c>
+      <c r="D277">
+        <v>101.51890625</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A278">
+        <v>288</v>
+      </c>
+      <c r="B278">
+        <v>21.447916666666661</v>
+      </c>
+      <c r="C278">
+        <v>69.245000000000019</v>
+      </c>
+      <c r="D278">
+        <v>101.6395041666667</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A279">
+        <v>289</v>
+      </c>
+      <c r="B279">
+        <v>21.317916666666669</v>
+      </c>
+      <c r="C279">
+        <v>67.297708333333318</v>
+      </c>
+      <c r="D279">
+        <v>101.83864375</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A280">
+        <v>290</v>
+      </c>
+      <c r="B280">
+        <v>20.574999999999989</v>
+      </c>
+      <c r="C280">
+        <v>78.944583333333313</v>
+      </c>
+      <c r="D280">
+        <v>101.5580833333334</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A281">
+        <v>291</v>
+      </c>
+      <c r="B281">
+        <v>17.989583333333339</v>
+      </c>
+      <c r="C281">
+        <v>55.339791666666663</v>
+      </c>
+      <c r="D281">
+        <v>101.98967500000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A282">
+        <v>292</v>
+      </c>
+      <c r="B282">
+        <v>16.578125</v>
+      </c>
+      <c r="C282">
+        <v>45.016458333333333</v>
+      </c>
+      <c r="D282">
+        <v>102.0333583333333</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A283">
+        <v>293</v>
+      </c>
+      <c r="B283">
+        <v>17.761875</v>
+      </c>
+      <c r="C283">
+        <v>67.13624999999999</v>
+      </c>
+      <c r="D283">
+        <v>101.90808541666669</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A284">
+        <v>294</v>
+      </c>
+      <c r="B284">
+        <v>20.034791666666671</v>
+      </c>
+      <c r="C284">
+        <v>68.38916666666664</v>
+      </c>
+      <c r="D284">
+        <v>101.6997916666666</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A285">
+        <v>295</v>
+      </c>
+      <c r="B285">
+        <v>21.243541666666669</v>
+      </c>
+      <c r="C285">
+        <v>79.311458333333363</v>
+      </c>
+      <c r="D285">
+        <v>101.6619229166667</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A286">
+        <v>296</v>
+      </c>
+      <c r="B286">
+        <v>18.194583333333341</v>
+      </c>
+      <c r="C286">
+        <v>86.138124999999988</v>
+      </c>
+      <c r="D286">
+        <v>101.6954645833333</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A287">
+        <v>297</v>
+      </c>
+      <c r="B287">
+        <v>16.67145833333333</v>
+      </c>
+      <c r="C287">
+        <v>56.514166666666682</v>
+      </c>
+      <c r="D287">
+        <v>102.0184375</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A288">
+        <v>298</v>
+      </c>
+      <c r="B288">
+        <v>17.869375000000002</v>
+      </c>
+      <c r="C288">
+        <v>70.129374999999996</v>
+      </c>
+      <c r="D288">
+        <v>101.6649291666667</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A289">
+        <v>299</v>
+      </c>
+      <c r="B289">
+        <v>18.328958333333329</v>
+      </c>
+      <c r="C289">
+        <v>79.504375000000024</v>
+      </c>
+      <c r="D289">
+        <v>101.6731041666667</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A290">
+        <v>300</v>
+      </c>
+      <c r="B290">
+        <v>21.110624999999999</v>
+      </c>
+      <c r="C290">
+        <v>84.503333333333345</v>
+      </c>
+      <c r="D290">
+        <v>101.49459166666669</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A291">
+        <v>301</v>
+      </c>
+      <c r="B291">
+        <v>19.346666666666671</v>
+      </c>
+      <c r="C291">
+        <v>86.676041666666677</v>
+      </c>
+      <c r="D291">
+        <v>101.7153645833333</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A292">
+        <v>302</v>
+      </c>
+      <c r="B292">
+        <v>18.308125</v>
+      </c>
+      <c r="C292">
+        <v>79.652083333333323</v>
+      </c>
+      <c r="D292">
+        <v>102.2163770833334</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A293">
+        <v>303</v>
+      </c>
+      <c r="B293">
+        <v>17.59333333333333</v>
+      </c>
+      <c r="C293">
+        <v>77.251666666666665</v>
+      </c>
+      <c r="D293">
+        <v>101.90441250000001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A294">
+        <v>304</v>
+      </c>
+      <c r="B294">
+        <v>14.61375</v>
+      </c>
+      <c r="C294">
+        <v>76.589375000000018</v>
+      </c>
+      <c r="D294">
+        <v>101.95048125</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A295">
+        <v>305</v>
+      </c>
+      <c r="B295">
+        <v>13.97583333333333</v>
+      </c>
+      <c r="C295">
+        <v>63.28041666666666</v>
+      </c>
+      <c r="D295">
+        <v>102.0686333333333</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A296">
+        <v>306</v>
+      </c>
+      <c r="B296">
+        <v>14.265000000000001</v>
+      </c>
+      <c r="C296">
+        <v>68.571874999999991</v>
+      </c>
+      <c r="D296">
+        <v>102.1113541666667</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A297">
+        <v>307</v>
+      </c>
+      <c r="B297">
+        <v>15.634166666666671</v>
+      </c>
+      <c r="C297">
+        <v>70.912083333333328</v>
+      </c>
+      <c r="D297">
+        <v>102.0066354166666</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A298">
+        <v>308</v>
+      </c>
+      <c r="B298">
+        <v>17.049583333333331</v>
+      </c>
+      <c r="C298">
+        <v>78.777083333333323</v>
+      </c>
+      <c r="D298">
+        <v>101.785175</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A299">
+        <v>309</v>
+      </c>
+      <c r="B299">
+        <v>13.50125000000001</v>
+      </c>
+      <c r="C299">
+        <v>49.453541666666673</v>
+      </c>
+      <c r="D299">
+        <v>101.7947354166667</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A300">
+        <v>310</v>
+      </c>
+      <c r="B300">
+        <v>12.918333333333329</v>
+      </c>
+      <c r="C300">
+        <v>45.72999999999999</v>
+      </c>
+      <c r="D300">
+        <v>101.9885520833334</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A301">
+        <v>311</v>
+      </c>
+      <c r="B301">
+        <v>11.554166666666671</v>
+      </c>
+      <c r="C301">
+        <v>56.420000000000009</v>
+      </c>
+      <c r="D301">
+        <v>102.25276875</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A302">
+        <v>312</v>
+      </c>
+      <c r="B302">
+        <v>13.018333333333331</v>
+      </c>
+      <c r="C302">
+        <v>63.736041666666672</v>
+      </c>
+      <c r="D302">
+        <v>101.95338333333341</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A303">
+        <v>313</v>
+      </c>
+      <c r="B303">
+        <v>13.096666666666669</v>
+      </c>
+      <c r="C303">
+        <v>84.110208333333318</v>
+      </c>
+      <c r="D303">
+        <v>101.6384833333333</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A304">
+        <v>314</v>
+      </c>
+      <c r="B304">
+        <v>14.463333333333329</v>
+      </c>
+      <c r="C304">
+        <v>93.050000000000011</v>
+      </c>
+      <c r="D304">
+        <v>101.5708395833334</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A305">
+        <v>315</v>
+      </c>
+      <c r="B305">
+        <v>14.9025</v>
+      </c>
+      <c r="C305">
+        <v>91.812500000000014</v>
+      </c>
+      <c r="D305">
+        <v>101.3000458333333</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A306">
+        <v>316</v>
+      </c>
+      <c r="B306">
+        <v>11.506458333333329</v>
+      </c>
+      <c r="C306">
+        <v>55.341041666666683</v>
+      </c>
+      <c r="D306">
+        <v>102.12179374999999</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A307">
+        <v>317</v>
+      </c>
+      <c r="B307">
+        <v>12.04104166666667</v>
+      </c>
+      <c r="C307">
+        <v>50.365624999999987</v>
+      </c>
+      <c r="D307">
+        <v>102.06178541666669</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A308">
+        <v>318</v>
+      </c>
+      <c r="B308">
+        <v>12.633333333333329</v>
+      </c>
+      <c r="C308">
+        <v>59.092500000000008</v>
+      </c>
+      <c r="D308">
+        <v>101.7155729166667</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A309">
+        <v>319</v>
+      </c>
+      <c r="B309">
+        <v>11.018750000000001</v>
+      </c>
+      <c r="C309">
+        <v>44.217291666666661</v>
+      </c>
+      <c r="D309">
+        <v>102.2288166666667</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A310">
+        <v>320</v>
+      </c>
+      <c r="B310">
+        <v>11.247291666666669</v>
+      </c>
+      <c r="C310">
+        <v>61.903124999999967</v>
+      </c>
+      <c r="D310">
+        <v>102.5053875</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A311">
+        <v>321</v>
+      </c>
+      <c r="B311">
+        <v>11.352083333333329</v>
+      </c>
+      <c r="C311">
+        <v>88.451250000000016</v>
+      </c>
+      <c r="D311">
+        <v>102.0506270833334</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A312">
+        <v>322</v>
+      </c>
+      <c r="B312">
+        <v>10.14770833333333</v>
+      </c>
+      <c r="C312">
+        <v>72.751458333333318</v>
+      </c>
+      <c r="D312">
+        <v>102.1731645833333</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A313">
+        <v>323</v>
+      </c>
+      <c r="B313">
+        <v>10.94291666666666</v>
+      </c>
+      <c r="C313">
+        <v>66.001666666666679</v>
+      </c>
+      <c r="D313">
+        <v>102.0466291666667</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A314">
+        <v>324</v>
+      </c>
+      <c r="B314">
+        <v>11.595625</v>
+      </c>
+      <c r="C314">
+        <v>76.497708333333335</v>
+      </c>
+      <c r="D314">
+        <v>102.0933</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A315">
+        <v>325</v>
+      </c>
+      <c r="B315">
+        <v>12.031874999999999</v>
+      </c>
+      <c r="C315">
+        <v>75.087708333333339</v>
+      </c>
+      <c r="D315">
+        <v>102.03817916666659</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A316">
+        <v>326</v>
+      </c>
+      <c r="B316">
+        <v>12.582708333333329</v>
+      </c>
+      <c r="C316">
+        <v>93.046250000000001</v>
+      </c>
+      <c r="D316">
+        <v>101.46160625</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A317">
+        <v>327</v>
+      </c>
+      <c r="B317">
+        <v>12.276666666666671</v>
+      </c>
+      <c r="C317">
+        <v>92.766666666666666</v>
+      </c>
+      <c r="D317">
+        <v>101.46713541666669</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A318">
+        <v>328</v>
+      </c>
+      <c r="B318">
+        <v>9.6208333333333336</v>
+      </c>
+      <c r="C318">
+        <v>81.423750000000027</v>
+      </c>
+      <c r="D318">
+        <v>102.16879166666661</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A319">
+        <v>329</v>
+      </c>
+      <c r="B319">
+        <v>7.7338958333333343</v>
+      </c>
+      <c r="C319">
+        <v>61.195416666666659</v>
+      </c>
+      <c r="D319">
+        <v>102.4263333333333</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A320">
+        <v>330</v>
+      </c>
+      <c r="B320">
+        <v>9.2706666666666653</v>
+      </c>
+      <c r="C320">
+        <v>85.716666666666654</v>
+      </c>
+      <c r="D320">
+        <v>101.63918958333331</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A321">
+        <v>331</v>
+      </c>
+      <c r="B321">
+        <v>6.8849166666666646</v>
+      </c>
+      <c r="C321">
+        <v>74.11875000000002</v>
+      </c>
+      <c r="D321">
+        <v>102.3689291666666</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A322">
+        <v>332</v>
+      </c>
+      <c r="B322">
+        <v>8.1265000000000018</v>
+      </c>
+      <c r="C322">
+        <v>72.417916666666656</v>
+      </c>
+      <c r="D322">
+        <v>102.1849541666667</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A323">
+        <v>333</v>
+      </c>
+      <c r="B323">
+        <v>10.6175</v>
+      </c>
+      <c r="C323">
+        <v>69.976875000000007</v>
+      </c>
+      <c r="D323">
+        <v>101.78468125000001</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A324">
+        <v>334</v>
+      </c>
+      <c r="B324">
+        <v>9.8552083333333318</v>
+      </c>
+      <c r="C324">
+        <v>74.783749999999998</v>
+      </c>
+      <c r="D324">
+        <v>102.112925</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A325">
+        <v>335</v>
+      </c>
+      <c r="B325">
+        <v>9.7031249999999982</v>
+      </c>
+      <c r="C325">
+        <v>83.345625000000013</v>
+      </c>
+      <c r="D325">
+        <v>102.2219333333333</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A326">
+        <v>336</v>
+      </c>
+      <c r="B326">
+        <v>8.8441666666666663</v>
+      </c>
+      <c r="C326">
+        <v>78.994166666666658</v>
+      </c>
+      <c r="D326">
+        <v>102.41568541666661</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A327">
+        <v>337</v>
+      </c>
+      <c r="B327">
+        <v>7.6500416666666657</v>
+      </c>
+      <c r="C327">
+        <v>84.045000000000016</v>
+      </c>
+      <c r="D327">
+        <v>102.18169791666671</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A328">
+        <v>338</v>
+      </c>
+      <c r="B328">
+        <v>8.8356458333333325</v>
+      </c>
+      <c r="C328">
+        <v>72.684166666666655</v>
+      </c>
+      <c r="D328">
+        <v>102.19471249999999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A329">
+        <v>339</v>
+      </c>
+      <c r="B329">
+        <v>6.9111666666666656</v>
+      </c>
+      <c r="C329">
+        <v>39.545833333333327</v>
+      </c>
+      <c r="D329">
+        <v>102.3164625</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A330">
+        <v>340</v>
+      </c>
+      <c r="B330">
+        <v>8.2277708333333326</v>
+      </c>
+      <c r="C330">
+        <v>53.778750000000002</v>
+      </c>
+      <c r="D330">
+        <v>102.22562916666671</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A331">
+        <v>341</v>
+      </c>
+      <c r="B331">
+        <v>5.9776249999999997</v>
+      </c>
+      <c r="C331">
+        <v>45.698958333333337</v>
+      </c>
+      <c r="D331">
+        <v>102.3596541666667</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A332">
+        <v>342</v>
+      </c>
+      <c r="B332">
+        <v>8.2633124999999978</v>
+      </c>
+      <c r="C332">
+        <v>64.944166666666675</v>
+      </c>
+      <c r="D332">
+        <v>102.1334333333333</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A333">
+        <v>343</v>
+      </c>
+      <c r="B333">
+        <v>7.0145208333333313</v>
+      </c>
+      <c r="C333">
+        <v>56.669374999999981</v>
+      </c>
+      <c r="D333">
+        <v>102.34717291666669</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A334">
+        <v>344</v>
+      </c>
+      <c r="B334">
+        <v>2.932020833333334</v>
+      </c>
+      <c r="C334">
+        <v>41.570625</v>
+      </c>
+      <c r="D334">
+        <v>102.5862958333333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A335">
+        <v>345</v>
+      </c>
+      <c r="B335">
+        <v>3.3989583333333329</v>
+      </c>
+      <c r="C335">
+        <v>50.053333333333342</v>
+      </c>
+      <c r="D335">
+        <v>102.53529791666659</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A336">
+        <v>346</v>
+      </c>
+      <c r="B336">
+        <v>5.326249999999999</v>
+      </c>
+      <c r="C336">
+        <v>65.899583333333325</v>
+      </c>
+      <c r="D336">
+        <v>102.7018270833334</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A337">
+        <v>347</v>
+      </c>
+      <c r="B337">
+        <v>5.5249999999999986</v>
+      </c>
+      <c r="C337">
+        <v>65.289166666666645</v>
+      </c>
+      <c r="D337">
+        <v>102.83154791666669</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A338">
+        <v>348</v>
+      </c>
+      <c r="B338">
+        <v>9.7095416666666647</v>
+      </c>
+      <c r="C338">
+        <v>75.136041666666671</v>
+      </c>
+      <c r="D338">
+        <v>102.13856875</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A339">
+        <v>349</v>
+      </c>
+      <c r="B339">
+        <v>9.8161914893617013</v>
+      </c>
+      <c r="C339">
+        <v>88.174468085106383</v>
+      </c>
+      <c r="D339">
+        <v>101.703985106383</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A340">
+        <v>350</v>
+      </c>
+      <c r="B340">
+        <v>6.1798857142857138</v>
+      </c>
+      <c r="C340">
+        <v>90.574285714285693</v>
+      </c>
+      <c r="D340">
+        <v>102.04298</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A341">
+        <v>351</v>
+      </c>
+      <c r="B341">
+        <v>7.888229166666668</v>
+      </c>
+      <c r="C341">
+        <v>90.547916666666652</v>
+      </c>
+      <c r="D341">
+        <v>102.1398708333333</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A342">
+        <v>352</v>
+      </c>
+      <c r="B342">
+        <v>6.9464166666666634</v>
+      </c>
+      <c r="C342">
+        <v>76.914166666666645</v>
+      </c>
+      <c r="D342">
+        <v>102.5768104166667</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A343">
+        <v>353</v>
+      </c>
+      <c r="B343">
+        <v>2.637624999999999</v>
+      </c>
+      <c r="C343">
+        <v>62.983541666666689</v>
+      </c>
+      <c r="D343">
+        <v>103.1471791666667</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A344">
+        <v>354</v>
+      </c>
+      <c r="B344">
+        <v>1.893645833333333</v>
+      </c>
+      <c r="C344">
+        <v>59.27812500000001</v>
+      </c>
+      <c r="D344">
+        <v>102.8701458333333</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A345">
+        <v>355</v>
+      </c>
+      <c r="B345">
+        <v>6.2279166666666681</v>
+      </c>
+      <c r="C345">
+        <v>85.364583333333329</v>
+      </c>
+      <c r="D345">
+        <v>102.32226666666671</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A346">
+        <v>356</v>
+      </c>
+      <c r="B346">
+        <v>5.0993749999999993</v>
+      </c>
+      <c r="C346">
+        <v>90.233333333333306</v>
+      </c>
+      <c r="D346">
+        <v>102.06128541666671</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A347">
+        <v>357</v>
+      </c>
+      <c r="B347">
+        <v>3.917153846153846</v>
+      </c>
+      <c r="C347">
+        <v>79.534871794871805</v>
+      </c>
+      <c r="D347">
+        <v>102.94582307692311</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A348">
+        <v>358</v>
+      </c>
+      <c r="B348">
+        <v>0.9671249999999999</v>
+      </c>
+      <c r="C348">
+        <v>63.193749999999987</v>
+      </c>
+      <c r="D348">
+        <v>103.3879708333333</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A349">
+        <v>359</v>
+      </c>
+      <c r="B349">
+        <v>0.8250624999999997</v>
+      </c>
+      <c r="C349">
+        <v>63.314166666666672</v>
+      </c>
+      <c r="D349">
+        <v>102.84795</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A350">
+        <v>360</v>
+      </c>
+      <c r="B350">
+        <v>3.6357708333333338</v>
+      </c>
+      <c r="C350">
+        <v>71.07854166666668</v>
+      </c>
+      <c r="D350">
+        <v>102.9286020833333</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A351">
+        <v>361</v>
+      </c>
+      <c r="B351">
+        <v>3.3338333333333332</v>
+      </c>
+      <c r="C351">
+        <v>85.024166666666673</v>
+      </c>
+      <c r="D351">
+        <v>103.0094041666667</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A352">
+        <v>362</v>
+      </c>
+      <c r="B352">
+        <v>4.4813333333333318</v>
+      </c>
+      <c r="C352">
+        <v>91.071428571428555</v>
+      </c>
+      <c r="D352">
+        <v>102.5524904761905</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A353">
+        <v>363</v>
+      </c>
+      <c r="B353">
+        <v>4.2089032258064512</v>
+      </c>
+      <c r="C353">
+        <v>93.048387096774206</v>
+      </c>
+      <c r="D353">
+        <v>102.3252064516129</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A354">
+        <v>364</v>
+      </c>
+      <c r="B354">
+        <v>3.642653846153848</v>
+      </c>
+      <c r="C354">
+        <v>93.184230769230751</v>
+      </c>
+      <c r="D354">
+        <v>102.2352538461539</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A355">
+        <v>365</v>
+      </c>
+      <c r="B355">
+        <v>-1.004291666666667</v>
+      </c>
+      <c r="C355">
+        <v>54.669166666666662</v>
+      </c>
+      <c r="D355">
+        <v>102.91798958333329</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A356">
+        <v>366</v>
+      </c>
+      <c r="B356">
+        <v>1.0730208333333331</v>
+      </c>
+      <c r="C356">
+        <v>57.891874999999999</v>
+      </c>
+      <c r="D356">
+        <v>102.4755833333334</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DAY.xlsx
+++ b/DAY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Environmental_biophysics_homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD162EE-6111-48B3-BF20-1B67D2A56BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97213922-AE82-43F7-8B61-4088C77FFF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,6 +38,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -82,11 +85,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -427,11 +431,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
+      <selection activeCell="Q343" sqref="Q343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.75" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -448,8 +455,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="2">
+        <v>40909</v>
       </c>
       <c r="B2">
         <v>5.3619166666666667</v>
@@ -462,8 +469,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" s="2">
+        <v>40910</v>
       </c>
       <c r="B3">
         <v>4.1509375000000004</v>
@@ -476,8 +483,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" s="2">
+        <v>40911</v>
       </c>
       <c r="B4">
         <v>3.5815208333333342</v>
@@ -490,8 +497,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" s="2">
+        <v>40912</v>
       </c>
       <c r="B5">
         <v>0.87933333333333341</v>
@@ -504,8 +511,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" s="2">
+        <v>40913</v>
       </c>
       <c r="B6">
         <v>1.1783333333333339</v>
@@ -518,8 +525,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" s="2">
+        <v>40914</v>
       </c>
       <c r="B7">
         <v>3.4027291666666648</v>
@@ -532,8 +539,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" s="2">
+        <v>40915</v>
       </c>
       <c r="B8">
         <v>4.4846458333333334</v>
@@ -546,8 +553,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" s="2">
+        <v>40916</v>
       </c>
       <c r="B9">
         <v>4.4141874999999979</v>
@@ -560,8 +567,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" s="2">
+        <v>40917</v>
       </c>
       <c r="B10">
         <v>4.5260833333333332</v>
@@ -574,8 +581,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" s="2">
+        <v>40918</v>
       </c>
       <c r="B11">
         <v>5.2127291666666666</v>
@@ -588,8 +595,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" s="2">
+        <v>40919</v>
       </c>
       <c r="B12">
         <v>4.5370833333333316</v>
@@ -602,8 +609,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" s="2">
+        <v>40920</v>
       </c>
       <c r="B13">
         <v>3.954416666666666</v>
@@ -616,8 +623,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" s="2">
+        <v>40921</v>
       </c>
       <c r="B14">
         <v>5.1996666666666673</v>
@@ -630,8 +637,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" s="2">
+        <v>40922</v>
       </c>
       <c r="B15">
         <v>4.3283541666666663</v>
@@ -644,8 +651,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>15</v>
+      <c r="A16" s="2">
+        <v>40923</v>
       </c>
       <c r="B16">
         <v>4.7892291666666678</v>
@@ -658,8 +665,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>16</v>
+      <c r="A17" s="2">
+        <v>40924</v>
       </c>
       <c r="B17">
         <v>5.4273750000000014</v>
@@ -672,8 +679,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>17</v>
+      <c r="A18" s="2">
+        <v>40925</v>
       </c>
       <c r="B18">
         <v>5.6776874999999984</v>
@@ -686,8 +693,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>18</v>
+      <c r="A19" s="2">
+        <v>40926</v>
       </c>
       <c r="B19">
         <v>6.0364999999999993</v>
@@ -700,8 +707,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>19</v>
+      <c r="A20" s="2">
+        <v>40927</v>
       </c>
       <c r="B20">
         <v>6.1925416666666662</v>
@@ -714,8 +721,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>20</v>
+      <c r="A21" s="2">
+        <v>40928</v>
       </c>
       <c r="B21">
         <v>4.913875</v>
@@ -728,8 +735,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>21</v>
+      <c r="A22" s="2">
+        <v>40929</v>
       </c>
       <c r="B22">
         <v>3.203020833333333</v>
@@ -742,8 +749,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>22</v>
+      <c r="A23" s="2">
+        <v>40930</v>
       </c>
       <c r="B23">
         <v>-0.55881250000000005</v>
@@ -756,8 +763,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>23</v>
+      <c r="A24" s="2">
+        <v>40931</v>
       </c>
       <c r="B24">
         <v>-1.1725625000000011</v>
@@ -770,8 +777,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>24</v>
+      <c r="A25" s="2">
+        <v>40932</v>
       </c>
       <c r="B25">
         <v>0.52693749999999995</v>
@@ -784,8 +791,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>25</v>
+      <c r="A26" s="2">
+        <v>40933</v>
       </c>
       <c r="B26">
         <v>0.8654791666666668</v>
@@ -798,8 +805,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>26</v>
+      <c r="A27" s="2">
+        <v>40934</v>
       </c>
       <c r="B27">
         <v>2.3353541666666668</v>
@@ -812,8 +819,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>27</v>
+      <c r="A28" s="2">
+        <v>40935</v>
       </c>
       <c r="B28">
         <v>4.0278333333333327</v>
@@ -826,8 +833,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>28</v>
+      <c r="A29" s="2">
+        <v>40936</v>
       </c>
       <c r="B29">
         <v>5.2044583333333332</v>
@@ -840,8 +847,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>29</v>
+      <c r="A30" s="2">
+        <v>40937</v>
       </c>
       <c r="B30">
         <v>5.7429791666666681</v>
@@ -854,8 +861,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>30</v>
+      <c r="A31" s="2">
+        <v>40938</v>
       </c>
       <c r="B31">
         <v>5.3150833333333329</v>
@@ -868,8 +875,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>31</v>
+      <c r="A32" s="2">
+        <v>40939</v>
       </c>
       <c r="B32">
         <v>6.0104791666666673</v>
@@ -882,8 +889,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>32</v>
+      <c r="A33" s="2">
+        <v>40940</v>
       </c>
       <c r="B33">
         <v>3.8659166666666671</v>
@@ -896,8 +903,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>33</v>
+      <c r="A34" s="2">
+        <v>40941</v>
       </c>
       <c r="B34">
         <v>-0.3228125</v>
@@ -910,8 +917,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>34</v>
+      <c r="A35" s="2">
+        <v>40942</v>
       </c>
       <c r="B35">
         <v>0.30091666666666672</v>
@@ -924,8 +931,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>35</v>
+      <c r="A36" s="2">
+        <v>40943</v>
       </c>
       <c r="B36">
         <v>3.8238958333333328</v>
@@ -938,8 +945,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>36</v>
+      <c r="A37" s="2">
+        <v>40944</v>
       </c>
       <c r="B37">
         <v>5.5258958333333323</v>
@@ -952,8 +959,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>37</v>
+      <c r="A38" s="2">
+        <v>40945</v>
       </c>
       <c r="B38">
         <v>7.1293191489361707</v>
@@ -966,8 +973,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39">
-        <v>38</v>
+      <c r="A39" s="2">
+        <v>40946</v>
       </c>
       <c r="B39">
         <v>0.25710416666666669</v>
@@ -980,8 +987,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <v>39</v>
+      <c r="A40" s="2">
+        <v>40947</v>
       </c>
       <c r="B40">
         <v>-0.3575000000000001</v>
@@ -994,8 +1001,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <v>40</v>
+      <c r="A41" s="2">
+        <v>40948</v>
       </c>
       <c r="B41">
         <v>1.7982499999999999</v>
@@ -1008,8 +1015,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>41</v>
+      <c r="A42" s="2">
+        <v>40949</v>
       </c>
       <c r="B42">
         <v>0.99981249999999988</v>
@@ -1022,8 +1029,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43">
-        <v>42</v>
+      <c r="A43" s="2">
+        <v>40950</v>
       </c>
       <c r="B43">
         <v>2.533104166666666</v>
@@ -1036,8 +1043,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <v>43</v>
+      <c r="A44" s="2">
+        <v>40951</v>
       </c>
       <c r="B44">
         <v>5.006145833333334</v>
@@ -1050,8 +1057,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45">
-        <v>44</v>
+      <c r="A45" s="2">
+        <v>40952</v>
       </c>
       <c r="B45">
         <v>4.3894583333333337</v>
@@ -1064,8 +1071,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <v>45</v>
+      <c r="A46" s="2">
+        <v>40953</v>
       </c>
       <c r="B46">
         <v>4.7325416666666671</v>
@@ -1078,8 +1085,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47">
-        <v>46</v>
+      <c r="A47" s="2">
+        <v>40954</v>
       </c>
       <c r="B47">
         <v>4.231416666666667</v>
@@ -1092,8 +1099,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <v>47</v>
+      <c r="A48" s="2">
+        <v>40955</v>
       </c>
       <c r="B48">
         <v>3.6835416666666672</v>
@@ -1106,8 +1113,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49">
-        <v>48</v>
+      <c r="A49" s="2">
+        <v>40956</v>
       </c>
       <c r="B49">
         <v>4.053375</v>
@@ -1120,8 +1127,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50">
-        <v>49</v>
+      <c r="A50" s="2">
+        <v>40957</v>
       </c>
       <c r="B50">
         <v>1.018944444444444</v>
@@ -1134,8 +1141,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51">
-        <v>57</v>
+      <c r="A51" s="2">
+        <v>40965</v>
       </c>
       <c r="B51">
         <v>1.637</v>
@@ -1148,8 +1155,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52">
-        <v>58</v>
+      <c r="A52" s="2">
+        <v>40966</v>
       </c>
       <c r="B52">
         <v>3.1272500000000001</v>
@@ -1162,8 +1169,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53">
-        <v>59</v>
+      <c r="A53" s="2">
+        <v>40967</v>
       </c>
       <c r="B53">
         <v>3.6551250000000008</v>
@@ -1176,8 +1183,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54">
-        <v>60</v>
+      <c r="A54" s="2">
+        <v>40968</v>
       </c>
       <c r="B54">
         <v>4.9807073170731719</v>
@@ -1190,8 +1197,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55">
-        <v>61</v>
+      <c r="A55" s="2">
+        <v>40969</v>
       </c>
       <c r="B55">
         <v>7.1829999999999998</v>
@@ -1204,8 +1211,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56">
-        <v>62</v>
+      <c r="A56" s="2">
+        <v>40970</v>
       </c>
       <c r="B56">
         <v>5.6435652173913038</v>
@@ -1218,8 +1225,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57">
-        <v>63</v>
+      <c r="A57" s="2">
+        <v>40971</v>
       </c>
       <c r="B57">
         <v>4.664545454545455</v>
@@ -1232,8 +1239,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <v>68</v>
+      <c r="A58" s="2">
+        <v>40976</v>
       </c>
       <c r="B58">
         <v>5.7604166666666652</v>
@@ -1246,8 +1253,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59">
-        <v>69</v>
+      <c r="A59" s="2">
+        <v>40977</v>
       </c>
       <c r="B59">
         <v>5.762708333333336</v>
@@ -1260,8 +1267,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60">
-        <v>70</v>
+      <c r="A60" s="2">
+        <v>40978</v>
       </c>
       <c r="B60">
         <v>4.8336041666666656</v>
@@ -1274,8 +1281,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61">
-        <v>71</v>
+      <c r="A61" s="2">
+        <v>40979</v>
       </c>
       <c r="B61">
         <v>5.7516458333333356</v>
@@ -1288,8 +1295,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62">
-        <v>72</v>
+      <c r="A62" s="2">
+        <v>40980</v>
       </c>
       <c r="B62">
         <v>3.3086458333333342</v>
@@ -1302,8 +1309,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63">
-        <v>73</v>
+      <c r="A63" s="2">
+        <v>40981</v>
       </c>
       <c r="B63">
         <v>6.8877083333333333</v>
@@ -1316,8 +1323,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64">
-        <v>74</v>
+      <c r="A64" s="2">
+        <v>40982</v>
       </c>
       <c r="B64">
         <v>9.6234081632653066</v>
@@ -1330,8 +1337,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65">
-        <v>75</v>
+      <c r="A65" s="2">
+        <v>40983</v>
       </c>
       <c r="B65">
         <v>10.180624999999999</v>
@@ -1344,8 +1351,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66">
-        <v>76</v>
+      <c r="A66" s="2">
+        <v>40984</v>
       </c>
       <c r="B66">
         <v>10.84</v>
@@ -1358,8 +1365,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67">
-        <v>77</v>
+      <c r="A67" s="2">
+        <v>40985</v>
       </c>
       <c r="B67">
         <v>10.70958333333334</v>
@@ -1372,8 +1379,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68">
-        <v>78</v>
+      <c r="A68" s="2">
+        <v>40986</v>
       </c>
       <c r="B68">
         <v>10.81625</v>
@@ -1386,8 +1393,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69">
-        <v>79</v>
+      <c r="A69" s="2">
+        <v>40987</v>
       </c>
       <c r="B69">
         <v>6.9619583333333317</v>
@@ -1400,8 +1407,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70">
-        <v>80</v>
+      <c r="A70" s="2">
+        <v>40988</v>
       </c>
       <c r="B70">
         <v>6.368854166666666</v>
@@ -1414,8 +1421,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71">
-        <v>81</v>
+      <c r="A71" s="2">
+        <v>40989</v>
       </c>
       <c r="B71">
         <v>7.9236458333333317</v>
@@ -1428,8 +1435,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72">
-        <v>82</v>
+      <c r="A72" s="2">
+        <v>40990</v>
       </c>
       <c r="B72">
         <v>9.8389361702127616</v>
@@ -1442,8 +1449,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73">
-        <v>83</v>
+      <c r="A73" s="2">
+        <v>40991</v>
       </c>
       <c r="B73">
         <v>8.2460000000000004</v>
@@ -1456,8 +1463,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74">
-        <v>84</v>
+      <c r="A74" s="2">
+        <v>40992</v>
       </c>
       <c r="B74">
         <v>11.14458333333334</v>
@@ -1470,8 +1477,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75">
-        <v>85</v>
+      <c r="A75" s="2">
+        <v>40993</v>
       </c>
       <c r="B75">
         <v>12.93166666666667</v>
@@ -1484,8 +1491,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76">
-        <v>86</v>
+      <c r="A76" s="2">
+        <v>40994</v>
       </c>
       <c r="B76">
         <v>12.26125</v>
@@ -1498,8 +1505,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77">
-        <v>87</v>
+      <c r="A77" s="2">
+        <v>40995</v>
       </c>
       <c r="B77">
         <v>15.983750000000001</v>
@@ -1512,8 +1519,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78">
-        <v>88</v>
+      <c r="A78" s="2">
+        <v>40996</v>
       </c>
       <c r="B78">
         <v>16.296041666666671</v>
@@ -1526,8 +1533,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79">
-        <v>89</v>
+      <c r="A79" s="2">
+        <v>40997</v>
       </c>
       <c r="B79">
         <v>16.27291666666666</v>
@@ -1540,8 +1547,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80">
-        <v>90</v>
+      <c r="A80" s="2">
+        <v>40998</v>
       </c>
       <c r="B80">
         <v>14.37333333333333</v>
@@ -1554,8 +1561,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81">
-        <v>91</v>
+      <c r="A81" s="2">
+        <v>40999</v>
       </c>
       <c r="B81">
         <v>13.56958333333333</v>
@@ -1568,8 +1575,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82">
-        <v>92</v>
+      <c r="A82" s="2">
+        <v>41000</v>
       </c>
       <c r="B82">
         <v>15.855</v>
@@ -1582,8 +1589,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83">
-        <v>93</v>
+      <c r="A83" s="2">
+        <v>41001</v>
       </c>
       <c r="B83">
         <v>18.37886363636364</v>
@@ -1596,8 +1603,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84">
-        <v>94</v>
+      <c r="A84" s="2">
+        <v>41002</v>
       </c>
       <c r="B84">
         <v>12.51288888888889</v>
@@ -1610,8 +1617,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85">
-        <v>95</v>
+      <c r="A85" s="2">
+        <v>41003</v>
       </c>
       <c r="B85">
         <v>15.123125</v>
@@ -1624,8 +1631,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86">
-        <v>96</v>
+      <c r="A86" s="2">
+        <v>41004</v>
       </c>
       <c r="B86">
         <v>15.98041666666666</v>
@@ -1638,8 +1645,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87">
-        <v>97</v>
+      <c r="A87" s="2">
+        <v>41005</v>
       </c>
       <c r="B87">
         <v>15.65520833333334</v>
@@ -1652,8 +1659,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88">
-        <v>98</v>
+      <c r="A88" s="2">
+        <v>41006</v>
       </c>
       <c r="B88">
         <v>16.340624999999999</v>
@@ -1666,8 +1673,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89">
-        <v>99</v>
+      <c r="A89" s="2">
+        <v>41007</v>
       </c>
       <c r="B89">
         <v>16.976041666666671</v>
@@ -1680,8 +1687,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90">
-        <v>100</v>
+      <c r="A90" s="2">
+        <v>41008</v>
       </c>
       <c r="B90">
         <v>16.506250000000001</v>
@@ -1694,8 +1701,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91">
-        <v>101</v>
+      <c r="A91" s="2">
+        <v>41009</v>
       </c>
       <c r="B91">
         <v>19.59</v>
@@ -1708,8 +1715,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92">
-        <v>102</v>
+      <c r="A92" s="2">
+        <v>41010</v>
       </c>
       <c r="B92">
         <v>17.39553191489361</v>
@@ -1722,8 +1729,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93">
-        <v>103</v>
+      <c r="A93" s="2">
+        <v>41011</v>
       </c>
       <c r="B93">
         <v>14.83770833333333</v>
@@ -1736,8 +1743,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94">
-        <v>104</v>
+      <c r="A94" s="2">
+        <v>41012</v>
       </c>
       <c r="B94">
         <v>14.676875000000001</v>
@@ -1750,8 +1757,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95">
-        <v>105</v>
+      <c r="A95" s="2">
+        <v>41013</v>
       </c>
       <c r="B95">
         <v>15.573958333333341</v>
@@ -1764,8 +1771,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96">
-        <v>106</v>
+      <c r="A96" s="2">
+        <v>41014</v>
       </c>
       <c r="B96">
         <v>16.177291666666669</v>
@@ -1778,8 +1785,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97">
-        <v>107</v>
+      <c r="A97" s="2">
+        <v>41015</v>
       </c>
       <c r="B97">
         <v>17.557708333333331</v>
@@ -1792,8 +1799,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98">
-        <v>108</v>
+      <c r="A98" s="2">
+        <v>41016</v>
       </c>
       <c r="B98">
         <v>15.90875</v>
@@ -1806,8 +1813,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99">
-        <v>109</v>
+      <c r="A99" s="2">
+        <v>41017</v>
       </c>
       <c r="B99">
         <v>16.587291666666658</v>
@@ -1820,8 +1827,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100">
-        <v>110</v>
+      <c r="A100" s="2">
+        <v>41018</v>
       </c>
       <c r="B100">
         <v>18.068958333333331</v>
@@ -1834,8 +1841,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101">
-        <v>111</v>
+      <c r="A101" s="2">
+        <v>41019</v>
       </c>
       <c r="B101">
         <v>16.434791666666669</v>
@@ -1848,8 +1855,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102">
-        <v>112</v>
+      <c r="A102" s="2">
+        <v>41020</v>
       </c>
       <c r="B102">
         <v>16.37791666666666</v>
@@ -1862,8 +1869,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A103">
-        <v>113</v>
+      <c r="A103" s="2">
+        <v>41021</v>
       </c>
       <c r="B103">
         <v>19.803333333333331</v>
@@ -1876,8 +1883,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104">
-        <v>114</v>
+      <c r="A104" s="2">
+        <v>41022</v>
       </c>
       <c r="B104">
         <v>21.845624999999998</v>
@@ -1890,8 +1897,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105">
-        <v>115</v>
+      <c r="A105" s="2">
+        <v>41023</v>
       </c>
       <c r="B105">
         <v>21.701041666666669</v>
@@ -1904,8 +1911,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106">
-        <v>116</v>
+      <c r="A106" s="2">
+        <v>41024</v>
       </c>
       <c r="B106">
         <v>19.03875</v>
@@ -1918,8 +1925,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107">
-        <v>117</v>
+      <c r="A107" s="2">
+        <v>41025</v>
       </c>
       <c r="B107">
         <v>19.551458333333329</v>
@@ -1932,8 +1939,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108">
-        <v>118</v>
+      <c r="A108" s="2">
+        <v>41026</v>
       </c>
       <c r="B108">
         <v>20.438124999999999</v>
@@ -1946,8 +1953,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109">
-        <v>119</v>
+      <c r="A109" s="2">
+        <v>41027</v>
       </c>
       <c r="B109">
         <v>21.64574468085106</v>
@@ -1960,8 +1967,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A110">
-        <v>120</v>
+      <c r="A110" s="2">
+        <v>41028</v>
       </c>
       <c r="B110">
         <v>22.279166666666669</v>
@@ -1974,8 +1981,8 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111">
-        <v>121</v>
+      <c r="A111" s="2">
+        <v>41029</v>
       </c>
       <c r="B111">
         <v>18.91375</v>
@@ -1988,8 +1995,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112">
-        <v>122</v>
+      <c r="A112" s="2">
+        <v>41030</v>
       </c>
       <c r="B112">
         <v>17.736666666666672</v>
@@ -2002,8 +2009,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A113">
-        <v>123</v>
+      <c r="A113" s="2">
+        <v>41031</v>
       </c>
       <c r="B113">
         <v>19.745000000000001</v>
@@ -2016,8 +2023,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A114">
-        <v>124</v>
+      <c r="A114" s="2">
+        <v>41032</v>
       </c>
       <c r="B114">
         <v>22.082916666666669</v>
@@ -2030,8 +2037,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115">
-        <v>125</v>
+      <c r="A115" s="2">
+        <v>41033</v>
       </c>
       <c r="B115">
         <v>23.092083333333331</v>
@@ -2044,8 +2051,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116">
-        <v>126</v>
+      <c r="A116" s="2">
+        <v>41034</v>
       </c>
       <c r="B116">
         <v>23.91791666666667</v>
@@ -2058,8 +2065,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117">
-        <v>127</v>
+      <c r="A117" s="2">
+        <v>41035</v>
       </c>
       <c r="B117">
         <v>26.158958333333331</v>
@@ -2072,8 +2079,8 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118">
-        <v>128</v>
+      <c r="A118" s="2">
+        <v>41036</v>
       </c>
       <c r="B118">
         <v>26.229791666666671</v>
@@ -2086,8 +2093,8 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119">
-        <v>129</v>
+      <c r="A119" s="2">
+        <v>41037</v>
       </c>
       <c r="B119">
         <v>21.08208333333333</v>
@@ -2100,8 +2107,8 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A120">
-        <v>130</v>
+      <c r="A120" s="2">
+        <v>41038</v>
       </c>
       <c r="B120">
         <v>19.994583333333331</v>
@@ -2114,8 +2121,8 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A121">
-        <v>131</v>
+      <c r="A121" s="2">
+        <v>41039</v>
       </c>
       <c r="B121">
         <v>20.509166666666658</v>
@@ -2128,8 +2135,8 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A122">
-        <v>132</v>
+      <c r="A122" s="2">
+        <v>41040</v>
       </c>
       <c r="B122">
         <v>19.647291666666661</v>
@@ -2142,8 +2149,8 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A123">
-        <v>133</v>
+      <c r="A123" s="2">
+        <v>41041</v>
       </c>
       <c r="B123">
         <v>22.203749999999999</v>
@@ -2156,8 +2163,8 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A124">
-        <v>134</v>
+      <c r="A124" s="2">
+        <v>41042</v>
       </c>
       <c r="B124">
         <v>21.470416666666669</v>
@@ -2170,8 +2177,8 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125">
-        <v>135</v>
+      <c r="A125" s="2">
+        <v>41043</v>
       </c>
       <c r="B125">
         <v>20.239583333333329</v>
@@ -2184,8 +2191,8 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A126">
-        <v>136</v>
+      <c r="A126" s="2">
+        <v>41044</v>
       </c>
       <c r="B126">
         <v>21.102916666666669</v>
@@ -2198,8 +2205,8 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127">
-        <v>137</v>
+      <c r="A127" s="2">
+        <v>41045</v>
       </c>
       <c r="B127">
         <v>24.185625000000002</v>
@@ -2212,8 +2219,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128">
-        <v>138</v>
+      <c r="A128" s="2">
+        <v>41046</v>
       </c>
       <c r="B128">
         <v>24.44958333333334</v>
@@ -2226,8 +2233,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129">
-        <v>139</v>
+      <c r="A129" s="2">
+        <v>41047</v>
       </c>
       <c r="B129">
         <v>24.608958333333341</v>
@@ -2240,8 +2247,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A130">
-        <v>140</v>
+      <c r="A130" s="2">
+        <v>41048</v>
       </c>
       <c r="B130">
         <v>18.276250000000001</v>
@@ -2254,8 +2261,8 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A131">
-        <v>141</v>
+      <c r="A131" s="2">
+        <v>41049</v>
       </c>
       <c r="B131">
         <v>17.757291666666671</v>
@@ -2268,8 +2275,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A132">
-        <v>142</v>
+      <c r="A132" s="2">
+        <v>41050</v>
       </c>
       <c r="B132">
         <v>20.063958333333339</v>
@@ -2282,8 +2289,8 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A133">
-        <v>143</v>
+      <c r="A133" s="2">
+        <v>41051</v>
       </c>
       <c r="B133">
         <v>20.362083333333331</v>
@@ -2296,8 +2303,8 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134">
-        <v>144</v>
+      <c r="A134" s="2">
+        <v>41052</v>
       </c>
       <c r="B134">
         <v>20.751249999999999</v>
@@ -2310,8 +2317,8 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A135">
-        <v>145</v>
+      <c r="A135" s="2">
+        <v>41053</v>
       </c>
       <c r="B135">
         <v>19.34</v>
@@ -2324,8 +2331,8 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A136">
-        <v>146</v>
+      <c r="A136" s="2">
+        <v>41054</v>
       </c>
       <c r="B136">
         <v>20.491875</v>
@@ -2338,8 +2345,8 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A137">
-        <v>147</v>
+      <c r="A137" s="2">
+        <v>41055</v>
       </c>
       <c r="B137">
         <v>21.206250000000001</v>
@@ -2352,8 +2359,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138">
-        <v>148</v>
+      <c r="A138" s="2">
+        <v>41056</v>
       </c>
       <c r="B138">
         <v>22.35916666666667</v>
@@ -2366,8 +2373,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139">
-        <v>149</v>
+      <c r="A139" s="2">
+        <v>41057</v>
       </c>
       <c r="B139">
         <v>22.826041666666669</v>
@@ -2380,8 +2387,8 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140">
-        <v>150</v>
+      <c r="A140" s="2">
+        <v>41058</v>
       </c>
       <c r="B140">
         <v>22.772083333333331</v>
@@ -2394,8 +2401,8 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A141">
-        <v>151</v>
+      <c r="A141" s="2">
+        <v>41059</v>
       </c>
       <c r="B141">
         <v>19.782499999999999</v>
@@ -2408,8 +2415,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A142">
-        <v>152</v>
+      <c r="A142" s="2">
+        <v>41060</v>
       </c>
       <c r="B142">
         <v>21.107500000000002</v>
@@ -2422,8 +2429,8 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143">
-        <v>153</v>
+      <c r="A143" s="2">
+        <v>41061</v>
       </c>
       <c r="B143">
         <v>20.95666666666666</v>
@@ -2436,8 +2443,8 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A144">
-        <v>154</v>
+      <c r="A144" s="2">
+        <v>41062</v>
       </c>
       <c r="B144">
         <v>21.540624999999999</v>
@@ -2450,8 +2457,8 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145">
-        <v>155</v>
+      <c r="A145" s="2">
+        <v>41063</v>
       </c>
       <c r="B145">
         <v>21.748333333333331</v>
@@ -2464,8 +2471,8 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A146">
-        <v>156</v>
+      <c r="A146" s="2">
+        <v>41064</v>
       </c>
       <c r="B146">
         <v>22.576458333333331</v>
@@ -2478,8 +2485,8 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A147">
-        <v>157</v>
+      <c r="A147" s="2">
+        <v>41065</v>
       </c>
       <c r="B147">
         <v>23.706875</v>
@@ -2492,8 +2499,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A148">
-        <v>158</v>
+      <c r="A148" s="2">
+        <v>41066</v>
       </c>
       <c r="B148">
         <v>22.89041666666667</v>
@@ -2506,8 +2513,8 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149">
-        <v>159</v>
+      <c r="A149" s="2">
+        <v>41067</v>
       </c>
       <c r="B149">
         <v>25.022083333333342</v>
@@ -2520,8 +2527,8 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150">
-        <v>160</v>
+      <c r="A150" s="2">
+        <v>41068</v>
       </c>
       <c r="B150">
         <v>27.503125000000001</v>
@@ -2534,8 +2541,8 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151">
-        <v>161</v>
+      <c r="A151" s="2">
+        <v>41069</v>
       </c>
       <c r="B151">
         <v>28.380833333333332</v>
@@ -2548,8 +2555,8 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152">
-        <v>162</v>
+      <c r="A152" s="2">
+        <v>41070</v>
       </c>
       <c r="B152">
         <v>27.37895833333333</v>
@@ -2562,8 +2569,8 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A153">
-        <v>163</v>
+      <c r="A153" s="2">
+        <v>41071</v>
       </c>
       <c r="B153">
         <v>25.897500000000001</v>
@@ -2576,8 +2583,8 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A154">
-        <v>164</v>
+      <c r="A154" s="2">
+        <v>41072</v>
       </c>
       <c r="B154">
         <v>26.42270833333334</v>
@@ -2590,8 +2597,8 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A155">
-        <v>165</v>
+      <c r="A155" s="2">
+        <v>41073</v>
       </c>
       <c r="B155">
         <v>26.05854166666667</v>
@@ -2604,8 +2611,8 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A156">
-        <v>166</v>
+      <c r="A156" s="2">
+        <v>41074</v>
       </c>
       <c r="B156">
         <v>25.197083333333339</v>
@@ -2618,8 +2625,8 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A157">
-        <v>167</v>
+      <c r="A157" s="2">
+        <v>41075</v>
       </c>
       <c r="B157">
         <v>26.043958333333329</v>
@@ -2632,8 +2639,8 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A158">
-        <v>168</v>
+      <c r="A158" s="2">
+        <v>41076</v>
       </c>
       <c r="B158">
         <v>24.767083333333328</v>
@@ -2646,8 +2653,8 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A159">
-        <v>169</v>
+      <c r="A159" s="2">
+        <v>41077</v>
       </c>
       <c r="B159">
         <v>23.036041666666659</v>
@@ -2660,8 +2667,8 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A160">
-        <v>170</v>
+      <c r="A160" s="2">
+        <v>41078</v>
       </c>
       <c r="B160">
         <v>23.17229166666667</v>
@@ -2674,8 +2681,8 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161">
-        <v>171</v>
+      <c r="A161" s="2">
+        <v>41079</v>
       </c>
       <c r="B161">
         <v>23.480625</v>
@@ -2688,8 +2695,8 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162">
-        <v>172</v>
+      <c r="A162" s="2">
+        <v>41080</v>
       </c>
       <c r="B162">
         <v>23.785625</v>
@@ -2702,8 +2709,8 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A163">
-        <v>173</v>
+      <c r="A163" s="2">
+        <v>41081</v>
       </c>
       <c r="B163">
         <v>25.069583333333341</v>
@@ -2716,8 +2723,8 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A164">
-        <v>174</v>
+      <c r="A164" s="2">
+        <v>41082</v>
       </c>
       <c r="B164">
         <v>23.705625000000001</v>
@@ -2730,8 +2737,8 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A165">
-        <v>175</v>
+      <c r="A165" s="2">
+        <v>41083</v>
       </c>
       <c r="B165">
         <v>22.32326086956521</v>
@@ -2744,8 +2751,8 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A166">
-        <v>176</v>
+      <c r="A166" s="2">
+        <v>41084</v>
       </c>
       <c r="B166">
         <v>24.141666666666669</v>
@@ -2758,8 +2765,8 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A167">
-        <v>177</v>
+      <c r="A167" s="2">
+        <v>41085</v>
       </c>
       <c r="B167">
         <v>26.641041666666659</v>
@@ -2772,8 +2779,8 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A168">
-        <v>178</v>
+      <c r="A168" s="2">
+        <v>41086</v>
       </c>
       <c r="B168">
         <v>24.275531914893609</v>
@@ -2786,8 +2793,8 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169">
-        <v>179</v>
+      <c r="A169" s="2">
+        <v>41087</v>
       </c>
       <c r="B169">
         <v>24</v>
@@ -2800,8 +2807,8 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170">
-        <v>180</v>
+      <c r="A170" s="2">
+        <v>41088</v>
       </c>
       <c r="B170">
         <v>25.618958333333332</v>
@@ -2814,8 +2821,8 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171">
-        <v>181</v>
+      <c r="A171" s="2">
+        <v>41089</v>
       </c>
       <c r="B171">
         <v>28.86624999999999</v>
@@ -2828,8 +2835,8 @@
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172">
-        <v>182</v>
+      <c r="A172" s="2">
+        <v>41090</v>
       </c>
       <c r="B172">
         <v>29.529791666666661</v>
@@ -2842,8 +2849,8 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173">
-        <v>183</v>
+      <c r="A173" s="2">
+        <v>41091</v>
       </c>
       <c r="B173">
         <v>29.783541666666661</v>
@@ -2856,8 +2863,8 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A174">
-        <v>184</v>
+      <c r="A174" s="2">
+        <v>41092</v>
       </c>
       <c r="B174">
         <v>31.116875</v>
@@ -2870,8 +2877,8 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A175">
-        <v>185</v>
+      <c r="A175" s="2">
+        <v>41093</v>
       </c>
       <c r="B175">
         <v>29.235833333333339</v>
@@ -2884,8 +2891,8 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A176">
-        <v>186</v>
+      <c r="A176" s="2">
+        <v>41094</v>
       </c>
       <c r="B176">
         <v>30.5</v>
@@ -2898,8 +2905,8 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A177">
-        <v>187</v>
+      <c r="A177" s="2">
+        <v>41095</v>
       </c>
       <c r="B177">
         <v>32.611666666666657</v>
@@ -2912,8 +2919,8 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A178">
-        <v>188</v>
+      <c r="A178" s="2">
+        <v>41096</v>
       </c>
       <c r="B178">
         <v>31.027083333333341</v>
@@ -2926,8 +2933,8 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A179">
-        <v>189</v>
+      <c r="A179" s="2">
+        <v>41097</v>
       </c>
       <c r="B179">
         <v>28.681666666666661</v>
@@ -2940,8 +2947,8 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A180">
-        <v>190</v>
+      <c r="A180" s="2">
+        <v>41098</v>
       </c>
       <c r="B180">
         <v>28.170208333333331</v>
@@ -2954,8 +2961,8 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A181">
-        <v>191</v>
+      <c r="A181" s="2">
+        <v>41099</v>
       </c>
       <c r="B181">
         <v>30.623541666666679</v>
@@ -2968,8 +2975,8 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A182">
-        <v>192</v>
+      <c r="A182" s="2">
+        <v>41100</v>
       </c>
       <c r="B182">
         <v>32.079166666666659</v>
@@ -2982,8 +2989,8 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A183">
-        <v>193</v>
+      <c r="A183" s="2">
+        <v>41101</v>
       </c>
       <c r="B183">
         <v>30.153749999999999</v>
@@ -2996,8 +3003,8 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A184">
-        <v>194</v>
+      <c r="A184" s="2">
+        <v>41102</v>
       </c>
       <c r="B184">
         <v>29.94041666666666</v>
@@ -3010,8 +3017,8 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A185">
-        <v>195</v>
+      <c r="A185" s="2">
+        <v>41103</v>
       </c>
       <c r="B185">
         <v>27.557500000000001</v>
@@ -3024,8 +3031,8 @@
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A186">
-        <v>196</v>
+      <c r="A186" s="2">
+        <v>41104</v>
       </c>
       <c r="B186">
         <v>26.19062499999999</v>
@@ -3038,8 +3045,8 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A187">
-        <v>197</v>
+      <c r="A187" s="2">
+        <v>41105</v>
       </c>
       <c r="B187">
         <v>25.72229166666666</v>
@@ -3052,8 +3059,8 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A188">
-        <v>198</v>
+      <c r="A188" s="2">
+        <v>41106</v>
       </c>
       <c r="B188">
         <v>26.919791666666669</v>
@@ -3066,8 +3073,8 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A189">
-        <v>199</v>
+      <c r="A189" s="2">
+        <v>41107</v>
       </c>
       <c r="B189">
         <v>26.021458333333339</v>
@@ -3080,8 +3087,8 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A190">
-        <v>200</v>
+      <c r="A190" s="2">
+        <v>41108</v>
       </c>
       <c r="B190">
         <v>27.058749999999989</v>
@@ -3094,8 +3101,8 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A191">
-        <v>201</v>
+      <c r="A191" s="2">
+        <v>41109</v>
       </c>
       <c r="B191">
         <v>29.369166666666661</v>
@@ -3108,8 +3115,8 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A192">
-        <v>202</v>
+      <c r="A192" s="2">
+        <v>41110</v>
       </c>
       <c r="B192">
         <v>28.70333333333333</v>
@@ -3122,8 +3129,8 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A193">
-        <v>203</v>
+      <c r="A193" s="2">
+        <v>41111</v>
       </c>
       <c r="B193">
         <v>30.146041666666669</v>
@@ -3136,8 +3143,8 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A194">
-        <v>204</v>
+      <c r="A194" s="2">
+        <v>41112</v>
       </c>
       <c r="B194">
         <v>30.7</v>
@@ -3150,8 +3157,8 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A195">
-        <v>205</v>
+      <c r="A195" s="2">
+        <v>41113</v>
       </c>
       <c r="B195">
         <v>30.278541666666669</v>
@@ -3164,8 +3171,8 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A196">
-        <v>206</v>
+      <c r="A196" s="2">
+        <v>41114</v>
       </c>
       <c r="B196">
         <v>29.94520833333333</v>
@@ -3178,8 +3185,8 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A197">
-        <v>207</v>
+      <c r="A197" s="2">
+        <v>41115</v>
       </c>
       <c r="B197">
         <v>29.548541666666669</v>
@@ -3192,8 +3199,8 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A198">
-        <v>208</v>
+      <c r="A198" s="2">
+        <v>41116</v>
       </c>
       <c r="B198">
         <v>29.725208333333342</v>
@@ -3206,8 +3213,8 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A199">
-        <v>209</v>
+      <c r="A199" s="2">
+        <v>41117</v>
       </c>
       <c r="B199">
         <v>30.183125</v>
@@ -3220,8 +3227,8 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A200">
-        <v>210</v>
+      <c r="A200" s="2">
+        <v>41118</v>
       </c>
       <c r="B200">
         <v>30.568541666666661</v>
@@ -3234,8 +3241,8 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A201">
-        <v>211</v>
+      <c r="A201" s="2">
+        <v>41119</v>
       </c>
       <c r="B201">
         <v>30.859375</v>
@@ -3248,8 +3255,8 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A202">
-        <v>212</v>
+      <c r="A202" s="2">
+        <v>41120</v>
       </c>
       <c r="B202">
         <v>30.4</v>
@@ -3262,8 +3269,8 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A203">
-        <v>213</v>
+      <c r="A203" s="2">
+        <v>41121</v>
       </c>
       <c r="B203">
         <v>29.977499999999999</v>
@@ -3276,8 +3283,8 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A204">
-        <v>214</v>
+      <c r="A204" s="2">
+        <v>41122</v>
       </c>
       <c r="B204">
         <v>29.83229166666667</v>
@@ -3290,8 +3297,8 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A205">
-        <v>215</v>
+      <c r="A205" s="2">
+        <v>41123</v>
       </c>
       <c r="B205">
         <v>28.798333333333328</v>
@@ -3304,8 +3311,8 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206">
-        <v>216</v>
+      <c r="A206" s="2">
+        <v>41124</v>
       </c>
       <c r="B206">
         <v>28.73708333333332</v>
@@ -3318,8 +3325,8 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A207">
-        <v>217</v>
+      <c r="A207" s="2">
+        <v>41125</v>
       </c>
       <c r="B207">
         <v>28.988749999999989</v>
@@ -3332,8 +3339,8 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A208">
-        <v>218</v>
+      <c r="A208" s="2">
+        <v>41126</v>
       </c>
       <c r="B208">
         <v>28.98520833333334</v>
@@ -3346,8 +3353,8 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A209">
-        <v>219</v>
+      <c r="A209" s="2">
+        <v>41127</v>
       </c>
       <c r="B209">
         <v>28.651458333333341</v>
@@ -3360,8 +3367,8 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A210">
-        <v>220</v>
+      <c r="A210" s="2">
+        <v>41128</v>
       </c>
       <c r="B210">
         <v>28.496249999999989</v>
@@ -3374,8 +3381,8 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A211">
-        <v>221</v>
+      <c r="A211" s="2">
+        <v>41129</v>
       </c>
       <c r="B211">
         <v>26.41062500000001</v>
@@ -3388,8 +3395,8 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A212">
-        <v>222</v>
+      <c r="A212" s="2">
+        <v>41130</v>
       </c>
       <c r="B212">
         <v>28.322708333333331</v>
@@ -3402,8 +3409,8 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A213">
-        <v>223</v>
+      <c r="A213" s="2">
+        <v>41131</v>
       </c>
       <c r="B213">
         <v>28.230000000000011</v>
@@ -3416,8 +3423,8 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A214">
-        <v>224</v>
+      <c r="A214" s="2">
+        <v>41132</v>
       </c>
       <c r="B214">
         <v>28.607500000000002</v>
@@ -3430,8 +3437,8 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A215">
-        <v>225</v>
+      <c r="A215" s="2">
+        <v>41133</v>
       </c>
       <c r="B215">
         <v>30.104166666666661</v>
@@ -3444,8 +3451,8 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A216">
-        <v>226</v>
+      <c r="A216" s="2">
+        <v>41134</v>
       </c>
       <c r="B216">
         <v>30.623750000000001</v>
@@ -3458,8 +3465,8 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A217">
-        <v>227</v>
+      <c r="A217" s="2">
+        <v>41135</v>
       </c>
       <c r="B217">
         <v>31.276875</v>
@@ -3472,8 +3479,8 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A218">
-        <v>228</v>
+      <c r="A218" s="2">
+        <v>41136</v>
       </c>
       <c r="B218">
         <v>30.56645833333334</v>
@@ -3486,8 +3493,8 @@
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A219">
-        <v>229</v>
+      <c r="A219" s="2">
+        <v>41137</v>
       </c>
       <c r="B219">
         <v>30.498750000000008</v>
@@ -3500,8 +3507,8 @@
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A220">
-        <v>230</v>
+      <c r="A220" s="2">
+        <v>41138</v>
       </c>
       <c r="B220">
         <v>30.35062499999999</v>
@@ -3514,8 +3521,8 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A221">
-        <v>231</v>
+      <c r="A221" s="2">
+        <v>41139</v>
       </c>
       <c r="B221">
         <v>30.80166666666668</v>
@@ -3528,8 +3535,8 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A222">
-        <v>232</v>
+      <c r="A222" s="2">
+        <v>41140</v>
       </c>
       <c r="B222">
         <v>30.547916666666659</v>
@@ -3542,8 +3549,8 @@
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A223">
-        <v>233</v>
+      <c r="A223" s="2">
+        <v>41141</v>
       </c>
       <c r="B223">
         <v>29.68375</v>
@@ -3556,8 +3563,8 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A224">
-        <v>234</v>
+      <c r="A224" s="2">
+        <v>41142</v>
       </c>
       <c r="B224">
         <v>29.075833333333339</v>
@@ -3570,8 +3577,8 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A225">
-        <v>235</v>
+      <c r="A225" s="2">
+        <v>41143</v>
       </c>
       <c r="B225">
         <v>24.405625000000001</v>
@@ -3584,8 +3591,8 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A226">
-        <v>236</v>
+      <c r="A226" s="2">
+        <v>41144</v>
       </c>
       <c r="B226">
         <v>23.703749999999999</v>
@@ -3598,8 +3605,8 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A227">
-        <v>237</v>
+      <c r="A227" s="2">
+        <v>41145</v>
       </c>
       <c r="B227">
         <v>25.339166666666671</v>
@@ -3612,8 +3619,8 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A228">
-        <v>238</v>
+      <c r="A228" s="2">
+        <v>41146</v>
       </c>
       <c r="B228">
         <v>26.162500000000001</v>
@@ -3626,8 +3633,8 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A229">
-        <v>239</v>
+      <c r="A229" s="2">
+        <v>41147</v>
       </c>
       <c r="B229">
         <v>27.88229166666666</v>
@@ -3640,8 +3647,8 @@
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A230">
-        <v>240</v>
+      <c r="A230" s="2">
+        <v>41148</v>
       </c>
       <c r="B230">
         <v>27.88645833333333</v>
@@ -3654,8 +3661,8 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A231">
-        <v>241</v>
+      <c r="A231" s="2">
+        <v>41149</v>
       </c>
       <c r="B231">
         <v>26.393541666666671</v>
@@ -3668,8 +3675,8 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A232">
-        <v>242</v>
+      <c r="A232" s="2">
+        <v>41150</v>
       </c>
       <c r="B232">
         <v>27.705208333333331</v>
@@ -3682,8 +3689,8 @@
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A233">
-        <v>243</v>
+      <c r="A233" s="2">
+        <v>41151</v>
       </c>
       <c r="B233">
         <v>28.23833333333333</v>
@@ -3696,8 +3703,8 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A234">
-        <v>244</v>
+      <c r="A234" s="2">
+        <v>41152</v>
       </c>
       <c r="B234">
         <v>27.320208333333341</v>
@@ -3710,8 +3717,8 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A235">
-        <v>245</v>
+      <c r="A235" s="2">
+        <v>41153</v>
       </c>
       <c r="B235">
         <v>26.381041666666661</v>
@@ -3724,8 +3731,8 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A236">
-        <v>246</v>
+      <c r="A236" s="2">
+        <v>41154</v>
       </c>
       <c r="B236">
         <v>26.636041666666671</v>
@@ -3738,8 +3745,8 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A237">
-        <v>247</v>
+      <c r="A237" s="2">
+        <v>41155</v>
       </c>
       <c r="B237">
         <v>25.450208333333329</v>
@@ -3752,8 +3759,8 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A238">
-        <v>248</v>
+      <c r="A238" s="2">
+        <v>41156</v>
       </c>
       <c r="B238">
         <v>23.335208333333341</v>
@@ -3766,8 +3773,8 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A239">
-        <v>249</v>
+      <c r="A239" s="2">
+        <v>41157</v>
       </c>
       <c r="B239">
         <v>24.289583333333329</v>
@@ -3780,8 +3787,8 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A240">
-        <v>250</v>
+      <c r="A240" s="2">
+        <v>41158</v>
       </c>
       <c r="B240">
         <v>25.507083333333341</v>
@@ -3794,8 +3801,8 @@
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A241">
-        <v>251</v>
+      <c r="A241" s="2">
+        <v>41159</v>
       </c>
       <c r="B241">
         <v>25.57113636363637</v>
@@ -3808,8 +3815,8 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A242">
-        <v>252</v>
+      <c r="A242" s="2">
+        <v>41160</v>
       </c>
       <c r="B242">
         <v>25.673541666666669</v>
@@ -3822,8 +3829,8 @@
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A243">
-        <v>253</v>
+      <c r="A243" s="2">
+        <v>41161</v>
       </c>
       <c r="B243">
         <v>23.630625000000009</v>
@@ -3836,8 +3843,8 @@
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A244">
-        <v>254</v>
+      <c r="A244" s="2">
+        <v>41162</v>
       </c>
       <c r="B244">
         <v>24.142916666666679</v>
@@ -3850,8 +3857,8 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A245">
-        <v>255</v>
+      <c r="A245" s="2">
+        <v>41163</v>
       </c>
       <c r="B245">
         <v>24.599583333333332</v>
@@ -3864,8 +3871,8 @@
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A246">
-        <v>256</v>
+      <c r="A246" s="2">
+        <v>41164</v>
       </c>
       <c r="B246">
         <v>24.71916666666667</v>
@@ -3878,8 +3885,8 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A247">
-        <v>257</v>
+      <c r="A247" s="2">
+        <v>41165</v>
       </c>
       <c r="B247">
         <v>21.28145833333333</v>
@@ -3892,8 +3899,8 @@
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A248">
-        <v>258</v>
+      <c r="A248" s="2">
+        <v>41166</v>
       </c>
       <c r="B248">
         <v>21.471875000000001</v>
@@ -3906,8 +3913,8 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A249">
-        <v>259</v>
+      <c r="A249" s="2">
+        <v>41167</v>
       </c>
       <c r="B249">
         <v>21.958124999999999</v>
@@ -3920,8 +3927,8 @@
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A250">
-        <v>260</v>
+      <c r="A250" s="2">
+        <v>41168</v>
       </c>
       <c r="B250">
         <v>22.340833333333329</v>
@@ -3934,8 +3941,8 @@
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A251">
-        <v>261</v>
+      <c r="A251" s="2">
+        <v>41169</v>
       </c>
       <c r="B251">
         <v>21.443541666666661</v>
@@ -3948,8 +3955,8 @@
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A252">
-        <v>262</v>
+      <c r="A252" s="2">
+        <v>41170</v>
       </c>
       <c r="B252">
         <v>22.132916666666659</v>
@@ -3962,8 +3969,8 @@
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A253">
-        <v>263</v>
+      <c r="A253" s="2">
+        <v>41171</v>
       </c>
       <c r="B253">
         <v>23.17229166666667</v>
@@ -3976,8 +3983,8 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A254">
-        <v>264</v>
+      <c r="A254" s="2">
+        <v>41172</v>
       </c>
       <c r="B254">
         <v>23.689374999999998</v>
@@ -3990,8 +3997,8 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A255">
-        <v>265</v>
+      <c r="A255" s="2">
+        <v>41173</v>
       </c>
       <c r="B255">
         <v>23.286666666666669</v>
@@ -4004,8 +4011,8 @@
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A256">
-        <v>266</v>
+      <c r="A256" s="2">
+        <v>41174</v>
       </c>
       <c r="B256">
         <v>19.953125</v>
@@ -4018,8 +4025,8 @@
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A257">
-        <v>267</v>
+      <c r="A257" s="2">
+        <v>41175</v>
       </c>
       <c r="B257">
         <v>22.303958333333341</v>
@@ -4032,8 +4039,8 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A258">
-        <v>268</v>
+      <c r="A258" s="2">
+        <v>41176</v>
       </c>
       <c r="B258">
         <v>23.18729166666667</v>
@@ -4046,8 +4053,8 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A259">
-        <v>269</v>
+      <c r="A259" s="2">
+        <v>41177</v>
       </c>
       <c r="B259">
         <v>23.056458333333332</v>
@@ -4060,8 +4067,8 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A260">
-        <v>270</v>
+      <c r="A260" s="2">
+        <v>41178</v>
       </c>
       <c r="B260">
         <v>23.826666666666672</v>
@@ -4074,8 +4081,8 @@
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A261">
-        <v>271</v>
+      <c r="A261" s="2">
+        <v>41179</v>
       </c>
       <c r="B261">
         <v>23.71083333333333</v>
@@ -4088,8 +4095,8 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A262">
-        <v>272</v>
+      <c r="A262" s="2">
+        <v>41180</v>
       </c>
       <c r="B262">
         <v>22.59333333333333</v>
@@ -4102,8 +4109,8 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A263">
-        <v>273</v>
+      <c r="A263" s="2">
+        <v>41181</v>
       </c>
       <c r="B263">
         <v>20.575208333333329</v>
@@ -4116,8 +4123,8 @@
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A264">
-        <v>274</v>
+      <c r="A264" s="2">
+        <v>41182</v>
       </c>
       <c r="B264">
         <v>20.59333333333333</v>
@@ -4130,8 +4137,8 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A265">
-        <v>275</v>
+      <c r="A265" s="2">
+        <v>41183</v>
       </c>
       <c r="B265">
         <v>20.42520833333333</v>
@@ -4144,8 +4151,8 @@
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A266">
-        <v>276</v>
+      <c r="A266" s="2">
+        <v>41184</v>
       </c>
       <c r="B266">
         <v>20.673749999999998</v>
@@ -4158,8 +4165,8 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A267">
-        <v>277</v>
+      <c r="A267" s="2">
+        <v>41185</v>
       </c>
       <c r="B267">
         <v>20.82458333333334</v>
@@ -4172,8 +4179,8 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A268">
-        <v>278</v>
+      <c r="A268" s="2">
+        <v>41186</v>
       </c>
       <c r="B268">
         <v>20.869375000000002</v>
@@ -4186,8 +4193,8 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A269">
-        <v>279</v>
+      <c r="A269" s="2">
+        <v>41187</v>
       </c>
       <c r="B269">
         <v>21.01125</v>
@@ -4200,8 +4207,8 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A270">
-        <v>280</v>
+      <c r="A270" s="2">
+        <v>41188</v>
       </c>
       <c r="B270">
         <v>21.642708333333331</v>
@@ -4214,8 +4221,8 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A271">
-        <v>281</v>
+      <c r="A271" s="2">
+        <v>41189</v>
       </c>
       <c r="B271">
         <v>21.260208333333331</v>
@@ -4228,8 +4235,8 @@
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A272">
-        <v>282</v>
+      <c r="A272" s="2">
+        <v>41190</v>
       </c>
       <c r="B272">
         <v>20.483750000000001</v>
@@ -4242,8 +4249,8 @@
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A273">
-        <v>283</v>
+      <c r="A273" s="2">
+        <v>41191</v>
       </c>
       <c r="B273">
         <v>21.391249999999999</v>
@@ -4256,8 +4263,8 @@
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A274">
-        <v>284</v>
+      <c r="A274" s="2">
+        <v>41192</v>
       </c>
       <c r="B274">
         <v>21.714583333333341</v>
@@ -4270,8 +4277,8 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A275">
-        <v>285</v>
+      <c r="A275" s="2">
+        <v>41193</v>
       </c>
       <c r="B275">
         <v>19.434583333333329</v>
@@ -4284,8 +4291,8 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A276">
-        <v>286</v>
+      <c r="A276" s="2">
+        <v>41194</v>
       </c>
       <c r="B276">
         <v>19.647500000000001</v>
@@ -4298,8 +4305,8 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A277">
-        <v>287</v>
+      <c r="A277" s="2">
+        <v>41195</v>
       </c>
       <c r="B277">
         <v>20.33979166666667</v>
@@ -4312,8 +4319,8 @@
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A278">
-        <v>288</v>
+      <c r="A278" s="2">
+        <v>41196</v>
       </c>
       <c r="B278">
         <v>21.447916666666661</v>
@@ -4326,8 +4333,8 @@
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A279">
-        <v>289</v>
+      <c r="A279" s="2">
+        <v>41197</v>
       </c>
       <c r="B279">
         <v>21.317916666666669</v>
@@ -4340,8 +4347,8 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A280">
-        <v>290</v>
+      <c r="A280" s="2">
+        <v>41198</v>
       </c>
       <c r="B280">
         <v>20.574999999999989</v>
@@ -4354,8 +4361,8 @@
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A281">
-        <v>291</v>
+      <c r="A281" s="2">
+        <v>41199</v>
       </c>
       <c r="B281">
         <v>17.989583333333339</v>
@@ -4368,8 +4375,8 @@
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A282">
-        <v>292</v>
+      <c r="A282" s="2">
+        <v>41200</v>
       </c>
       <c r="B282">
         <v>16.578125</v>
@@ -4382,8 +4389,8 @@
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A283">
-        <v>293</v>
+      <c r="A283" s="2">
+        <v>41201</v>
       </c>
       <c r="B283">
         <v>17.761875</v>
@@ -4396,8 +4403,8 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A284">
-        <v>294</v>
+      <c r="A284" s="2">
+        <v>41202</v>
       </c>
       <c r="B284">
         <v>20.034791666666671</v>
@@ -4410,8 +4417,8 @@
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A285">
-        <v>295</v>
+      <c r="A285" s="2">
+        <v>41203</v>
       </c>
       <c r="B285">
         <v>21.243541666666669</v>
@@ -4424,8 +4431,8 @@
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A286">
-        <v>296</v>
+      <c r="A286" s="2">
+        <v>41204</v>
       </c>
       <c r="B286">
         <v>18.194583333333341</v>
@@ -4438,8 +4445,8 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A287">
-        <v>297</v>
+      <c r="A287" s="2">
+        <v>41205</v>
       </c>
       <c r="B287">
         <v>16.67145833333333</v>
@@ -4452,8 +4459,8 @@
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A288">
-        <v>298</v>
+      <c r="A288" s="2">
+        <v>41206</v>
       </c>
       <c r="B288">
         <v>17.869375000000002</v>
@@ -4466,8 +4473,8 @@
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A289">
-        <v>299</v>
+      <c r="A289" s="2">
+        <v>41207</v>
       </c>
       <c r="B289">
         <v>18.328958333333329</v>
@@ -4480,8 +4487,8 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A290">
-        <v>300</v>
+      <c r="A290" s="2">
+        <v>41208</v>
       </c>
       <c r="B290">
         <v>21.110624999999999</v>
@@ -4494,8 +4501,8 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A291">
-        <v>301</v>
+      <c r="A291" s="2">
+        <v>41209</v>
       </c>
       <c r="B291">
         <v>19.346666666666671</v>
@@ -4508,8 +4515,8 @@
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A292">
-        <v>302</v>
+      <c r="A292" s="2">
+        <v>41210</v>
       </c>
       <c r="B292">
         <v>18.308125</v>
@@ -4522,8 +4529,8 @@
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A293">
-        <v>303</v>
+      <c r="A293" s="2">
+        <v>41211</v>
       </c>
       <c r="B293">
         <v>17.59333333333333</v>
@@ -4536,8 +4543,8 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A294">
-        <v>304</v>
+      <c r="A294" s="2">
+        <v>41212</v>
       </c>
       <c r="B294">
         <v>14.61375</v>
@@ -4550,8 +4557,8 @@
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A295">
-        <v>305</v>
+      <c r="A295" s="2">
+        <v>41213</v>
       </c>
       <c r="B295">
         <v>13.97583333333333</v>
@@ -4564,8 +4571,8 @@
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A296">
-        <v>306</v>
+      <c r="A296" s="2">
+        <v>41214</v>
       </c>
       <c r="B296">
         <v>14.265000000000001</v>
@@ -4578,8 +4585,8 @@
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A297">
-        <v>307</v>
+      <c r="A297" s="2">
+        <v>41215</v>
       </c>
       <c r="B297">
         <v>15.634166666666671</v>
@@ -4592,8 +4599,8 @@
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A298">
-        <v>308</v>
+      <c r="A298" s="2">
+        <v>41216</v>
       </c>
       <c r="B298">
         <v>17.049583333333331</v>
@@ -4606,8 +4613,8 @@
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A299">
-        <v>309</v>
+      <c r="A299" s="2">
+        <v>41217</v>
       </c>
       <c r="B299">
         <v>13.50125000000001</v>
@@ -4620,8 +4627,8 @@
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A300">
-        <v>310</v>
+      <c r="A300" s="2">
+        <v>41218</v>
       </c>
       <c r="B300">
         <v>12.918333333333329</v>
@@ -4634,8 +4641,8 @@
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A301">
-        <v>311</v>
+      <c r="A301" s="2">
+        <v>41219</v>
       </c>
       <c r="B301">
         <v>11.554166666666671</v>
@@ -4648,8 +4655,8 @@
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A302">
-        <v>312</v>
+      <c r="A302" s="2">
+        <v>41220</v>
       </c>
       <c r="B302">
         <v>13.018333333333331</v>
@@ -4662,8 +4669,8 @@
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A303">
-        <v>313</v>
+      <c r="A303" s="2">
+        <v>41221</v>
       </c>
       <c r="B303">
         <v>13.096666666666669</v>
@@ -4676,8 +4683,8 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A304">
-        <v>314</v>
+      <c r="A304" s="2">
+        <v>41222</v>
       </c>
       <c r="B304">
         <v>14.463333333333329</v>
@@ -4690,8 +4697,8 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A305">
-        <v>315</v>
+      <c r="A305" s="2">
+        <v>41223</v>
       </c>
       <c r="B305">
         <v>14.9025</v>
@@ -4704,8 +4711,8 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A306">
-        <v>316</v>
+      <c r="A306" s="2">
+        <v>41224</v>
       </c>
       <c r="B306">
         <v>11.506458333333329</v>
@@ -4718,8 +4725,8 @@
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A307">
-        <v>317</v>
+      <c r="A307" s="2">
+        <v>41225</v>
       </c>
       <c r="B307">
         <v>12.04104166666667</v>
@@ -4732,8 +4739,8 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A308">
-        <v>318</v>
+      <c r="A308" s="2">
+        <v>41226</v>
       </c>
       <c r="B308">
         <v>12.633333333333329</v>
@@ -4746,8 +4753,8 @@
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A309">
-        <v>319</v>
+      <c r="A309" s="2">
+        <v>41227</v>
       </c>
       <c r="B309">
         <v>11.018750000000001</v>
@@ -4760,8 +4767,8 @@
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A310">
-        <v>320</v>
+      <c r="A310" s="2">
+        <v>41228</v>
       </c>
       <c r="B310">
         <v>11.247291666666669</v>
@@ -4774,8 +4781,8 @@
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A311">
-        <v>321</v>
+      <c r="A311" s="2">
+        <v>41229</v>
       </c>
       <c r="B311">
         <v>11.352083333333329</v>
@@ -4788,8 +4795,8 @@
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A312">
-        <v>322</v>
+      <c r="A312" s="2">
+        <v>41230</v>
       </c>
       <c r="B312">
         <v>10.14770833333333</v>
@@ -4802,8 +4809,8 @@
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A313">
-        <v>323</v>
+      <c r="A313" s="2">
+        <v>41231</v>
       </c>
       <c r="B313">
         <v>10.94291666666666</v>
@@ -4816,8 +4823,8 @@
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A314">
-        <v>324</v>
+      <c r="A314" s="2">
+        <v>41232</v>
       </c>
       <c r="B314">
         <v>11.595625</v>
@@ -4830,8 +4837,8 @@
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A315">
-        <v>325</v>
+      <c r="A315" s="2">
+        <v>41233</v>
       </c>
       <c r="B315">
         <v>12.031874999999999</v>
@@ -4844,8 +4851,8 @@
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A316">
-        <v>326</v>
+      <c r="A316" s="2">
+        <v>41234</v>
       </c>
       <c r="B316">
         <v>12.582708333333329</v>
@@ -4858,8 +4865,8 @@
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A317">
-        <v>327</v>
+      <c r="A317" s="2">
+        <v>41235</v>
       </c>
       <c r="B317">
         <v>12.276666666666671</v>
@@ -4872,8 +4879,8 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A318">
-        <v>328</v>
+      <c r="A318" s="2">
+        <v>41236</v>
       </c>
       <c r="B318">
         <v>9.6208333333333336</v>
@@ -4886,8 +4893,8 @@
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A319">
-        <v>329</v>
+      <c r="A319" s="2">
+        <v>41237</v>
       </c>
       <c r="B319">
         <v>7.7338958333333343</v>
@@ -4900,8 +4907,8 @@
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A320">
-        <v>330</v>
+      <c r="A320" s="2">
+        <v>41238</v>
       </c>
       <c r="B320">
         <v>9.2706666666666653</v>
@@ -4914,8 +4921,8 @@
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A321">
-        <v>331</v>
+      <c r="A321" s="2">
+        <v>41239</v>
       </c>
       <c r="B321">
         <v>6.8849166666666646</v>
@@ -4928,8 +4935,8 @@
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A322">
-        <v>332</v>
+      <c r="A322" s="2">
+        <v>41240</v>
       </c>
       <c r="B322">
         <v>8.1265000000000018</v>
@@ -4942,8 +4949,8 @@
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A323">
-        <v>333</v>
+      <c r="A323" s="2">
+        <v>41241</v>
       </c>
       <c r="B323">
         <v>10.6175</v>
@@ -4956,8 +4963,8 @@
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A324">
-        <v>334</v>
+      <c r="A324" s="2">
+        <v>41242</v>
       </c>
       <c r="B324">
         <v>9.8552083333333318</v>
@@ -4970,8 +4977,8 @@
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A325">
-        <v>335</v>
+      <c r="A325" s="2">
+        <v>41243</v>
       </c>
       <c r="B325">
         <v>9.7031249999999982</v>
@@ -4984,8 +4991,8 @@
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A326">
-        <v>336</v>
+      <c r="A326" s="2">
+        <v>41244</v>
       </c>
       <c r="B326">
         <v>8.8441666666666663</v>
@@ -4998,8 +5005,8 @@
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A327">
-        <v>337</v>
+      <c r="A327" s="2">
+        <v>41245</v>
       </c>
       <c r="B327">
         <v>7.6500416666666657</v>
@@ -5012,8 +5019,8 @@
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A328">
-        <v>338</v>
+      <c r="A328" s="2">
+        <v>41246</v>
       </c>
       <c r="B328">
         <v>8.8356458333333325</v>
@@ -5026,8 +5033,8 @@
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A329">
-        <v>339</v>
+      <c r="A329" s="2">
+        <v>41247</v>
       </c>
       <c r="B329">
         <v>6.9111666666666656</v>
@@ -5040,8 +5047,8 @@
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A330">
-        <v>340</v>
+      <c r="A330" s="2">
+        <v>41248</v>
       </c>
       <c r="B330">
         <v>8.2277708333333326</v>
@@ -5054,8 +5061,8 @@
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A331">
-        <v>341</v>
+      <c r="A331" s="2">
+        <v>41249</v>
       </c>
       <c r="B331">
         <v>5.9776249999999997</v>
@@ -5068,8 +5075,8 @@
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A332">
-        <v>342</v>
+      <c r="A332" s="2">
+        <v>41250</v>
       </c>
       <c r="B332">
         <v>8.2633124999999978</v>
@@ -5082,8 +5089,8 @@
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A333">
-        <v>343</v>
+      <c r="A333" s="2">
+        <v>41251</v>
       </c>
       <c r="B333">
         <v>7.0145208333333313</v>
@@ -5096,8 +5103,8 @@
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A334">
-        <v>344</v>
+      <c r="A334" s="2">
+        <v>41252</v>
       </c>
       <c r="B334">
         <v>2.932020833333334</v>
@@ -5110,8 +5117,8 @@
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A335">
-        <v>345</v>
+      <c r="A335" s="2">
+        <v>41253</v>
       </c>
       <c r="B335">
         <v>3.3989583333333329</v>
@@ -5124,8 +5131,8 @@
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A336">
-        <v>346</v>
+      <c r="A336" s="2">
+        <v>41254</v>
       </c>
       <c r="B336">
         <v>5.326249999999999</v>
@@ -5138,8 +5145,8 @@
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A337">
-        <v>347</v>
+      <c r="A337" s="2">
+        <v>41255</v>
       </c>
       <c r="B337">
         <v>5.5249999999999986</v>
@@ -5152,8 +5159,8 @@
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A338">
-        <v>348</v>
+      <c r="A338" s="2">
+        <v>41256</v>
       </c>
       <c r="B338">
         <v>9.7095416666666647</v>
@@ -5166,8 +5173,8 @@
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A339">
-        <v>349</v>
+      <c r="A339" s="2">
+        <v>41257</v>
       </c>
       <c r="B339">
         <v>9.8161914893617013</v>
@@ -5180,8 +5187,8 @@
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A340">
-        <v>350</v>
+      <c r="A340" s="2">
+        <v>41258</v>
       </c>
       <c r="B340">
         <v>6.1798857142857138</v>
@@ -5194,8 +5201,8 @@
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A341">
-        <v>351</v>
+      <c r="A341" s="2">
+        <v>41259</v>
       </c>
       <c r="B341">
         <v>7.888229166666668</v>
@@ -5208,8 +5215,8 @@
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A342">
-        <v>352</v>
+      <c r="A342" s="2">
+        <v>41260</v>
       </c>
       <c r="B342">
         <v>6.9464166666666634</v>
@@ -5222,8 +5229,8 @@
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A343">
-        <v>353</v>
+      <c r="A343" s="2">
+        <v>41261</v>
       </c>
       <c r="B343">
         <v>2.637624999999999</v>
@@ -5236,8 +5243,8 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A344">
-        <v>354</v>
+      <c r="A344" s="2">
+        <v>41262</v>
       </c>
       <c r="B344">
         <v>1.893645833333333</v>
@@ -5250,8 +5257,8 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A345">
-        <v>355</v>
+      <c r="A345" s="2">
+        <v>41263</v>
       </c>
       <c r="B345">
         <v>6.2279166666666681</v>
@@ -5264,8 +5271,8 @@
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A346">
-        <v>356</v>
+      <c r="A346" s="2">
+        <v>41264</v>
       </c>
       <c r="B346">
         <v>5.0993749999999993</v>
@@ -5278,8 +5285,8 @@
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A347">
-        <v>357</v>
+      <c r="A347" s="2">
+        <v>41265</v>
       </c>
       <c r="B347">
         <v>3.917153846153846</v>
@@ -5292,8 +5299,8 @@
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A348">
-        <v>358</v>
+      <c r="A348" s="2">
+        <v>41266</v>
       </c>
       <c r="B348">
         <v>0.9671249999999999</v>
@@ -5306,8 +5313,8 @@
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A349">
-        <v>359</v>
+      <c r="A349" s="2">
+        <v>41267</v>
       </c>
       <c r="B349">
         <v>0.8250624999999997</v>
@@ -5320,8 +5327,8 @@
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A350">
-        <v>360</v>
+      <c r="A350" s="2">
+        <v>41268</v>
       </c>
       <c r="B350">
         <v>3.6357708333333338</v>
@@ -5334,8 +5341,8 @@
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A351">
-        <v>361</v>
+      <c r="A351" s="2">
+        <v>41269</v>
       </c>
       <c r="B351">
         <v>3.3338333333333332</v>
@@ -5348,8 +5355,8 @@
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A352">
-        <v>362</v>
+      <c r="A352" s="2">
+        <v>41270</v>
       </c>
       <c r="B352">
         <v>4.4813333333333318</v>
@@ -5362,8 +5369,8 @@
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A353">
-        <v>363</v>
+      <c r="A353" s="2">
+        <v>41271</v>
       </c>
       <c r="B353">
         <v>4.2089032258064512</v>
@@ -5376,8 +5383,8 @@
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A354">
-        <v>364</v>
+      <c r="A354" s="2">
+        <v>41272</v>
       </c>
       <c r="B354">
         <v>3.642653846153848</v>
@@ -5390,8 +5397,8 @@
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A355">
-        <v>365</v>
+      <c r="A355" s="2">
+        <v>41273</v>
       </c>
       <c r="B355">
         <v>-1.004291666666667</v>
@@ -5404,8 +5411,8 @@
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A356">
-        <v>366</v>
+      <c r="A356" s="2">
+        <v>41274</v>
       </c>
       <c r="B356">
         <v>1.0730208333333331</v>

--- a/DAY.xlsx
+++ b/DAY.xlsx
@@ -1,51 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Environmental_biophysics_homework\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97213922-AE82-43F7-8B61-4088C77FFF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>DAY</t>
-  </si>
-  <si>
-    <t>Ta</t>
-  </si>
-  <si>
-    <t>RH</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -53,15 +30,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -90,26 +60,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -151,7 +113,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,27 +145,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,24 +179,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,187 +354,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
-      <selection activeCell="Q343" sqref="Q343"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>DAY</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Ta</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="2">
         <v>40909</v>
       </c>
       <c r="B2">
-        <v>5.3619166666666667</v>
+        <v>5.361916666666667</v>
       </c>
       <c r="C2">
-        <v>67.968958333333305</v>
+        <v>67.9689583333333</v>
       </c>
       <c r="D2">
         <v>102.89649375</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="A3" s="2">
         <v>40910</v>
       </c>
       <c r="B3">
-        <v>4.1509375000000004</v>
+        <v>4.1509375</v>
       </c>
       <c r="C3">
-        <v>62.422291666666673</v>
+        <v>62.42229166666667</v>
       </c>
       <c r="D3">
-        <v>102.75087291666669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102.7508729166667</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="2">
         <v>40911</v>
       </c>
       <c r="B4">
-        <v>3.5815208333333342</v>
+        <v>3.581520833333334</v>
       </c>
       <c r="C4">
-        <v>57.992708333333333</v>
+        <v>57.99270833333333</v>
       </c>
       <c r="D4">
         <v>102.84596875</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5">
       <c r="A5" s="2">
         <v>40912</v>
       </c>
       <c r="B5">
-        <v>0.87933333333333341</v>
+        <v>0.8793333333333334</v>
       </c>
       <c r="C5">
-        <v>40.603958333333331</v>
+        <v>40.60395833333333</v>
       </c>
       <c r="D5">
         <v>103.3631145833334</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6">
       <c r="A6" s="2">
         <v>40913</v>
       </c>
       <c r="B6">
-        <v>1.1783333333333339</v>
+        <v>1.178333333333334</v>
       </c>
       <c r="C6">
-        <v>41.530208333333327</v>
+        <v>41.53020833333333</v>
       </c>
       <c r="D6">
         <v>103.0668541666667</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7">
       <c r="A7" s="2">
         <v>40914</v>
       </c>
       <c r="B7">
-        <v>3.4027291666666648</v>
+        <v>3.402729166666665</v>
       </c>
       <c r="C7">
-        <v>60.512708333333343</v>
+        <v>60.51270833333334</v>
       </c>
       <c r="D7">
         <v>103.113175</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8">
       <c r="A8" s="2">
         <v>40915</v>
       </c>
       <c r="B8">
-        <v>4.4846458333333334</v>
+        <v>4.484645833333333</v>
       </c>
       <c r="C8">
-        <v>66.375416666666666</v>
+        <v>66.37541666666667</v>
       </c>
       <c r="D8">
         <v>103.36638125</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9">
       <c r="A9" s="2">
         <v>40916</v>
       </c>
       <c r="B9">
-        <v>4.4141874999999979</v>
+        <v>4.414187499999998</v>
       </c>
       <c r="C9">
         <v>84.15000000000002</v>
       </c>
       <c r="D9">
-        <v>103.10006458333331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>103.1000645833333</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="2">
         <v>40917</v>
       </c>
       <c r="B10">
-        <v>4.5260833333333332</v>
+        <v>4.526083333333333</v>
       </c>
       <c r="C10">
-        <v>77.851458333333355</v>
+        <v>77.85145833333335</v>
       </c>
       <c r="D10">
         <v>103.0375270833333</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11">
       <c r="A11" s="2">
         <v>40918</v>
       </c>
       <c r="B11">
-        <v>5.2127291666666666</v>
+        <v>5.212729166666667</v>
       </c>
       <c r="C11">
-        <v>80.083749999999995</v>
+        <v>80.08374999999999</v>
       </c>
       <c r="D11">
         <v>102.8958375</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12">
       <c r="A12" s="2">
         <v>40919</v>
       </c>
       <c r="B12">
-        <v>4.5370833333333316</v>
+        <v>4.537083333333332</v>
       </c>
       <c r="C12">
-        <v>65.165624999999991</v>
+        <v>65.16562499999999</v>
       </c>
       <c r="D12">
         <v>103.3357770833333</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13">
       <c r="A13" s="2">
         <v>40920</v>
       </c>
@@ -616,88 +548,88 @@
         <v>3.954416666666666</v>
       </c>
       <c r="C13">
-        <v>64.171874999999986</v>
+        <v>64.17187499999999</v>
       </c>
       <c r="D13">
         <v>102.9121458333333</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14">
       <c r="A14" s="2">
         <v>40921</v>
       </c>
       <c r="B14">
-        <v>5.1996666666666673</v>
+        <v>5.199666666666667</v>
       </c>
       <c r="C14">
-        <v>82.263124999999988</v>
+        <v>82.26312499999999</v>
       </c>
       <c r="D14">
-        <v>102.54627708333329</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102.5462770833333</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="2">
         <v>40922</v>
       </c>
       <c r="B15">
-        <v>4.3283541666666663</v>
+        <v>4.328354166666666</v>
       </c>
       <c r="C15">
-        <v>90.933333333333337</v>
+        <v>90.93333333333334</v>
       </c>
       <c r="D15">
         <v>102.2036895833333</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="A16" s="2">
         <v>40923</v>
       </c>
       <c r="B16">
-        <v>4.7892291666666678</v>
+        <v>4.789229166666668</v>
       </c>
       <c r="C16">
-        <v>86.017499999999998</v>
+        <v>86.0175</v>
       </c>
       <c r="D16">
-        <v>101.94958333333329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101.9495833333333</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="2">
         <v>40924</v>
       </c>
       <c r="B17">
-        <v>5.4273750000000014</v>
+        <v>5.427375000000001</v>
       </c>
       <c r="C17">
-        <v>75.565833333333345</v>
+        <v>75.56583333333334</v>
       </c>
       <c r="D17">
-        <v>101.82441249999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101.8244125</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="2">
         <v>40925</v>
       </c>
       <c r="B18">
-        <v>5.6776874999999984</v>
+        <v>5.677687499999998</v>
       </c>
       <c r="C18">
-        <v>71.138333333333321</v>
+        <v>71.13833333333332</v>
       </c>
       <c r="D18">
         <v>102.0438020833333</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19">
       <c r="A19" s="2">
         <v>40926</v>
       </c>
       <c r="B19">
-        <v>6.0364999999999993</v>
+        <v>6.036499999999999</v>
       </c>
       <c r="C19">
         <v>86.02166666666669</v>
@@ -706,21 +638,21 @@
         <v>101.86305625</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20">
       <c r="A20" s="2">
         <v>40927</v>
       </c>
       <c r="B20">
-        <v>6.1925416666666662</v>
+        <v>6.192541666666666</v>
       </c>
       <c r="C20">
-        <v>79.786875000000009</v>
+        <v>79.78687500000001</v>
       </c>
       <c r="D20">
         <v>102.2004166666667</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21">
       <c r="A21" s="2">
         <v>40928</v>
       </c>
@@ -728,13 +660,13 @@
         <v>4.913875</v>
       </c>
       <c r="C21">
-        <v>71.583958333333314</v>
+        <v>71.58395833333331</v>
       </c>
       <c r="D21">
         <v>102.3146479166667</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22">
       <c r="A22" s="2">
         <v>40929</v>
       </c>
@@ -748,49 +680,49 @@
         <v>102.4225645833334</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23">
       <c r="A23" s="2">
         <v>40930</v>
       </c>
       <c r="B23">
-        <v>-0.55881250000000005</v>
+        <v>-0.5588125</v>
       </c>
       <c r="C23">
-        <v>71.584583333333342</v>
+        <v>71.58458333333334</v>
       </c>
       <c r="D23">
         <v>103.0114541666667</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24">
       <c r="A24" s="2">
         <v>40931</v>
       </c>
       <c r="B24">
-        <v>-1.1725625000000011</v>
+        <v>-1.172562500000001</v>
       </c>
       <c r="C24">
-        <v>59.820416666666681</v>
+        <v>59.82041666666668</v>
       </c>
       <c r="D24">
         <v>102.9862541666667</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25">
       <c r="A25" s="2">
         <v>40932</v>
       </c>
       <c r="B25">
-        <v>0.52693749999999995</v>
+        <v>0.5269374999999999</v>
       </c>
       <c r="C25">
-        <v>55.727083333333333</v>
+        <v>55.72708333333333</v>
       </c>
       <c r="D25">
         <v>102.7617770833334</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26">
       <c r="A26" s="2">
         <v>40933</v>
       </c>
@@ -798,46 +730,46 @@
         <v>0.8654791666666668</v>
       </c>
       <c r="C26">
-        <v>50.754166666666663</v>
+        <v>50.75416666666666</v>
       </c>
       <c r="D26">
         <v>102.7972604166666</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27">
       <c r="A27" s="2">
         <v>40934</v>
       </c>
       <c r="B27">
-        <v>2.3353541666666668</v>
+        <v>2.335354166666667</v>
       </c>
       <c r="C27">
-        <v>63.964999999999982</v>
+        <v>63.96499999999998</v>
       </c>
       <c r="D27">
         <v>102.4879979166667</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28">
       <c r="A28" s="2">
         <v>40935</v>
       </c>
       <c r="B28">
-        <v>4.0278333333333327</v>
+        <v>4.027833333333333</v>
       </c>
       <c r="C28">
-        <v>89.315625000000011</v>
+        <v>89.31562500000001</v>
       </c>
       <c r="D28">
-        <v>102.11817916666671</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102.1181791666667</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="2">
         <v>40936</v>
       </c>
       <c r="B29">
-        <v>5.2044583333333332</v>
+        <v>5.204458333333333</v>
       </c>
       <c r="C29">
         <v>90.3125</v>
@@ -846,63 +778,63 @@
         <v>102.2538604166667</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30">
       <c r="A30" s="2">
         <v>40937</v>
       </c>
       <c r="B30">
-        <v>5.7429791666666681</v>
+        <v>5.742979166666668</v>
       </c>
       <c r="C30">
-        <v>76.762916666666669</v>
+        <v>76.76291666666667</v>
       </c>
       <c r="D30">
         <v>102.5757875</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31">
       <c r="A31" s="2">
         <v>40938</v>
       </c>
       <c r="B31">
-        <v>5.3150833333333329</v>
+        <v>5.315083333333333</v>
       </c>
       <c r="C31">
-        <v>71.491666666666674</v>
+        <v>71.49166666666667</v>
       </c>
       <c r="D31">
         <v>102.8146020833333</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32">
       <c r="A32" s="2">
         <v>40939</v>
       </c>
       <c r="B32">
-        <v>6.0104791666666673</v>
+        <v>6.010479166666667</v>
       </c>
       <c r="C32">
-        <v>74.713125000000005</v>
+        <v>74.71312500000001</v>
       </c>
       <c r="D32">
         <v>102.3951083333333</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33">
       <c r="A33" s="2">
         <v>40940</v>
       </c>
       <c r="B33">
-        <v>3.8659166666666671</v>
+        <v>3.865916666666667</v>
       </c>
       <c r="C33">
-        <v>77.883749999999978</v>
+        <v>77.88374999999998</v>
       </c>
       <c r="D33">
         <v>102.7117958333333</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34">
       <c r="A34" s="2">
         <v>40941</v>
       </c>
@@ -910,60 +842,60 @@
         <v>-0.3228125</v>
       </c>
       <c r="C34">
-        <v>56.597499999999997</v>
+        <v>56.5975</v>
       </c>
       <c r="D34">
         <v>103.4444041666666</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35">
       <c r="A35" s="2">
         <v>40942</v>
       </c>
       <c r="B35">
-        <v>0.30091666666666672</v>
+        <v>0.3009166666666667</v>
       </c>
       <c r="C35">
-        <v>55.171249999999993</v>
+        <v>55.17124999999999</v>
       </c>
       <c r="D35">
         <v>102.8914208333334</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36">
       <c r="A36" s="2">
         <v>40943</v>
       </c>
       <c r="B36">
-        <v>3.8238958333333328</v>
+        <v>3.823895833333333</v>
       </c>
       <c r="C36">
-        <v>72.822083333333339</v>
+        <v>72.82208333333334</v>
       </c>
       <c r="D36">
         <v>102.36975</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37">
       <c r="A37" s="2">
         <v>40944</v>
       </c>
       <c r="B37">
-        <v>5.5258958333333323</v>
+        <v>5.525895833333332</v>
       </c>
       <c r="C37">
-        <v>90.371458333333337</v>
+        <v>90.37145833333334</v>
       </c>
       <c r="D37">
         <v>101.95804375</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38">
       <c r="A38" s="2">
         <v>40945</v>
       </c>
       <c r="B38">
-        <v>7.1293191489361707</v>
+        <v>7.129319148936171</v>
       </c>
       <c r="C38">
         <v>91.03638297872341</v>
@@ -972,21 +904,21 @@
         <v>101.4931042553191</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39">
       <c r="A39" s="2">
         <v>40946</v>
       </c>
       <c r="B39">
-        <v>0.25710416666666669</v>
+        <v>0.2571041666666667</v>
       </c>
       <c r="C39">
-        <v>48.638541666666661</v>
+        <v>48.63854166666666</v>
       </c>
       <c r="D39">
         <v>102.7456416666666</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40">
       <c r="A40" s="2">
         <v>40947</v>
       </c>
@@ -994,41 +926,41 @@
         <v>-0.3575000000000001</v>
       </c>
       <c r="C40">
-        <v>37.291666666666671</v>
+        <v>37.29166666666667</v>
       </c>
       <c r="D40">
         <v>102.9990770833334</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41">
       <c r="A41" s="2">
         <v>40948</v>
       </c>
       <c r="B41">
-        <v>1.7982499999999999</v>
+        <v>1.79825</v>
       </c>
       <c r="C41">
-        <v>46.541666666666679</v>
+        <v>46.54166666666668</v>
       </c>
       <c r="D41">
         <v>102.6763895833334</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42">
       <c r="A42" s="2">
         <v>40949</v>
       </c>
       <c r="B42">
-        <v>0.99981249999999988</v>
+        <v>0.9998124999999999</v>
       </c>
       <c r="C42">
-        <v>83.602499999999978</v>
+        <v>83.60249999999998</v>
       </c>
       <c r="D42">
         <v>102.7687395833333</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43">
       <c r="A43" s="2">
         <v>40950</v>
       </c>
@@ -1036,13 +968,13 @@
         <v>2.533104166666666</v>
       </c>
       <c r="C43">
-        <v>81.857083333333364</v>
+        <v>81.85708333333336</v>
       </c>
       <c r="D43">
         <v>102.8764729166667</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44">
       <c r="A44" s="2">
         <v>40951</v>
       </c>
@@ -1050,41 +982,41 @@
         <v>5.006145833333334</v>
       </c>
       <c r="C44">
-        <v>84.817083333333329</v>
+        <v>84.81708333333333</v>
       </c>
       <c r="D44">
         <v>102.3489979166667</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45">
       <c r="A45" s="2">
         <v>40952</v>
       </c>
       <c r="B45">
-        <v>4.3894583333333337</v>
+        <v>4.389458333333334</v>
       </c>
       <c r="C45">
-        <v>94.114583333333329</v>
+        <v>94.11458333333333</v>
       </c>
       <c r="D45">
         <v>102.1641354166667</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46">
       <c r="A46" s="2">
         <v>40953</v>
       </c>
       <c r="B46">
-        <v>4.7325416666666671</v>
+        <v>4.732541666666667</v>
       </c>
       <c r="C46">
-        <v>95.016666666666637</v>
+        <v>95.01666666666664</v>
       </c>
       <c r="D46">
         <v>102.0826729166667</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47">
       <c r="A47" s="2">
         <v>40954</v>
       </c>
@@ -1092,27 +1024,27 @@
         <v>4.231416666666667</v>
       </c>
       <c r="C47">
-        <v>82.657708333333318</v>
+        <v>82.65770833333332</v>
       </c>
       <c r="D47">
-        <v>102.30838958333329</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102.3083895833333</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="2">
         <v>40955</v>
       </c>
       <c r="B48">
-        <v>3.6835416666666672</v>
+        <v>3.683541666666667</v>
       </c>
       <c r="C48">
-        <v>75.345625000000013</v>
+        <v>75.34562500000001</v>
       </c>
       <c r="D48">
-        <v>102.64490000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102.6449</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="2">
         <v>40956</v>
       </c>
@@ -1120,13 +1052,13 @@
         <v>4.053375</v>
       </c>
       <c r="C49">
-        <v>62.749791666666667</v>
+        <v>62.74979166666667</v>
       </c>
       <c r="D49">
         <v>102.8874166666667</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50">
       <c r="A50" s="2">
         <v>40957</v>
       </c>
@@ -1134,13 +1066,13 @@
         <v>1.018944444444444</v>
       </c>
       <c r="C50">
-        <v>64.532777777777767</v>
+        <v>64.53277777777777</v>
       </c>
       <c r="D50">
         <v>103.2239888888889</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51">
       <c r="A51" s="2">
         <v>40965</v>
       </c>
@@ -1151,80 +1083,80 @@
         <v>66.83</v>
       </c>
       <c r="D51">
-        <v>102.82470000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102.8247</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="2">
         <v>40966</v>
       </c>
       <c r="B52">
-        <v>3.1272500000000001</v>
+        <v>3.12725</v>
       </c>
       <c r="C52">
-        <v>62.593541666666667</v>
+        <v>62.59354166666667</v>
       </c>
       <c r="D52">
         <v>102.5557583333334</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53">
       <c r="A53" s="2">
         <v>40967</v>
       </c>
       <c r="B53">
-        <v>3.6551250000000008</v>
+        <v>3.655125000000001</v>
       </c>
       <c r="C53">
-        <v>76.727291666666659</v>
+        <v>76.72729166666666</v>
       </c>
       <c r="D53">
         <v>102.0895791666667</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54">
       <c r="A54" s="2">
         <v>40968</v>
       </c>
       <c r="B54">
-        <v>4.9807073170731719</v>
+        <v>4.980707317073172</v>
       </c>
       <c r="C54">
-        <v>84.768292682926813</v>
+        <v>84.76829268292681</v>
       </c>
       <c r="D54">
         <v>101.9298170731707</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55">
       <c r="A55" s="2">
         <v>40969</v>
       </c>
       <c r="B55">
-        <v>7.1829999999999998</v>
+        <v>7.183</v>
       </c>
       <c r="C55">
-        <v>80.099999999999994</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="D55">
         <v>101.5016</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56">
       <c r="A56" s="2">
         <v>40970</v>
       </c>
       <c r="B56">
-        <v>5.6435652173913038</v>
+        <v>5.643565217391304</v>
       </c>
       <c r="C56">
-        <v>83.263913043478269</v>
+        <v>83.26391304347827</v>
       </c>
       <c r="D56">
         <v>102.1424347826087</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57">
       <c r="A57" s="2">
         <v>40971</v>
       </c>
@@ -1232,27 +1164,27 @@
         <v>4.664545454545455</v>
       </c>
       <c r="C57">
-        <v>79.451818181818183</v>
+        <v>79.45181818181818</v>
       </c>
       <c r="D57">
         <v>102.1763</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58">
       <c r="A58" s="2">
         <v>40976</v>
       </c>
       <c r="B58">
-        <v>5.7604166666666652</v>
+        <v>5.760416666666665</v>
       </c>
       <c r="C58">
-        <v>75.242500000000007</v>
+        <v>75.24250000000001</v>
       </c>
       <c r="D58">
         <v>102.0598</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59">
       <c r="A59" s="2">
         <v>40977</v>
       </c>
@@ -1266,91 +1198,91 @@
         <v>102.35933125</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60">
       <c r="A60" s="2">
         <v>40978</v>
       </c>
       <c r="B60">
-        <v>4.8336041666666656</v>
+        <v>4.833604166666666</v>
       </c>
       <c r="C60">
-        <v>56.550416666666678</v>
+        <v>56.55041666666668</v>
       </c>
       <c r="D60">
         <v>102.4292770833333</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61">
       <c r="A61" s="2">
         <v>40979</v>
       </c>
       <c r="B61">
-        <v>5.7516458333333356</v>
+        <v>5.751645833333336</v>
       </c>
       <c r="C61">
-        <v>67.190625000000011</v>
+        <v>67.19062500000001</v>
       </c>
       <c r="D61">
-        <v>102.78575208333331</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102.7857520833333</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" s="2">
         <v>40980</v>
       </c>
       <c r="B62">
-        <v>3.3086458333333342</v>
+        <v>3.308645833333334</v>
       </c>
       <c r="C62">
-        <v>59.277291666666677</v>
+        <v>59.27729166666668</v>
       </c>
       <c r="D62">
         <v>102.95911875</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63">
       <c r="A63" s="2">
         <v>40981</v>
       </c>
       <c r="B63">
-        <v>6.8877083333333333</v>
+        <v>6.887708333333333</v>
       </c>
       <c r="C63">
-        <v>69.325416666666641</v>
+        <v>69.32541666666664</v>
       </c>
       <c r="D63">
         <v>102.4955979166667</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64">
       <c r="A64" s="2">
         <v>40982</v>
       </c>
       <c r="B64">
-        <v>9.6234081632653066</v>
+        <v>9.623408163265307</v>
       </c>
       <c r="C64">
-        <v>69.147142857142853</v>
+        <v>69.14714285714285</v>
       </c>
       <c r="D64">
-        <v>102.24879387755099</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102.248793877551</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" s="2">
         <v>40983</v>
       </c>
       <c r="B65">
-        <v>10.180624999999999</v>
+        <v>10.180625</v>
       </c>
       <c r="C65">
-        <v>89.115833333333342</v>
+        <v>89.11583333333334</v>
       </c>
       <c r="D65">
         <v>101.96265</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66">
       <c r="A66" s="2">
         <v>40984</v>
       </c>
@@ -1358,13 +1290,13 @@
         <v>10.84</v>
       </c>
       <c r="C66">
-        <v>94.056756756756769</v>
+        <v>94.05675675675677</v>
       </c>
       <c r="D66">
-        <v>101.21087297297299</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101.210872972973</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67" s="2">
         <v>40985</v>
       </c>
@@ -1372,13 +1304,13 @@
         <v>10.70958333333334</v>
       </c>
       <c r="C67">
-        <v>91.852083333333312</v>
+        <v>91.85208333333331</v>
       </c>
       <c r="D67">
         <v>101.2416145833333</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68">
       <c r="A68" s="2">
         <v>40986</v>
       </c>
@@ -1386,27 +1318,27 @@
         <v>10.81625</v>
       </c>
       <c r="C68">
-        <v>85.074999999999989</v>
+        <v>85.07499999999999</v>
       </c>
       <c r="D68">
         <v>101.7388645833333</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69">
       <c r="A69" s="2">
         <v>40987</v>
       </c>
       <c r="B69">
-        <v>6.9619583333333317</v>
+        <v>6.961958333333332</v>
       </c>
       <c r="C69">
-        <v>77.573125000000019</v>
+        <v>77.57312500000002</v>
       </c>
       <c r="D69">
         <v>102.0573541666667</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70">
       <c r="A70" s="2">
         <v>40988</v>
       </c>
@@ -1414,55 +1346,55 @@
         <v>6.368854166666666</v>
       </c>
       <c r="C70">
-        <v>74.866458333333341</v>
+        <v>74.86645833333334</v>
       </c>
       <c r="D70">
         <v>102.2260354166667</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71">
       <c r="A71" s="2">
         <v>40989</v>
       </c>
       <c r="B71">
-        <v>7.9236458333333317</v>
+        <v>7.923645833333332</v>
       </c>
       <c r="C71">
         <v>70.31645833333333</v>
       </c>
       <c r="D71">
-        <v>102.11755208333339</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102.1175520833334</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" s="2">
         <v>40990</v>
       </c>
       <c r="B72">
-        <v>9.8389361702127616</v>
+        <v>9.838936170212762</v>
       </c>
       <c r="C72">
-        <v>83.774893617021263</v>
+        <v>83.77489361702126</v>
       </c>
       <c r="D72">
         <v>101.3264872340426</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73">
       <c r="A73" s="2">
         <v>40991</v>
       </c>
       <c r="B73">
-        <v>8.2460000000000004</v>
+        <v>8.246</v>
       </c>
       <c r="C73">
-        <v>80.133541666666687</v>
+        <v>80.13354166666669</v>
       </c>
       <c r="D73">
         <v>101.8161770833333</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74">
       <c r="A74" s="2">
         <v>40992</v>
       </c>
@@ -1470,13 +1402,13 @@
         <v>11.14458333333334</v>
       </c>
       <c r="C74">
-        <v>53.107291666666661</v>
+        <v>53.10729166666666</v>
       </c>
       <c r="D74">
         <v>102.1614458333333</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75">
       <c r="A75" s="2">
         <v>40993</v>
       </c>
@@ -1484,13 +1416,13 @@
         <v>12.93166666666667</v>
       </c>
       <c r="C75">
-        <v>60.380416666666669</v>
+        <v>60.38041666666667</v>
       </c>
       <c r="D75">
         <v>102.18025625</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76">
       <c r="A76" s="2">
         <v>40994</v>
       </c>
@@ -1498,41 +1430,41 @@
         <v>12.26125</v>
       </c>
       <c r="C76">
-        <v>70.406874999999999</v>
+        <v>70.406875</v>
       </c>
       <c r="D76">
         <v>102.2909875</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77">
       <c r="A77" s="2">
         <v>40995</v>
       </c>
       <c r="B77">
-        <v>15.983750000000001</v>
+        <v>15.98375</v>
       </c>
       <c r="C77">
-        <v>59.730208333333337</v>
+        <v>59.73020833333334</v>
       </c>
       <c r="D77">
         <v>102.1160166666667</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78">
       <c r="A78" s="2">
         <v>40996</v>
       </c>
       <c r="B78">
-        <v>16.296041666666671</v>
+        <v>16.29604166666667</v>
       </c>
       <c r="C78">
-        <v>66.595416666666665</v>
+        <v>66.59541666666667</v>
       </c>
       <c r="D78">
         <v>102.1349229166667</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79">
       <c r="A79" s="2">
         <v>40997</v>
       </c>
@@ -1540,13 +1472,13 @@
         <v>16.27291666666666</v>
       </c>
       <c r="C79">
-        <v>69.091041666666669</v>
+        <v>69.09104166666667</v>
       </c>
       <c r="D79">
         <v>101.7418395833334</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80">
       <c r="A80" s="2">
         <v>40998</v>
       </c>
@@ -1554,13 +1486,13 @@
         <v>14.37333333333333</v>
       </c>
       <c r="C80">
-        <v>85.346041666666679</v>
+        <v>85.34604166666668</v>
       </c>
       <c r="D80">
         <v>101.6289520833333</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81">
       <c r="A81" s="2">
         <v>40999</v>
       </c>
@@ -1568,13 +1500,13 @@
         <v>13.56958333333333</v>
       </c>
       <c r="C81">
-        <v>54.758333333333333</v>
+        <v>54.75833333333333</v>
       </c>
       <c r="D81">
         <v>102.2774375</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82">
       <c r="A82" s="2">
         <v>41000</v>
       </c>
@@ -1582,13 +1514,13 @@
         <v>15.855</v>
       </c>
       <c r="C82">
-        <v>56.753958333333337</v>
+        <v>56.75395833333334</v>
       </c>
       <c r="D82">
-        <v>101.76304583333329</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101.7630458333333</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83" s="2">
         <v>41001</v>
       </c>
@@ -1596,13 +1528,13 @@
         <v>18.37886363636364</v>
       </c>
       <c r="C83">
-        <v>56.376590909090901</v>
+        <v>56.3765909090909</v>
       </c>
       <c r="D83">
         <v>100.8905704545454</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84">
       <c r="A84" s="2">
         <v>41002</v>
       </c>
@@ -1610,13 +1542,13 @@
         <v>12.51288888888889</v>
       </c>
       <c r="C84">
-        <v>57.794888888888863</v>
+        <v>57.79488888888886</v>
       </c>
       <c r="D84">
         <v>102.1112777777778</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85">
       <c r="A85" s="2">
         <v>41003</v>
       </c>
@@ -1624,13 +1556,13 @@
         <v>15.123125</v>
       </c>
       <c r="C85">
-        <v>55.825625000000002</v>
+        <v>55.825625</v>
       </c>
       <c r="D85">
         <v>101.5980520833334</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86">
       <c r="A86" s="2">
         <v>41004</v>
       </c>
@@ -1638,13 +1570,13 @@
         <v>15.98041666666666</v>
       </c>
       <c r="C86">
-        <v>58.816041666666663</v>
+        <v>58.81604166666666</v>
       </c>
       <c r="D86">
         <v>101.5220958333333</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87">
       <c r="A87" s="2">
         <v>41005</v>
       </c>
@@ -1652,18 +1584,18 @@
         <v>15.65520833333334</v>
       </c>
       <c r="C87">
-        <v>49.888541666666661</v>
+        <v>49.88854166666666</v>
       </c>
       <c r="D87">
-        <v>101.84728749999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101.8472875</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="A88" s="2">
         <v>41006</v>
       </c>
       <c r="B88">
-        <v>16.340624999999999</v>
+        <v>16.340625</v>
       </c>
       <c r="C88">
         <v>56.29666666666666</v>
@@ -1672,35 +1604,35 @@
         <v>102.00225625</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89">
       <c r="A89" s="2">
         <v>41007</v>
       </c>
       <c r="B89">
-        <v>16.976041666666671</v>
+        <v>16.97604166666667</v>
       </c>
       <c r="C89">
-        <v>72.971041666666679</v>
+        <v>72.97104166666668</v>
       </c>
       <c r="D89">
         <v>101.76719375</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90">
       <c r="A90" s="2">
         <v>41008</v>
       </c>
       <c r="B90">
-        <v>16.506250000000001</v>
+        <v>16.50625</v>
       </c>
       <c r="C90">
-        <v>84.058333333333323</v>
+        <v>84.05833333333332</v>
       </c>
       <c r="D90">
-        <v>101.61835416666671</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101.6183541666667</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="A91" s="2">
         <v>41009</v>
       </c>
@@ -1708,13 +1640,13 @@
         <v>19.59</v>
       </c>
       <c r="C91">
-        <v>85.431666666666672</v>
+        <v>85.43166666666667</v>
       </c>
       <c r="D91">
-        <v>100.96078958333339</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.9607895833334</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="A92" s="2">
         <v>41010</v>
       </c>
@@ -1722,13 +1654,13 @@
         <v>17.39553191489361</v>
       </c>
       <c r="C92">
-        <v>81.330425531914884</v>
+        <v>81.33042553191488</v>
       </c>
       <c r="D92">
         <v>101.1156191489362</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93">
       <c r="A93" s="2">
         <v>41011</v>
       </c>
@@ -1736,46 +1668,46 @@
         <v>14.83770833333333</v>
       </c>
       <c r="C93">
-        <v>78.123333333333306</v>
+        <v>78.12333333333331</v>
       </c>
       <c r="D93">
         <v>101.0505979166667</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94">
       <c r="A94" s="2">
         <v>41012</v>
       </c>
       <c r="B94">
-        <v>14.676875000000001</v>
+        <v>14.676875</v>
       </c>
       <c r="C94">
-        <v>86.231250000000003</v>
+        <v>86.23125</v>
       </c>
       <c r="D94">
         <v>101.11560625</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95">
       <c r="A95" s="2">
         <v>41013</v>
       </c>
       <c r="B95">
-        <v>15.573958333333341</v>
+        <v>15.57395833333334</v>
       </c>
       <c r="C95">
-        <v>83.014583333333334</v>
+        <v>83.01458333333333</v>
       </c>
       <c r="D95">
-        <v>101.33183958333331</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101.3318395833333</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="A96" s="2">
         <v>41014</v>
       </c>
       <c r="B96">
-        <v>16.177291666666669</v>
+        <v>16.17729166666667</v>
       </c>
       <c r="C96">
         <v>75.76895833333333</v>
@@ -1784,21 +1716,21 @@
         <v>101.0920541666667</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97">
       <c r="A97" s="2">
         <v>41015</v>
       </c>
       <c r="B97">
-        <v>17.557708333333331</v>
+        <v>17.55770833333333</v>
       </c>
       <c r="C97">
-        <v>77.438541666666666</v>
+        <v>77.43854166666667</v>
       </c>
       <c r="D97">
         <v>101.3005416666667</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98">
       <c r="A98" s="2">
         <v>41016</v>
       </c>
@@ -1806,55 +1738,55 @@
         <v>15.90875</v>
       </c>
       <c r="C98">
-        <v>69.970833333333317</v>
+        <v>69.97083333333332</v>
       </c>
       <c r="D98">
-        <v>101.36841041666671</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101.3684104166667</v>
+      </c>
+    </row>
+    <row r="99">
       <c r="A99" s="2">
         <v>41017</v>
       </c>
       <c r="B99">
-        <v>16.587291666666658</v>
+        <v>16.58729166666666</v>
       </c>
       <c r="C99">
-        <v>75.539166666666674</v>
+        <v>75.53916666666667</v>
       </c>
       <c r="D99">
         <v>101.04343125</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100">
       <c r="A100" s="2">
         <v>41018</v>
       </c>
       <c r="B100">
-        <v>18.068958333333331</v>
+        <v>18.06895833333333</v>
       </c>
       <c r="C100">
-        <v>81.779374999999987</v>
+        <v>81.77937499999999</v>
       </c>
       <c r="D100">
         <v>101.0974395833334</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101">
       <c r="A101" s="2">
         <v>41019</v>
       </c>
       <c r="B101">
-        <v>16.434791666666669</v>
+        <v>16.43479166666667</v>
       </c>
       <c r="C101">
-        <v>85.214583333333366</v>
+        <v>85.21458333333337</v>
       </c>
       <c r="D101">
         <v>101.0529229166667</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="102">
       <c r="A102" s="2">
         <v>41020</v>
       </c>
@@ -1862,55 +1794,55 @@
         <v>16.37791666666666</v>
       </c>
       <c r="C102">
-        <v>82.812083333333334</v>
+        <v>82.81208333333333</v>
       </c>
       <c r="D102">
         <v>100.66945625</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103">
       <c r="A103" s="2">
         <v>41021</v>
       </c>
       <c r="B103">
-        <v>19.803333333333331</v>
+        <v>19.80333333333333</v>
       </c>
       <c r="C103">
-        <v>70.431875000000005</v>
+        <v>70.43187500000001</v>
       </c>
       <c r="D103">
         <v>100.8604104166666</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104">
       <c r="A104" s="2">
         <v>41022</v>
       </c>
       <c r="B104">
-        <v>21.845624999999998</v>
+        <v>21.845625</v>
       </c>
       <c r="C104">
-        <v>73.492916666666659</v>
+        <v>73.49291666666666</v>
       </c>
       <c r="D104">
-        <v>100.60068333333329</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.6006833333333</v>
+      </c>
+    </row>
+    <row r="105">
       <c r="A105" s="2">
         <v>41023</v>
       </c>
       <c r="B105">
-        <v>21.701041666666669</v>
+        <v>21.70104166666667</v>
       </c>
       <c r="C105">
-        <v>86.853333333333339</v>
+        <v>86.85333333333334</v>
       </c>
       <c r="D105">
         <v>100.06962</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="106">
       <c r="A106" s="2">
         <v>41024</v>
       </c>
@@ -1918,41 +1850,41 @@
         <v>19.03875</v>
       </c>
       <c r="C106">
-        <v>80.777916666666684</v>
+        <v>80.77791666666668</v>
       </c>
       <c r="D106">
-        <v>100.49661708333331</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.4966170833333</v>
+      </c>
+    </row>
+    <row r="107">
       <c r="A107" s="2">
         <v>41025</v>
       </c>
       <c r="B107">
-        <v>19.551458333333329</v>
+        <v>19.55145833333333</v>
       </c>
       <c r="C107">
-        <v>49.172500000000007</v>
+        <v>49.17250000000001</v>
       </c>
       <c r="D107">
         <v>101.2086791666666</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="108">
       <c r="A108" s="2">
         <v>41026</v>
       </c>
       <c r="B108">
-        <v>20.438124999999999</v>
+        <v>20.438125</v>
       </c>
       <c r="C108">
-        <v>63.952083333333341</v>
+        <v>63.95208333333334</v>
       </c>
       <c r="D108">
         <v>100.7854</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="109">
       <c r="A109" s="2">
         <v>41027</v>
       </c>
@@ -1960,27 +1892,27 @@
         <v>21.64574468085106</v>
       </c>
       <c r="C109">
-        <v>74.733617021276601</v>
+        <v>74.7336170212766</v>
       </c>
       <c r="D109">
         <v>100.7506617021277</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="110">
       <c r="A110" s="2">
         <v>41028</v>
       </c>
       <c r="B110">
-        <v>22.279166666666669</v>
+        <v>22.27916666666667</v>
       </c>
       <c r="C110">
-        <v>87.155208333333334</v>
+        <v>87.15520833333333</v>
       </c>
       <c r="D110">
         <v>100.4041479166667</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="111">
       <c r="A111" s="2">
         <v>41029</v>
       </c>
@@ -1988,69 +1920,69 @@
         <v>18.91375</v>
       </c>
       <c r="C111">
-        <v>85.940625000000026</v>
+        <v>85.94062500000003</v>
       </c>
       <c r="D111">
         <v>100.5447375</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="112">
       <c r="A112" s="2">
         <v>41030</v>
       </c>
       <c r="B112">
-        <v>17.736666666666672</v>
+        <v>17.73666666666667</v>
       </c>
       <c r="C112">
-        <v>88.393749999999955</v>
+        <v>88.39374999999995</v>
       </c>
       <c r="D112">
-        <v>100.49736666666669</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.4973666666667</v>
+      </c>
+    </row>
+    <row r="113">
       <c r="A113" s="2">
         <v>41031</v>
       </c>
       <c r="B113">
-        <v>19.745000000000001</v>
+        <v>19.745</v>
       </c>
       <c r="C113">
-        <v>78.965833333333322</v>
+        <v>78.96583333333332</v>
       </c>
       <c r="D113">
         <v>100.7872604166667</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="114">
       <c r="A114" s="2">
         <v>41032</v>
       </c>
       <c r="B114">
-        <v>22.082916666666669</v>
+        <v>22.08291666666667</v>
       </c>
       <c r="C114">
-        <v>77.947708333333352</v>
+        <v>77.94770833333335</v>
       </c>
       <c r="D114">
         <v>100.8115416666667</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="115">
       <c r="A115" s="2">
         <v>41033</v>
       </c>
       <c r="B115">
-        <v>23.092083333333331</v>
+        <v>23.09208333333333</v>
       </c>
       <c r="C115">
-        <v>70.379166666666663</v>
+        <v>70.37916666666666</v>
       </c>
       <c r="D115">
         <v>100.85194375</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="116">
       <c r="A116" s="2">
         <v>41034</v>
       </c>
@@ -2058,41 +1990,41 @@
         <v>23.91791666666667</v>
       </c>
       <c r="C116">
-        <v>62.382291666666653</v>
+        <v>62.38229166666665</v>
       </c>
       <c r="D116">
-        <v>100.89196041666661</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.8919604166666</v>
+      </c>
+    </row>
+    <row r="117">
       <c r="A117" s="2">
         <v>41035</v>
       </c>
       <c r="B117">
-        <v>26.158958333333331</v>
+        <v>26.15895833333333</v>
       </c>
       <c r="C117">
-        <v>56.906666666666659</v>
+        <v>56.90666666666666</v>
       </c>
       <c r="D117">
         <v>100.8249020833333</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="118">
       <c r="A118" s="2">
         <v>41036</v>
       </c>
       <c r="B118">
-        <v>26.229791666666671</v>
+        <v>26.22979166666667</v>
       </c>
       <c r="C118">
-        <v>62.959583333333342</v>
+        <v>62.95958333333334</v>
       </c>
       <c r="D118">
         <v>100.5657875</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="119">
       <c r="A119" s="2">
         <v>41037</v>
       </c>
@@ -2100,116 +2032,116 @@
         <v>21.08208333333333</v>
       </c>
       <c r="C119">
-        <v>87.274583333333325</v>
+        <v>87.27458333333333</v>
       </c>
       <c r="D119">
         <v>100.3292604166667</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="120">
       <c r="A120" s="2">
         <v>41038</v>
       </c>
       <c r="B120">
-        <v>19.994583333333331</v>
+        <v>19.99458333333333</v>
       </c>
       <c r="C120">
-        <v>78.786874999999995</v>
+        <v>78.78687499999999</v>
       </c>
       <c r="D120">
         <v>101.1540604166667</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="121">
       <c r="A121" s="2">
         <v>41039</v>
       </c>
       <c r="B121">
-        <v>20.509166666666658</v>
+        <v>20.50916666666666</v>
       </c>
       <c r="C121">
-        <v>77.283333333333331</v>
+        <v>77.28333333333333</v>
       </c>
       <c r="D121">
         <v>101.252325</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="122">
       <c r="A122" s="2">
         <v>41040</v>
       </c>
       <c r="B122">
-        <v>19.647291666666661</v>
+        <v>19.64729166666666</v>
       </c>
       <c r="C122">
-        <v>76.239583333333314</v>
+        <v>76.23958333333331</v>
       </c>
       <c r="D122">
         <v>101.0456166666667</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="123">
       <c r="A123" s="2">
         <v>41041</v>
       </c>
       <c r="B123">
-        <v>22.203749999999999</v>
+        <v>22.20375</v>
       </c>
       <c r="C123">
-        <v>79.548333333333332</v>
+        <v>79.54833333333333</v>
       </c>
       <c r="D123">
-        <v>100.63782083333339</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.6378208333334</v>
+      </c>
+    </row>
+    <row r="124">
       <c r="A124" s="2">
         <v>41042</v>
       </c>
       <c r="B124">
-        <v>21.470416666666669</v>
+        <v>21.47041666666667</v>
       </c>
       <c r="C124">
-        <v>85.857291666666683</v>
+        <v>85.85729166666668</v>
       </c>
       <c r="D124">
         <v>100.4939270833333</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="125">
       <c r="A125" s="2">
         <v>41043</v>
       </c>
       <c r="B125">
-        <v>20.239583333333329</v>
+        <v>20.23958333333333</v>
       </c>
       <c r="C125">
-        <v>85.798125000000013</v>
+        <v>85.79812500000001</v>
       </c>
       <c r="D125">
         <v>100.7109916666667</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="126">
       <c r="A126" s="2">
         <v>41044</v>
       </c>
       <c r="B126">
-        <v>21.102916666666669</v>
+        <v>21.10291666666667</v>
       </c>
       <c r="C126">
-        <v>68.726666666666659</v>
+        <v>68.72666666666666</v>
       </c>
       <c r="D126">
         <v>100.9212541666667</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="127">
       <c r="A127" s="2">
         <v>41045</v>
       </c>
       <c r="B127">
-        <v>24.185625000000002</v>
+        <v>24.185625</v>
       </c>
       <c r="C127">
         <v>65.50395833333333</v>
@@ -2218,7 +2150,7 @@
         <v>100.5597208333333</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="128">
       <c r="A128" s="2">
         <v>41046</v>
       </c>
@@ -2226,97 +2158,97 @@
         <v>24.44958333333334</v>
       </c>
       <c r="C128">
-        <v>54.477708333333332</v>
+        <v>54.47770833333333</v>
       </c>
       <c r="D128">
-        <v>100.79424791666671</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.7942479166667</v>
+      </c>
+    </row>
+    <row r="129">
       <c r="A129" s="2">
         <v>41047</v>
       </c>
       <c r="B129">
-        <v>24.608958333333341</v>
+        <v>24.60895833333334</v>
       </c>
       <c r="C129">
-        <v>52.910000000000018</v>
+        <v>52.91000000000002</v>
       </c>
       <c r="D129">
         <v>100.9924875</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="130">
       <c r="A130" s="2">
         <v>41048</v>
       </c>
       <c r="B130">
-        <v>18.276250000000001</v>
+        <v>18.27625</v>
       </c>
       <c r="C130">
-        <v>81.915208333333354</v>
+        <v>81.91520833333335</v>
       </c>
       <c r="D130">
         <v>100.9646166666666</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="131">
       <c r="A131" s="2">
         <v>41049</v>
       </c>
       <c r="B131">
-        <v>17.757291666666671</v>
+        <v>17.75729166666667</v>
       </c>
       <c r="C131">
-        <v>84.204374999999985</v>
+        <v>84.20437499999998</v>
       </c>
       <c r="D131">
         <v>101.1857916666667</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="132">
       <c r="A132" s="2">
         <v>41050</v>
       </c>
       <c r="B132">
-        <v>20.063958333333339</v>
+        <v>20.06395833333334</v>
       </c>
       <c r="C132">
-        <v>72.451041666666683</v>
+        <v>72.45104166666668</v>
       </c>
       <c r="D132">
         <v>101.3623833333334</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="133">
       <c r="A133" s="2">
         <v>41051</v>
       </c>
       <c r="B133">
-        <v>20.362083333333331</v>
+        <v>20.36208333333333</v>
       </c>
       <c r="C133">
-        <v>75.260208333333352</v>
+        <v>75.26020833333335</v>
       </c>
       <c r="D133">
-        <v>101.22171458333329</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101.2217145833333</v>
+      </c>
+    </row>
+    <row r="134">
       <c r="A134" s="2">
         <v>41052</v>
       </c>
       <c r="B134">
-        <v>20.751249999999999</v>
+        <v>20.75125</v>
       </c>
       <c r="C134">
-        <v>82.108124999999987</v>
+        <v>82.10812499999999</v>
       </c>
       <c r="D134">
         <v>100.9974375</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="135">
       <c r="A135" s="2">
         <v>41053</v>
       </c>
@@ -2324,13 +2256,13 @@
         <v>19.34</v>
       </c>
       <c r="C135">
-        <v>90.293749999999989</v>
+        <v>90.29374999999999</v>
       </c>
       <c r="D135">
         <v>100.8512958333333</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="136">
       <c r="A136" s="2">
         <v>41054</v>
       </c>
@@ -2338,27 +2270,27 @@
         <v>20.491875</v>
       </c>
       <c r="C136">
-        <v>82.516458333333347</v>
+        <v>82.51645833333335</v>
       </c>
       <c r="D136">
         <v>101.0144375</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="137">
       <c r="A137" s="2">
         <v>41055</v>
       </c>
       <c r="B137">
-        <v>21.206250000000001</v>
+        <v>21.20625</v>
       </c>
       <c r="C137">
-        <v>72.669583333333335</v>
+        <v>72.66958333333334</v>
       </c>
       <c r="D137">
         <v>101.0277</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="138">
       <c r="A138" s="2">
         <v>41056</v>
       </c>
@@ -2366,69 +2298,69 @@
         <v>22.35916666666667</v>
       </c>
       <c r="C138">
-        <v>64.748541666666668</v>
+        <v>64.74854166666667</v>
       </c>
       <c r="D138">
-        <v>101.10272291666671</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101.1027229166667</v>
+      </c>
+    </row>
+    <row r="139">
       <c r="A139" s="2">
         <v>41057</v>
       </c>
       <c r="B139">
-        <v>22.826041666666669</v>
+        <v>22.82604166666667</v>
       </c>
       <c r="C139">
-        <v>64.582083333333344</v>
+        <v>64.58208333333334</v>
       </c>
       <c r="D139">
         <v>101.3342958333333</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="140">
       <c r="A140" s="2">
         <v>41058</v>
       </c>
       <c r="B140">
-        <v>22.772083333333331</v>
+        <v>22.77208333333333</v>
       </c>
       <c r="C140">
-        <v>73.071041666666659</v>
+        <v>73.07104166666666</v>
       </c>
       <c r="D140">
         <v>101.2683895833333</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="141">
       <c r="A141" s="2">
         <v>41059</v>
       </c>
       <c r="B141">
-        <v>19.782499999999999</v>
+        <v>19.7825</v>
       </c>
       <c r="C141">
-        <v>88.602083333333326</v>
+        <v>88.60208333333333</v>
       </c>
       <c r="D141">
         <v>101.1269291666666</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="142">
       <c r="A142" s="2">
         <v>41060</v>
       </c>
       <c r="B142">
-        <v>21.107500000000002</v>
+        <v>21.1075</v>
       </c>
       <c r="C142">
-        <v>74.688333333333347</v>
+        <v>74.68833333333335</v>
       </c>
       <c r="D142">
         <v>101.4760395833334</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="143">
       <c r="A143" s="2">
         <v>41061</v>
       </c>
@@ -2436,55 +2368,55 @@
         <v>20.95666666666666</v>
       </c>
       <c r="C143">
-        <v>78.442708333333343</v>
+        <v>78.44270833333334</v>
       </c>
       <c r="D143">
-        <v>101.27900833333329</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101.2790083333333</v>
+      </c>
+    </row>
+    <row r="144">
       <c r="A144" s="2">
         <v>41062</v>
       </c>
       <c r="B144">
-        <v>21.540624999999999</v>
+        <v>21.540625</v>
       </c>
       <c r="C144">
-        <v>75.369583333333338</v>
+        <v>75.36958333333334</v>
       </c>
       <c r="D144">
-        <v>101.08925000000001</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101.08925</v>
+      </c>
+    </row>
+    <row r="145">
       <c r="A145" s="2">
         <v>41063</v>
       </c>
       <c r="B145">
-        <v>21.748333333333331</v>
+        <v>21.74833333333333</v>
       </c>
       <c r="C145">
-        <v>75.765000000000001</v>
+        <v>75.765</v>
       </c>
       <c r="D145">
         <v>100.8977458333334</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="146">
       <c r="A146" s="2">
         <v>41064</v>
       </c>
       <c r="B146">
-        <v>22.576458333333331</v>
+        <v>22.57645833333333</v>
       </c>
       <c r="C146">
         <v>81.56645833333333</v>
       </c>
       <c r="D146">
-        <v>100.61869375000001</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.61869375</v>
+      </c>
+    </row>
+    <row r="147">
       <c r="A147" s="2">
         <v>41065</v>
       </c>
@@ -2492,13 +2424,13 @@
         <v>23.706875</v>
       </c>
       <c r="C147">
-        <v>79.113124999999982</v>
+        <v>79.11312499999998</v>
       </c>
       <c r="D147">
         <v>100.5249541666667</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="148">
       <c r="A148" s="2">
         <v>41066</v>
       </c>
@@ -2506,55 +2438,55 @@
         <v>22.89041666666667</v>
       </c>
       <c r="C148">
-        <v>84.701666666666668</v>
+        <v>84.70166666666667</v>
       </c>
       <c r="D148">
         <v>100.29609375</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="149">
       <c r="A149" s="2">
         <v>41067</v>
       </c>
       <c r="B149">
-        <v>25.022083333333342</v>
+        <v>25.02208333333334</v>
       </c>
       <c r="C149">
-        <v>84.832916666666648</v>
+        <v>84.83291666666665</v>
       </c>
       <c r="D149">
         <v>100.0682835416667</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="150">
       <c r="A150" s="2">
         <v>41068</v>
       </c>
       <c r="B150">
-        <v>27.503125000000001</v>
+        <v>27.503125</v>
       </c>
       <c r="C150">
-        <v>79.228541666666658</v>
+        <v>79.22854166666666</v>
       </c>
       <c r="D150">
-        <v>100.05604416666669</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.0560441666667</v>
+      </c>
+    </row>
+    <row r="151">
       <c r="A151" s="2">
         <v>41069</v>
       </c>
       <c r="B151">
-        <v>28.380833333333332</v>
+        <v>28.38083333333333</v>
       </c>
       <c r="C151">
-        <v>78.053333333333327</v>
+        <v>78.05333333333333</v>
       </c>
       <c r="D151">
-        <v>99.899642916666721</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+        <v>99.89964291666672</v>
+      </c>
+    </row>
+    <row r="152">
       <c r="A152" s="2">
         <v>41070</v>
       </c>
@@ -2562,27 +2494,27 @@
         <v>27.37895833333333</v>
       </c>
       <c r="C152">
-        <v>85.008958333333339</v>
+        <v>85.00895833333334</v>
       </c>
       <c r="D152">
-        <v>99.735872083333334</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+        <v>99.73587208333333</v>
+      </c>
+    </row>
+    <row r="153">
       <c r="A153" s="2">
         <v>41071</v>
       </c>
       <c r="B153">
-        <v>25.897500000000001</v>
+        <v>25.8975</v>
       </c>
       <c r="C153">
-        <v>84.854791666666671</v>
+        <v>84.85479166666667</v>
       </c>
       <c r="D153">
-        <v>99.730882291666703</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+        <v>99.7308822916667</v>
+      </c>
+    </row>
+    <row r="154">
       <c r="A154" s="2">
         <v>41072</v>
       </c>
@@ -2590,13 +2522,13 @@
         <v>26.42270833333334</v>
       </c>
       <c r="C154">
-        <v>76.728125000000006</v>
+        <v>76.72812500000001</v>
       </c>
       <c r="D154">
-        <v>99.886050000000012</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+        <v>99.88605000000001</v>
+      </c>
+    </row>
+    <row r="155">
       <c r="A155" s="2">
         <v>41073</v>
       </c>
@@ -2604,69 +2536,69 @@
         <v>26.05854166666667</v>
       </c>
       <c r="C155">
-        <v>74.154999999999987</v>
+        <v>74.15499999999999</v>
       </c>
       <c r="D155">
         <v>100.2002</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="156">
       <c r="A156" s="2">
         <v>41074</v>
       </c>
       <c r="B156">
-        <v>25.197083333333339</v>
+        <v>25.19708333333334</v>
       </c>
       <c r="C156">
-        <v>79.118958333333325</v>
+        <v>79.11895833333332</v>
       </c>
       <c r="D156">
-        <v>100.33992291666669</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.3399229166667</v>
+      </c>
+    </row>
+    <row r="157">
       <c r="A157" s="2">
         <v>41075</v>
       </c>
       <c r="B157">
-        <v>26.043958333333329</v>
+        <v>26.04395833333333</v>
       </c>
       <c r="C157">
-        <v>77.187916666666652</v>
+        <v>77.18791666666665</v>
       </c>
       <c r="D157">
-        <v>100.30183125000001</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.30183125</v>
+      </c>
+    </row>
+    <row r="158">
       <c r="A158" s="2">
         <v>41076</v>
       </c>
       <c r="B158">
-        <v>24.767083333333328</v>
+        <v>24.76708333333333</v>
       </c>
       <c r="C158">
-        <v>75.800208333333359</v>
+        <v>75.80020833333336</v>
       </c>
       <c r="D158">
         <v>100.6127625</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="159">
       <c r="A159" s="2">
         <v>41077</v>
       </c>
       <c r="B159">
-        <v>23.036041666666659</v>
+        <v>23.03604166666666</v>
       </c>
       <c r="C159">
-        <v>87.887500000000003</v>
+        <v>87.8875</v>
       </c>
       <c r="D159">
         <v>100.7257625</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="160">
       <c r="A160" s="2">
         <v>41078</v>
       </c>
@@ -2674,13 +2606,13 @@
         <v>23.17229166666667</v>
       </c>
       <c r="C160">
-        <v>90.460416666666674</v>
+        <v>90.46041666666667</v>
       </c>
       <c r="D160">
-        <v>100.22528333333329</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.2252833333333</v>
+      </c>
+    </row>
+    <row r="161">
       <c r="A161" s="2">
         <v>41079</v>
       </c>
@@ -2688,13 +2620,13 @@
         <v>23.480625</v>
       </c>
       <c r="C161">
-        <v>84.548749999999984</v>
+        <v>84.54874999999998</v>
       </c>
       <c r="D161">
-        <v>99.989581458333348</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+        <v>99.98958145833335</v>
+      </c>
+    </row>
+    <row r="162">
       <c r="A162" s="2">
         <v>41080</v>
       </c>
@@ -2702,41 +2634,41 @@
         <v>23.785625</v>
       </c>
       <c r="C162">
-        <v>80.472291666666678</v>
+        <v>80.47229166666668</v>
       </c>
       <c r="D162">
         <v>100.205575</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="163">
       <c r="A163" s="2">
         <v>41081</v>
       </c>
       <c r="B163">
-        <v>25.069583333333341</v>
+        <v>25.06958333333334</v>
       </c>
       <c r="C163">
-        <v>75.502499999999998</v>
+        <v>75.5025</v>
       </c>
       <c r="D163">
         <v>100.45868125</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="164">
       <c r="A164" s="2">
         <v>41082</v>
       </c>
       <c r="B164">
-        <v>23.705625000000001</v>
+        <v>23.705625</v>
       </c>
       <c r="C164">
-        <v>87.354166666666643</v>
+        <v>87.35416666666664</v>
       </c>
       <c r="D164">
-        <v>100.52187708333329</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.5218770833333</v>
+      </c>
+    </row>
+    <row r="165">
       <c r="A165" s="2">
         <v>41083</v>
       </c>
@@ -2744,18 +2676,18 @@
         <v>22.32326086956521</v>
       </c>
       <c r="C165">
-        <v>91.634782608695673</v>
+        <v>91.63478260869567</v>
       </c>
       <c r="D165">
         <v>100.1582217391305</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="166">
       <c r="A166" s="2">
         <v>41084</v>
       </c>
       <c r="B166">
-        <v>24.141666666666669</v>
+        <v>24.14166666666667</v>
       </c>
       <c r="C166">
         <v>82.37895833333333</v>
@@ -2764,35 +2696,35 @@
         <v>100.1640708333333</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="167">
       <c r="A167" s="2">
         <v>41085</v>
       </c>
       <c r="B167">
-        <v>26.641041666666659</v>
+        <v>26.64104166666666</v>
       </c>
       <c r="C167">
-        <v>81.677708333333342</v>
+        <v>81.67770833333334</v>
       </c>
       <c r="D167">
-        <v>100.15401249999999</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.1540125</v>
+      </c>
+    </row>
+    <row r="168">
       <c r="A168" s="2">
         <v>41086</v>
       </c>
       <c r="B168">
-        <v>24.275531914893609</v>
+        <v>24.27553191489361</v>
       </c>
       <c r="C168">
-        <v>93.270212765957467</v>
+        <v>93.27021276595747</v>
       </c>
       <c r="D168">
-        <v>100.24821063829791</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.2482106382979</v>
+      </c>
+    </row>
+    <row r="169">
       <c r="A169" s="2">
         <v>41087</v>
       </c>
@@ -2800,27 +2732,27 @@
         <v>24</v>
       </c>
       <c r="C169">
-        <v>90.975000000000023</v>
+        <v>90.97500000000002</v>
       </c>
       <c r="D169">
         <v>100.5532270833333</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="170">
       <c r="A170" s="2">
         <v>41088</v>
       </c>
       <c r="B170">
-        <v>25.618958333333332</v>
+        <v>25.61895833333333</v>
       </c>
       <c r="C170">
-        <v>90.256250000000023</v>
+        <v>90.25625000000002</v>
       </c>
       <c r="D170">
-        <v>100.62695416666671</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.6269541666667</v>
+      </c>
+    </row>
+    <row r="171">
       <c r="A171" s="2">
         <v>41089</v>
       </c>
@@ -2828,41 +2760,41 @@
         <v>28.86624999999999</v>
       </c>
       <c r="C171">
-        <v>79.968749999999986</v>
+        <v>79.96874999999999</v>
       </c>
       <c r="D171">
         <v>100.2815916666667</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="172">
       <c r="A172" s="2">
         <v>41090</v>
       </c>
       <c r="B172">
-        <v>29.529791666666661</v>
+        <v>29.52979166666666</v>
       </c>
       <c r="C172">
-        <v>78.258333333333312</v>
+        <v>78.25833333333331</v>
       </c>
       <c r="D172">
         <v>100.2988104166667</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="173">
       <c r="A173" s="2">
         <v>41091</v>
       </c>
       <c r="B173">
-        <v>29.783541666666661</v>
+        <v>29.78354166666666</v>
       </c>
       <c r="C173">
-        <v>78.222708333333301</v>
+        <v>78.2227083333333</v>
       </c>
       <c r="D173">
-        <v>100.47505833333329</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.4750583333333</v>
+      </c>
+    </row>
+    <row r="174">
       <c r="A174" s="2">
         <v>41092</v>
       </c>
@@ -2870,27 +2802,27 @@
         <v>31.116875</v>
       </c>
       <c r="C174">
-        <v>71.842708333333306</v>
+        <v>71.84270833333331</v>
       </c>
       <c r="D174">
-        <v>100.20250875000001</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.20250875</v>
+      </c>
+    </row>
+    <row r="175">
       <c r="A175" s="2">
         <v>41093</v>
       </c>
       <c r="B175">
-        <v>29.235833333333339</v>
+        <v>29.23583333333334</v>
       </c>
       <c r="C175">
-        <v>74.718958333333333</v>
+        <v>74.71895833333333</v>
       </c>
       <c r="D175">
-        <v>100.02056374999999</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.02056375</v>
+      </c>
+    </row>
+    <row r="176">
       <c r="A176" s="2">
         <v>41094</v>
       </c>
@@ -2898,111 +2830,111 @@
         <v>30.5</v>
       </c>
       <c r="C176">
-        <v>75.251458333333304</v>
+        <v>75.2514583333333</v>
       </c>
       <c r="D176">
         <v>100.0843597916667</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="177">
       <c r="A177" s="2">
         <v>41095</v>
       </c>
       <c r="B177">
-        <v>32.611666666666657</v>
+        <v>32.61166666666666</v>
       </c>
       <c r="C177">
-        <v>70.295208333333349</v>
+        <v>70.29520833333335</v>
       </c>
       <c r="D177">
-        <v>100.14523541666669</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.1452354166667</v>
+      </c>
+    </row>
+    <row r="178">
       <c r="A178" s="2">
         <v>41096</v>
       </c>
       <c r="B178">
-        <v>31.027083333333341</v>
+        <v>31.02708333333334</v>
       </c>
       <c r="C178">
-        <v>72.724374999999995</v>
+        <v>72.72437499999999</v>
       </c>
       <c r="D178">
         <v>100.1527689583333</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="179">
       <c r="A179" s="2">
         <v>41097</v>
       </c>
       <c r="B179">
-        <v>28.681666666666661</v>
+        <v>28.68166666666666</v>
       </c>
       <c r="C179">
-        <v>81.916458333333352</v>
+        <v>81.91645833333335</v>
       </c>
       <c r="D179">
         <v>100.2169479166667</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="180">
       <c r="A180" s="2">
         <v>41098</v>
       </c>
       <c r="B180">
-        <v>28.170208333333331</v>
+        <v>28.17020833333333</v>
       </c>
       <c r="C180">
-        <v>84.400208333333339</v>
+        <v>84.40020833333334</v>
       </c>
       <c r="D180">
         <v>100.1985458333333</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="181">
       <c r="A181" s="2">
         <v>41099</v>
       </c>
       <c r="B181">
-        <v>30.623541666666679</v>
+        <v>30.62354166666668</v>
       </c>
       <c r="C181">
-        <v>78.949374999999989</v>
+        <v>78.94937499999999</v>
       </c>
       <c r="D181">
-        <v>100.12833437499999</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.128334375</v>
+      </c>
+    </row>
+    <row r="182">
       <c r="A182" s="2">
         <v>41100</v>
       </c>
       <c r="B182">
-        <v>32.079166666666659</v>
+        <v>32.07916666666666</v>
       </c>
       <c r="C182">
-        <v>73.224374999999995</v>
+        <v>73.22437499999999</v>
       </c>
       <c r="D182">
-        <v>99.835346249999972</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+        <v>99.83534624999997</v>
+      </c>
+    </row>
+    <row r="183">
       <c r="A183" s="2">
         <v>41101</v>
       </c>
       <c r="B183">
-        <v>30.153749999999999</v>
+        <v>30.15375</v>
       </c>
       <c r="C183">
-        <v>80.733958333333348</v>
+        <v>80.73395833333335</v>
       </c>
       <c r="D183">
-        <v>99.787638333333348</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+        <v>99.78763833333335</v>
+      </c>
+    </row>
+    <row r="184">
       <c r="A184" s="2">
         <v>41102</v>
       </c>
@@ -3010,27 +2942,27 @@
         <v>29.94041666666666</v>
       </c>
       <c r="C184">
-        <v>79.757499999999979</v>
+        <v>79.75749999999998</v>
       </c>
       <c r="D184">
-        <v>99.904283124999992</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+        <v>99.90428312499999</v>
+      </c>
+    </row>
+    <row r="185">
       <c r="A185" s="2">
         <v>41103</v>
       </c>
       <c r="B185">
-        <v>27.557500000000001</v>
+        <v>27.5575</v>
       </c>
       <c r="C185">
-        <v>83.553124999999966</v>
+        <v>83.55312499999997</v>
       </c>
       <c r="D185">
-        <v>99.968932291666633</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+        <v>99.96893229166663</v>
+      </c>
+    </row>
+    <row r="186">
       <c r="A186" s="2">
         <v>41104</v>
       </c>
@@ -3038,13 +2970,13 @@
         <v>26.19062499999999</v>
       </c>
       <c r="C186">
-        <v>87.841666666666697</v>
+        <v>87.8416666666667</v>
       </c>
       <c r="D186">
-        <v>99.834439999999972</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+        <v>99.83443999999997</v>
+      </c>
+    </row>
+    <row r="187">
       <c r="A187" s="2">
         <v>41105</v>
       </c>
@@ -3052,60 +2984,60 @@
         <v>25.72229166666666</v>
       </c>
       <c r="C187">
-        <v>77.674583333333331</v>
+        <v>77.67458333333333</v>
       </c>
       <c r="D187">
-        <v>100.34921249999999</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.3492125</v>
+      </c>
+    </row>
+    <row r="188">
       <c r="A188" s="2">
         <v>41106</v>
       </c>
       <c r="B188">
-        <v>26.919791666666669</v>
+        <v>26.91979166666667</v>
       </c>
       <c r="C188">
-        <v>79.690208333333317</v>
+        <v>79.69020833333332</v>
       </c>
       <c r="D188">
         <v>100.57944375</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="189">
       <c r="A189" s="2">
         <v>41107</v>
       </c>
       <c r="B189">
-        <v>26.021458333333339</v>
+        <v>26.02145833333334</v>
       </c>
       <c r="C189">
-        <v>84.035624999999996</v>
+        <v>84.035625</v>
       </c>
       <c r="D189">
         <v>100.5393416666667</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="190">
       <c r="A190" s="2">
         <v>41108</v>
       </c>
       <c r="B190">
-        <v>27.058749999999989</v>
+        <v>27.05874999999999</v>
       </c>
       <c r="C190">
-        <v>78.227708333333339</v>
+        <v>78.22770833333334</v>
       </c>
       <c r="D190">
         <v>100.45033125</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="191">
       <c r="A191" s="2">
         <v>41109</v>
       </c>
       <c r="B191">
-        <v>29.369166666666661</v>
+        <v>29.36916666666666</v>
       </c>
       <c r="C191">
         <v>69.41791666666667</v>
@@ -3114,7 +3046,7 @@
         <v>100.577975</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="192">
       <c r="A192" s="2">
         <v>41110</v>
       </c>
@@ -3122,27 +3054,27 @@
         <v>28.70333333333333</v>
       </c>
       <c r="C192">
-        <v>81.159374999999997</v>
+        <v>81.159375</v>
       </c>
       <c r="D192">
         <v>100.5306208333333</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="193">
       <c r="A193" s="2">
         <v>41111</v>
       </c>
       <c r="B193">
-        <v>30.146041666666669</v>
+        <v>30.14604166666667</v>
       </c>
       <c r="C193">
-        <v>78.714999999999989</v>
+        <v>78.71499999999999</v>
       </c>
       <c r="D193">
-        <v>100.39292500000001</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.392925</v>
+      </c>
+    </row>
+    <row r="194">
       <c r="A194" s="2">
         <v>41112</v>
       </c>
@@ -3150,27 +3082,27 @@
         <v>30.7</v>
       </c>
       <c r="C194">
-        <v>73.452708333333348</v>
+        <v>73.45270833333335</v>
       </c>
       <c r="D194">
-        <v>100.22398124999999</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.22398125</v>
+      </c>
+    </row>
+    <row r="195">
       <c r="A195" s="2">
         <v>41113</v>
       </c>
       <c r="B195">
-        <v>30.278541666666669</v>
+        <v>30.27854166666667</v>
       </c>
       <c r="C195">
         <v>74.33541666666666</v>
       </c>
       <c r="D195">
-        <v>100.38527499999999</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.385275</v>
+      </c>
+    </row>
+    <row r="196">
       <c r="A196" s="2">
         <v>41114</v>
       </c>
@@ -3178,41 +3110,41 @@
         <v>29.94520833333333</v>
       </c>
       <c r="C196">
-        <v>75.392916666666693</v>
+        <v>75.39291666666669</v>
       </c>
       <c r="D196">
         <v>100.730225</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="197">
       <c r="A197" s="2">
         <v>41115</v>
       </c>
       <c r="B197">
-        <v>29.548541666666669</v>
+        <v>29.54854166666667</v>
       </c>
       <c r="C197">
-        <v>72.221458333333345</v>
+        <v>72.22145833333335</v>
       </c>
       <c r="D197">
         <v>100.8740895833333</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="198">
       <c r="A198" s="2">
         <v>41116</v>
       </c>
       <c r="B198">
-        <v>29.725208333333342</v>
+        <v>29.72520833333334</v>
       </c>
       <c r="C198">
-        <v>73.004375000000024</v>
+        <v>73.00437500000002</v>
       </c>
       <c r="D198">
         <v>100.6346354166667</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="199">
       <c r="A199" s="2">
         <v>41117</v>
       </c>
@@ -3220,27 +3152,27 @@
         <v>30.183125</v>
       </c>
       <c r="C199">
-        <v>75.066666666666663</v>
+        <v>75.06666666666666</v>
       </c>
       <c r="D199">
         <v>100.5371458333333</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="200">
       <c r="A200" s="2">
         <v>41118</v>
       </c>
       <c r="B200">
-        <v>30.568541666666661</v>
+        <v>30.56854166666666</v>
       </c>
       <c r="C200">
-        <v>74.245416666666671</v>
+        <v>74.24541666666667</v>
       </c>
       <c r="D200">
         <v>100.558375</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="201">
       <c r="A201" s="2">
         <v>41119</v>
       </c>
@@ -3248,13 +3180,13 @@
         <v>30.859375</v>
       </c>
       <c r="C201">
-        <v>69.883125000000007</v>
+        <v>69.88312500000001</v>
       </c>
       <c r="D201">
         <v>100.3306291666667</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="202">
       <c r="A202" s="2">
         <v>41120</v>
       </c>
@@ -3262,27 +3194,27 @@
         <v>30.4</v>
       </c>
       <c r="C202">
-        <v>69.775416666666658</v>
+        <v>69.77541666666666</v>
       </c>
       <c r="D202">
         <v>100.1817958333334</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="203">
       <c r="A203" s="2">
         <v>41121</v>
       </c>
       <c r="B203">
-        <v>29.977499999999999</v>
+        <v>29.9775</v>
       </c>
       <c r="C203">
-        <v>72.798333333333332</v>
+        <v>72.79833333333333</v>
       </c>
       <c r="D203">
         <v>100.2055125</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="204">
       <c r="A204" s="2">
         <v>41122</v>
       </c>
@@ -3290,27 +3222,27 @@
         <v>29.83229166666667</v>
       </c>
       <c r="C204">
-        <v>69.449791666666655</v>
+        <v>69.44979166666666</v>
       </c>
       <c r="D204">
         <v>100.1846708333334</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="205">
       <c r="A205" s="2">
         <v>41123</v>
       </c>
       <c r="B205">
-        <v>28.798333333333328</v>
+        <v>28.79833333333333</v>
       </c>
       <c r="C205">
-        <v>78.106875000000002</v>
+        <v>78.106875</v>
       </c>
       <c r="D205">
-        <v>99.949087708333309</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
+        <v>99.94908770833331</v>
+      </c>
+    </row>
+    <row r="206">
       <c r="A206" s="2">
         <v>41124</v>
       </c>
@@ -3318,27 +3250,27 @@
         <v>28.73708333333332</v>
       </c>
       <c r="C206">
-        <v>82.564583333333346</v>
+        <v>82.56458333333335</v>
       </c>
       <c r="D206">
-        <v>99.826110208333361</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
+        <v>99.82611020833336</v>
+      </c>
+    </row>
+    <row r="207">
       <c r="A207" s="2">
         <v>41125</v>
       </c>
       <c r="B207">
-        <v>28.988749999999989</v>
+        <v>28.98874999999999</v>
       </c>
       <c r="C207">
-        <v>79.165624999999963</v>
+        <v>79.16562499999996</v>
       </c>
       <c r="D207">
         <v>100.1624777083334</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="208">
       <c r="A208" s="2">
         <v>41126</v>
       </c>
@@ -3346,41 +3278,41 @@
         <v>28.98520833333334</v>
       </c>
       <c r="C208">
-        <v>75.546250000000001</v>
+        <v>75.54625</v>
       </c>
       <c r="D208">
         <v>100.4157229166667</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="209">
       <c r="A209" s="2">
         <v>41127</v>
       </c>
       <c r="B209">
-        <v>28.651458333333341</v>
+        <v>28.65145833333334</v>
       </c>
       <c r="C209">
-        <v>78.269166666666663</v>
+        <v>78.26916666666666</v>
       </c>
       <c r="D209">
         <v>100.3341708333334</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="210">
       <c r="A210" s="2">
         <v>41128</v>
       </c>
       <c r="B210">
-        <v>28.496249999999989</v>
+        <v>28.49624999999999</v>
       </c>
       <c r="C210">
-        <v>78.475625000000008</v>
+        <v>78.47562500000001</v>
       </c>
       <c r="D210">
-        <v>100.19938437499999</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.199384375</v>
+      </c>
+    </row>
+    <row r="211">
       <c r="A211" s="2">
         <v>41129</v>
       </c>
@@ -3388,83 +3320,83 @@
         <v>26.41062500000001</v>
       </c>
       <c r="C211">
-        <v>90.549166666666636</v>
+        <v>90.54916666666664</v>
       </c>
       <c r="D211">
-        <v>99.154211041666656</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
+        <v>99.15421104166666</v>
+      </c>
+    </row>
+    <row r="212">
       <c r="A212" s="2">
         <v>41130</v>
       </c>
       <c r="B212">
-        <v>28.322708333333331</v>
+        <v>28.32270833333333</v>
       </c>
       <c r="C212">
-        <v>84.496041666666628</v>
+        <v>84.49604166666663</v>
       </c>
       <c r="D212">
-        <v>99.501526041666679</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
+        <v>99.50152604166668</v>
+      </c>
+    </row>
+    <row r="213">
       <c r="A213" s="2">
         <v>41131</v>
       </c>
       <c r="B213">
-        <v>28.230000000000011</v>
+        <v>28.23000000000001</v>
       </c>
       <c r="C213">
-        <v>84.667083333333366</v>
+        <v>84.66708333333337</v>
       </c>
       <c r="D213">
-        <v>99.779662291666682</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
+        <v>99.77966229166668</v>
+      </c>
+    </row>
+    <row r="214">
       <c r="A214" s="2">
         <v>41132</v>
       </c>
       <c r="B214">
-        <v>28.607500000000002</v>
+        <v>28.6075</v>
       </c>
       <c r="C214">
-        <v>81.827500000000029</v>
+        <v>81.82750000000003</v>
       </c>
       <c r="D214">
-        <v>99.980643125000014</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+        <v>99.98064312500001</v>
+      </c>
+    </row>
+    <row r="215">
       <c r="A215" s="2">
         <v>41133</v>
       </c>
       <c r="B215">
-        <v>30.104166666666661</v>
+        <v>30.10416666666666</v>
       </c>
       <c r="C215">
-        <v>75.487500000000026</v>
+        <v>75.48750000000003</v>
       </c>
       <c r="D215">
-        <v>100.00659437500001</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.006594375</v>
+      </c>
+    </row>
+    <row r="216">
       <c r="A216" s="2">
         <v>41134</v>
       </c>
       <c r="B216">
-        <v>30.623750000000001</v>
+        <v>30.62375</v>
       </c>
       <c r="C216">
-        <v>77.469583333333318</v>
+        <v>77.46958333333332</v>
       </c>
       <c r="D216">
-        <v>100.11761312500001</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.117613125</v>
+      </c>
+    </row>
+    <row r="217">
       <c r="A217" s="2">
         <v>41135</v>
       </c>
@@ -3472,13 +3404,13 @@
         <v>31.276875</v>
       </c>
       <c r="C217">
-        <v>79.194583333333327</v>
+        <v>79.19458333333333</v>
       </c>
       <c r="D217">
         <v>100.2998270833333</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="218">
       <c r="A218" s="2">
         <v>41136</v>
       </c>
@@ -3486,27 +3418,27 @@
         <v>30.56645833333334</v>
       </c>
       <c r="C218">
-        <v>79.972708333333316</v>
+        <v>79.97270833333332</v>
       </c>
       <c r="D218">
         <v>100.4354791666667</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="219">
       <c r="A219" s="2">
         <v>41137</v>
       </c>
       <c r="B219">
-        <v>30.498750000000008</v>
+        <v>30.49875000000001</v>
       </c>
       <c r="C219">
-        <v>77.511041666666642</v>
+        <v>77.51104166666664</v>
       </c>
       <c r="D219">
         <v>100.644475</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="220">
       <c r="A220" s="2">
         <v>41138</v>
       </c>
@@ -3514,13 +3446,13 @@
         <v>30.35062499999999</v>
       </c>
       <c r="C220">
-        <v>77.759791666666686</v>
+        <v>77.75979166666669</v>
       </c>
       <c r="D220">
         <v>100.6748770833333</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="221">
       <c r="A221" s="2">
         <v>41139</v>
       </c>
@@ -3528,27 +3460,27 @@
         <v>30.80166666666668</v>
       </c>
       <c r="C221">
-        <v>75.645208333333329</v>
+        <v>75.64520833333333</v>
       </c>
       <c r="D221">
         <v>100.6442</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="222">
       <c r="A222" s="2">
         <v>41140</v>
       </c>
       <c r="B222">
-        <v>30.547916666666659</v>
+        <v>30.54791666666666</v>
       </c>
       <c r="C222">
-        <v>76.036249999999981</v>
+        <v>76.03624999999998</v>
       </c>
       <c r="D222">
-        <v>100.51983958333339</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.5198395833334</v>
+      </c>
+    </row>
+    <row r="223">
       <c r="A223" s="2">
         <v>41141</v>
       </c>
@@ -3556,83 +3488,83 @@
         <v>29.68375</v>
       </c>
       <c r="C223">
-        <v>76.491041666666675</v>
+        <v>76.49104166666667</v>
       </c>
       <c r="D223">
         <v>100.43205</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="224">
       <c r="A224" s="2">
         <v>41142</v>
       </c>
       <c r="B224">
-        <v>29.075833333333339</v>
+        <v>29.07583333333334</v>
       </c>
       <c r="C224">
-        <v>78.933333333333337</v>
+        <v>78.93333333333334</v>
       </c>
       <c r="D224">
-        <v>100.46736875000001</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.46736875</v>
+      </c>
+    </row>
+    <row r="225">
       <c r="A225" s="2">
         <v>41143</v>
       </c>
       <c r="B225">
-        <v>24.405625000000001</v>
+        <v>24.405625</v>
       </c>
       <c r="C225">
-        <v>84.489583333333329</v>
+        <v>84.48958333333333</v>
       </c>
       <c r="D225">
         <v>100.94155625</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="226">
       <c r="A226" s="2">
         <v>41144</v>
       </c>
       <c r="B226">
-        <v>23.703749999999999</v>
+        <v>23.70375</v>
       </c>
       <c r="C226">
-        <v>78.199583333333337</v>
+        <v>78.19958333333334</v>
       </c>
       <c r="D226">
         <v>101.0675270833333</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="227">
       <c r="A227" s="2">
         <v>41145</v>
       </c>
       <c r="B227">
-        <v>25.339166666666671</v>
+        <v>25.33916666666667</v>
       </c>
       <c r="C227">
-        <v>84.209583333333299</v>
+        <v>84.2095833333333</v>
       </c>
       <c r="D227">
-        <v>100.99935208333331</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.9993520833333</v>
+      </c>
+    </row>
+    <row r="228">
       <c r="A228" s="2">
         <v>41146</v>
       </c>
       <c r="B228">
-        <v>26.162500000000001</v>
+        <v>26.1625</v>
       </c>
       <c r="C228">
         <v>90.06874999999998</v>
       </c>
       <c r="D228">
-        <v>100.97013541666669</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.9701354166667</v>
+      </c>
+    </row>
+    <row r="229">
       <c r="A229" s="2">
         <v>41147</v>
       </c>
@@ -3640,13 +3572,13 @@
         <v>27.88229166666666</v>
       </c>
       <c r="C229">
-        <v>79.321458333333325</v>
+        <v>79.32145833333333</v>
       </c>
       <c r="D229">
         <v>100.65309375</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="230">
       <c r="A230" s="2">
         <v>41148</v>
       </c>
@@ -3654,41 +3586,41 @@
         <v>27.88645833333333</v>
       </c>
       <c r="C230">
-        <v>79.249999999999972</v>
+        <v>79.24999999999997</v>
       </c>
       <c r="D230">
-        <v>100.08087083333329</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.0808708333333</v>
+      </c>
+    </row>
+    <row r="231">
       <c r="A231" s="2">
         <v>41149</v>
       </c>
       <c r="B231">
-        <v>26.393541666666671</v>
+        <v>26.39354166666667</v>
       </c>
       <c r="C231">
-        <v>82.871875000000003</v>
+        <v>82.871875</v>
       </c>
       <c r="D231">
-        <v>100.16814125000001</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.16814125</v>
+      </c>
+    </row>
+    <row r="232">
       <c r="A232" s="2">
         <v>41150</v>
       </c>
       <c r="B232">
-        <v>27.705208333333331</v>
+        <v>27.70520833333333</v>
       </c>
       <c r="C232">
-        <v>79.004791666666677</v>
+        <v>79.00479166666668</v>
       </c>
       <c r="D232">
-        <v>100.59349374999999</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
+        <v>100.59349375</v>
+      </c>
+    </row>
+    <row r="233">
       <c r="A233" s="2">
         <v>41151</v>
       </c>
@@ -3696,111 +3628,111 @@
         <v>28.23833333333333</v>
       </c>
       <c r="C233">
-        <v>77.441874999999982</v>
+        <v>77.44187499999998</v>
       </c>
       <c r="D233">
         <v>100.794775</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="234">
       <c r="A234" s="2">
         <v>41152</v>
       </c>
       <c r="B234">
-        <v>27.320208333333341</v>
+        <v>27.32020833333334</v>
       </c>
       <c r="C234">
-        <v>76.427083333333343</v>
+        <v>76.42708333333334</v>
       </c>
       <c r="D234">
         <v>101.02519375</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="235">
       <c r="A235" s="2">
         <v>41153</v>
       </c>
       <c r="B235">
-        <v>26.381041666666661</v>
+        <v>26.38104166666666</v>
       </c>
       <c r="C235">
-        <v>73.779791666666668</v>
+        <v>73.77979166666667</v>
       </c>
       <c r="D235">
         <v>101.0558625</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="236">
       <c r="A236" s="2">
         <v>41154</v>
       </c>
       <c r="B236">
-        <v>26.636041666666671</v>
+        <v>26.63604166666667</v>
       </c>
       <c r="C236">
-        <v>77.458333333333357</v>
+        <v>77.45833333333336</v>
       </c>
       <c r="D236">
         <v>100.8098270833333</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="237">
       <c r="A237" s="2">
         <v>41155</v>
       </c>
       <c r="B237">
-        <v>25.450208333333329</v>
+        <v>25.45020833333333</v>
       </c>
       <c r="C237">
-        <v>84.031041666666667</v>
+        <v>84.03104166666667</v>
       </c>
       <c r="D237">
         <v>100.8209875</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="238">
       <c r="A238" s="2">
         <v>41156</v>
       </c>
       <c r="B238">
-        <v>23.335208333333341</v>
+        <v>23.33520833333334</v>
       </c>
       <c r="C238">
-        <v>82.481666666666669</v>
+        <v>82.48166666666667</v>
       </c>
       <c r="D238">
         <v>101.3645104166667</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="239">
       <c r="A239" s="2">
         <v>41157</v>
       </c>
       <c r="B239">
-        <v>24.289583333333329</v>
+        <v>24.28958333333333</v>
       </c>
       <c r="C239">
-        <v>75.847916666666663</v>
+        <v>75.84791666666666</v>
       </c>
       <c r="D239">
         <v>101.7301208333333</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="240">
       <c r="A240" s="2">
         <v>41158</v>
       </c>
       <c r="B240">
-        <v>25.507083333333341</v>
+        <v>25.50708333333334</v>
       </c>
       <c r="C240">
-        <v>81.192708333333329</v>
+        <v>81.19270833333333</v>
       </c>
       <c r="D240">
         <v>101.6167333333333</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="241">
       <c r="A241" s="2">
         <v>41159</v>
       </c>
@@ -3808,69 +3740,69 @@
         <v>25.57113636363637</v>
       </c>
       <c r="C241">
-        <v>86.020000000000024</v>
+        <v>86.02000000000002</v>
       </c>
       <c r="D241">
         <v>101.260125</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="242">
       <c r="A242" s="2">
         <v>41160</v>
       </c>
       <c r="B242">
-        <v>25.673541666666669</v>
+        <v>25.67354166666667</v>
       </c>
       <c r="C242">
-        <v>84.969374999999999</v>
+        <v>84.969375</v>
       </c>
       <c r="D242">
         <v>101.1353729166667</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="243">
       <c r="A243" s="2">
         <v>41161</v>
       </c>
       <c r="B243">
-        <v>23.630625000000009</v>
+        <v>23.63062500000001</v>
       </c>
       <c r="C243">
-        <v>90.297916666666666</v>
+        <v>90.29791666666667</v>
       </c>
       <c r="D243">
-        <v>101.06910208333331</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101.0691020833333</v>
+      </c>
+    </row>
+    <row r="244">
       <c r="A244" s="2">
         <v>41162</v>
       </c>
       <c r="B244">
-        <v>24.142916666666679</v>
+        <v>24.14291666666668</v>
       </c>
       <c r="C244">
-        <v>75.806666666666629</v>
+        <v>75.80666666666663</v>
       </c>
       <c r="D244">
         <v>101.3079291666667</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="245">
       <c r="A245" s="2">
         <v>41163</v>
       </c>
       <c r="B245">
-        <v>24.599583333333332</v>
+        <v>24.59958333333333</v>
       </c>
       <c r="C245">
-        <v>74.702708333333305</v>
+        <v>74.70270833333331</v>
       </c>
       <c r="D245">
         <v>101.08173125</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="246">
       <c r="A246" s="2">
         <v>41164</v>
       </c>
@@ -3878,13 +3810,13 @@
         <v>24.71916666666667</v>
       </c>
       <c r="C246">
-        <v>85.847916666666677</v>
+        <v>85.84791666666668</v>
       </c>
       <c r="D246">
         <v>100.8006583333333</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="247">
       <c r="A247" s="2">
         <v>41165</v>
       </c>
@@ -3892,83 +3824,83 @@
         <v>21.28145833333333</v>
       </c>
       <c r="C247">
-        <v>84.299374999999984</v>
+        <v>84.29937499999998</v>
       </c>
       <c r="D247">
         <v>101.217775</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="248">
       <c r="A248" s="2">
         <v>41166</v>
       </c>
       <c r="B248">
-        <v>21.471875000000001</v>
+        <v>21.471875</v>
       </c>
       <c r="C248">
-        <v>69.554374999999993</v>
+        <v>69.55437499999999</v>
       </c>
       <c r="D248">
         <v>101.5649854166667</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="249">
       <c r="A249" s="2">
         <v>41167</v>
       </c>
       <c r="B249">
-        <v>21.958124999999999</v>
+        <v>21.958125</v>
       </c>
       <c r="C249">
-        <v>65.870208333333338</v>
+        <v>65.87020833333334</v>
       </c>
       <c r="D249">
         <v>101.6554125</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="250">
       <c r="A250" s="2">
         <v>41168</v>
       </c>
       <c r="B250">
-        <v>22.340833333333329</v>
+        <v>22.34083333333333</v>
       </c>
       <c r="C250">
-        <v>64.415624999999991</v>
+        <v>64.41562499999999</v>
       </c>
       <c r="D250">
         <v>101.3516729166667</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="251">
       <c r="A251" s="2">
         <v>41169</v>
       </c>
       <c r="B251">
-        <v>21.443541666666661</v>
+        <v>21.44354166666666</v>
       </c>
       <c r="C251">
-        <v>63.355416666666677</v>
+        <v>63.35541666666668</v>
       </c>
       <c r="D251">
         <v>101.09625</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="252">
       <c r="A252" s="2">
         <v>41170</v>
       </c>
       <c r="B252">
-        <v>22.132916666666659</v>
+        <v>22.13291666666666</v>
       </c>
       <c r="C252">
-        <v>64.006874999999994</v>
+        <v>64.00687499999999</v>
       </c>
       <c r="D252">
         <v>101.0257145833333</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="253">
       <c r="A253" s="2">
         <v>41171</v>
       </c>
@@ -3976,41 +3908,41 @@
         <v>23.17229166666667</v>
       </c>
       <c r="C253">
-        <v>63.532500000000013</v>
+        <v>63.53250000000001</v>
       </c>
       <c r="D253">
         <v>101.1770375</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="254">
       <c r="A254" s="2">
         <v>41172</v>
       </c>
       <c r="B254">
-        <v>23.689374999999998</v>
+        <v>23.689375</v>
       </c>
       <c r="C254">
-        <v>73.846041666666693</v>
+        <v>73.84604166666669</v>
       </c>
       <c r="D254">
         <v>101.3120520833333</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="255">
       <c r="A255" s="2">
         <v>41173</v>
       </c>
       <c r="B255">
-        <v>23.286666666666669</v>
+        <v>23.28666666666667</v>
       </c>
       <c r="C255">
-        <v>81.754583333333329</v>
+        <v>81.75458333333333</v>
       </c>
       <c r="D255">
-        <v>101.22099375000001</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101.22099375</v>
+      </c>
+    </row>
+    <row r="256">
       <c r="A256" s="2">
         <v>41174</v>
       </c>
@@ -4018,27 +3950,27 @@
         <v>19.953125</v>
       </c>
       <c r="C256">
-        <v>87.197916666666686</v>
+        <v>87.19791666666669</v>
       </c>
       <c r="D256">
         <v>101.04244375</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="257">
       <c r="A257" s="2">
         <v>41175</v>
       </c>
       <c r="B257">
-        <v>22.303958333333341</v>
+        <v>22.30395833333334</v>
       </c>
       <c r="C257">
-        <v>76.307708333333338</v>
+        <v>76.30770833333334</v>
       </c>
       <c r="D257">
         <v>101.1315291666667</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="258">
       <c r="A258" s="2">
         <v>41176</v>
       </c>
@@ -4052,35 +3984,35 @@
         <v>101.2921229166667</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="259">
       <c r="A259" s="2">
         <v>41177</v>
       </c>
       <c r="B259">
-        <v>23.056458333333332</v>
+        <v>23.05645833333333</v>
       </c>
       <c r="C259">
-        <v>71.161458333333343</v>
+        <v>71.16145833333334</v>
       </c>
       <c r="D259">
         <v>101.5749458333334</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="260">
       <c r="A260" s="2">
         <v>41178</v>
       </c>
       <c r="B260">
-        <v>23.826666666666672</v>
+        <v>23.82666666666667</v>
       </c>
       <c r="C260">
-        <v>76.092291666666668</v>
+        <v>76.09229166666667</v>
       </c>
       <c r="D260">
         <v>101.62104375</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="261">
       <c r="A261" s="2">
         <v>41179</v>
       </c>
@@ -4091,10 +4023,10 @@
         <v>78.57854166666668</v>
       </c>
       <c r="D261">
-        <v>101.53257916666669</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101.5325791666667</v>
+      </c>
+    </row>
+    <row r="262">
       <c r="A262" s="2">
         <v>41180</v>
       </c>
@@ -4102,27 +4034,27 @@
         <v>22.59333333333333</v>
       </c>
       <c r="C262">
-        <v>71.857708333333335</v>
+        <v>71.85770833333333</v>
       </c>
       <c r="D262">
         <v>101.4543770833333</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="263">
       <c r="A263" s="2">
         <v>41181</v>
       </c>
       <c r="B263">
-        <v>20.575208333333329</v>
+        <v>20.57520833333333</v>
       </c>
       <c r="C263">
-        <v>43.200416666666662</v>
+        <v>43.20041666666666</v>
       </c>
       <c r="D263">
         <v>101.6127041666667</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="264">
       <c r="A264" s="2">
         <v>41182</v>
       </c>
@@ -4130,13 +4062,13 @@
         <v>20.59333333333333</v>
       </c>
       <c r="C264">
-        <v>47.714791666666663</v>
+        <v>47.71479166666666</v>
       </c>
       <c r="D264">
         <v>101.6456104166667</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="265">
       <c r="A265" s="2">
         <v>41183</v>
       </c>
@@ -4144,27 +4076,27 @@
         <v>20.42520833333333</v>
       </c>
       <c r="C265">
-        <v>56.176041666666642</v>
+        <v>56.17604166666664</v>
       </c>
       <c r="D265">
         <v>101.7279958333334</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="266">
       <c r="A266" s="2">
         <v>41184</v>
       </c>
       <c r="B266">
-        <v>20.673749999999998</v>
+        <v>20.67375</v>
       </c>
       <c r="C266">
-        <v>62.703124999999993</v>
+        <v>62.70312499999999</v>
       </c>
       <c r="D266">
-        <v>101.64631875000001</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101.64631875</v>
+      </c>
+    </row>
+    <row r="267">
       <c r="A267" s="2">
         <v>41185</v>
       </c>
@@ -4172,27 +4104,27 @@
         <v>20.82458333333334</v>
       </c>
       <c r="C267">
-        <v>63.701666666666647</v>
+        <v>63.70166666666665</v>
       </c>
       <c r="D267">
         <v>101.3024104166667</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="268">
       <c r="A268" s="2">
         <v>41186</v>
       </c>
       <c r="B268">
-        <v>20.869375000000002</v>
+        <v>20.869375</v>
       </c>
       <c r="C268">
-        <v>67.433541666666642</v>
+        <v>67.43354166666664</v>
       </c>
       <c r="D268">
         <v>101.3535854166667</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="269">
       <c r="A269" s="2">
         <v>41187</v>
       </c>
@@ -4200,111 +4132,111 @@
         <v>21.01125</v>
       </c>
       <c r="C269">
-        <v>73.857083333333335</v>
+        <v>73.85708333333334</v>
       </c>
       <c r="D269">
         <v>101.68466875</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="270">
       <c r="A270" s="2">
         <v>41188</v>
       </c>
       <c r="B270">
-        <v>21.642708333333331</v>
+        <v>21.64270833333333</v>
       </c>
       <c r="C270">
-        <v>73.822500000000005</v>
+        <v>73.82250000000001</v>
       </c>
       <c r="D270">
         <v>102.000675</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="271">
       <c r="A271" s="2">
         <v>41189</v>
       </c>
       <c r="B271">
-        <v>21.260208333333331</v>
+        <v>21.26020833333333</v>
       </c>
       <c r="C271">
-        <v>65.020833333333314</v>
+        <v>65.02083333333331</v>
       </c>
       <c r="D271">
         <v>102.0911916666667</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="272">
       <c r="A272" s="2">
         <v>41190</v>
       </c>
       <c r="B272">
-        <v>20.483750000000001</v>
+        <v>20.48375</v>
       </c>
       <c r="C272">
-        <v>64.029583333333321</v>
+        <v>64.02958333333332</v>
       </c>
       <c r="D272">
         <v>101.85615</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="273">
       <c r="A273" s="2">
         <v>41191</v>
       </c>
       <c r="B273">
-        <v>21.391249999999999</v>
+        <v>21.39125</v>
       </c>
       <c r="C273">
-        <v>70.638958333333321</v>
+        <v>70.63895833333332</v>
       </c>
       <c r="D273">
         <v>101.5513583333333</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="274">
       <c r="A274" s="2">
         <v>41192</v>
       </c>
       <c r="B274">
-        <v>21.714583333333341</v>
+        <v>21.71458333333334</v>
       </c>
       <c r="C274">
-        <v>61.503541666666678</v>
+        <v>61.50354166666668</v>
       </c>
       <c r="D274">
-        <v>101.66092500000001</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101.660925</v>
+      </c>
+    </row>
+    <row r="275">
       <c r="A275" s="2">
         <v>41193</v>
       </c>
       <c r="B275">
-        <v>19.434583333333329</v>
+        <v>19.43458333333333</v>
       </c>
       <c r="C275">
-        <v>57.383541666666673</v>
+        <v>57.38354166666667</v>
       </c>
       <c r="D275">
-        <v>101.83806875000001</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101.83806875</v>
+      </c>
+    </row>
+    <row r="276">
       <c r="A276" s="2">
         <v>41194</v>
       </c>
       <c r="B276">
-        <v>19.647500000000001</v>
+        <v>19.6475</v>
       </c>
       <c r="C276">
-        <v>57.676458333333329</v>
+        <v>57.67645833333333</v>
       </c>
       <c r="D276">
         <v>101.6802979166667</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="277">
       <c r="A277" s="2">
         <v>41195</v>
       </c>
@@ -4312,69 +4244,69 @@
         <v>20.33979166666667</v>
       </c>
       <c r="C277">
-        <v>69.953749999999999</v>
+        <v>69.95375</v>
       </c>
       <c r="D277">
         <v>101.51890625</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="278">
       <c r="A278" s="2">
         <v>41196</v>
       </c>
       <c r="B278">
-        <v>21.447916666666661</v>
+        <v>21.44791666666666</v>
       </c>
       <c r="C278">
-        <v>69.245000000000019</v>
+        <v>69.24500000000002</v>
       </c>
       <c r="D278">
         <v>101.6395041666667</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="279">
       <c r="A279" s="2">
         <v>41197</v>
       </c>
       <c r="B279">
-        <v>21.317916666666669</v>
+        <v>21.31791666666667</v>
       </c>
       <c r="C279">
-        <v>67.297708333333318</v>
+        <v>67.29770833333332</v>
       </c>
       <c r="D279">
         <v>101.83864375</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="280">
       <c r="A280" s="2">
         <v>41198</v>
       </c>
       <c r="B280">
-        <v>20.574999999999989</v>
+        <v>20.57499999999999</v>
       </c>
       <c r="C280">
-        <v>78.944583333333313</v>
+        <v>78.94458333333331</v>
       </c>
       <c r="D280">
         <v>101.5580833333334</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="281">
       <c r="A281" s="2">
         <v>41199</v>
       </c>
       <c r="B281">
-        <v>17.989583333333339</v>
+        <v>17.98958333333334</v>
       </c>
       <c r="C281">
-        <v>55.339791666666663</v>
+        <v>55.33979166666666</v>
       </c>
       <c r="D281">
-        <v>101.98967500000001</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101.989675</v>
+      </c>
+    </row>
+    <row r="282">
       <c r="A282" s="2">
         <v>41200</v>
       </c>
@@ -4382,13 +4314,13 @@
         <v>16.578125</v>
       </c>
       <c r="C282">
-        <v>45.016458333333333</v>
+        <v>45.01645833333333</v>
       </c>
       <c r="D282">
         <v>102.0333583333333</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="283">
       <c r="A283" s="2">
         <v>41201</v>
       </c>
@@ -4399,15 +4331,15 @@
         <v>67.13624999999999</v>
       </c>
       <c r="D283">
-        <v>101.90808541666669</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101.9080854166667</v>
+      </c>
+    </row>
+    <row r="284">
       <c r="A284" s="2">
         <v>41202</v>
       </c>
       <c r="B284">
-        <v>20.034791666666671</v>
+        <v>20.03479166666667</v>
       </c>
       <c r="C284">
         <v>68.38916666666664</v>
@@ -4416,35 +4348,35 @@
         <v>101.6997916666666</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="285">
       <c r="A285" s="2">
         <v>41203</v>
       </c>
       <c r="B285">
-        <v>21.243541666666669</v>
+        <v>21.24354166666667</v>
       </c>
       <c r="C285">
-        <v>79.311458333333363</v>
+        <v>79.31145833333336</v>
       </c>
       <c r="D285">
         <v>101.6619229166667</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="286">
       <c r="A286" s="2">
         <v>41204</v>
       </c>
       <c r="B286">
-        <v>18.194583333333341</v>
+        <v>18.19458333333334</v>
       </c>
       <c r="C286">
-        <v>86.138124999999988</v>
+        <v>86.13812499999999</v>
       </c>
       <c r="D286">
         <v>101.6954645833333</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="287">
       <c r="A287" s="2">
         <v>41205</v>
       </c>
@@ -4452,69 +4384,69 @@
         <v>16.67145833333333</v>
       </c>
       <c r="C287">
-        <v>56.514166666666682</v>
+        <v>56.51416666666668</v>
       </c>
       <c r="D287">
         <v>102.0184375</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="288">
       <c r="A288" s="2">
         <v>41206</v>
       </c>
       <c r="B288">
-        <v>17.869375000000002</v>
+        <v>17.869375</v>
       </c>
       <c r="C288">
-        <v>70.129374999999996</v>
+        <v>70.129375</v>
       </c>
       <c r="D288">
         <v>101.6649291666667</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="289">
       <c r="A289" s="2">
         <v>41207</v>
       </c>
       <c r="B289">
-        <v>18.328958333333329</v>
+        <v>18.32895833333333</v>
       </c>
       <c r="C289">
-        <v>79.504375000000024</v>
+        <v>79.50437500000002</v>
       </c>
       <c r="D289">
         <v>101.6731041666667</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="290">
       <c r="A290" s="2">
         <v>41208</v>
       </c>
       <c r="B290">
-        <v>21.110624999999999</v>
+        <v>21.110625</v>
       </c>
       <c r="C290">
-        <v>84.503333333333345</v>
+        <v>84.50333333333334</v>
       </c>
       <c r="D290">
-        <v>101.49459166666669</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101.4945916666667</v>
+      </c>
+    </row>
+    <row r="291">
       <c r="A291" s="2">
         <v>41209</v>
       </c>
       <c r="B291">
-        <v>19.346666666666671</v>
+        <v>19.34666666666667</v>
       </c>
       <c r="C291">
-        <v>86.676041666666677</v>
+        <v>86.67604166666668</v>
       </c>
       <c r="D291">
         <v>101.7153645833333</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="292">
       <c r="A292" s="2">
         <v>41210</v>
       </c>
@@ -4522,13 +4454,13 @@
         <v>18.308125</v>
       </c>
       <c r="C292">
-        <v>79.652083333333323</v>
+        <v>79.65208333333332</v>
       </c>
       <c r="D292">
         <v>102.2163770833334</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="293">
       <c r="A293" s="2">
         <v>41211</v>
       </c>
@@ -4536,13 +4468,13 @@
         <v>17.59333333333333</v>
       </c>
       <c r="C293">
-        <v>77.251666666666665</v>
+        <v>77.25166666666667</v>
       </c>
       <c r="D293">
-        <v>101.90441250000001</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101.9044125</v>
+      </c>
+    </row>
+    <row r="294">
       <c r="A294" s="2">
         <v>41212</v>
       </c>
@@ -4550,13 +4482,13 @@
         <v>14.61375</v>
       </c>
       <c r="C294">
-        <v>76.589375000000018</v>
+        <v>76.58937500000002</v>
       </c>
       <c r="D294">
         <v>101.95048125</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="295">
       <c r="A295" s="2">
         <v>41213</v>
       </c>
@@ -4570,49 +4502,49 @@
         <v>102.0686333333333</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="296">
       <c r="A296" s="2">
         <v>41214</v>
       </c>
       <c r="B296">
-        <v>14.265000000000001</v>
+        <v>14.265</v>
       </c>
       <c r="C296">
-        <v>68.571874999999991</v>
+        <v>68.57187499999999</v>
       </c>
       <c r="D296">
         <v>102.1113541666667</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="297">
       <c r="A297" s="2">
         <v>41215</v>
       </c>
       <c r="B297">
-        <v>15.634166666666671</v>
+        <v>15.63416666666667</v>
       </c>
       <c r="C297">
-        <v>70.912083333333328</v>
+        <v>70.91208333333333</v>
       </c>
       <c r="D297">
         <v>102.0066354166666</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="298">
       <c r="A298" s="2">
         <v>41216</v>
       </c>
       <c r="B298">
-        <v>17.049583333333331</v>
+        <v>17.04958333333333</v>
       </c>
       <c r="C298">
-        <v>78.777083333333323</v>
+        <v>78.77708333333332</v>
       </c>
       <c r="D298">
         <v>101.785175</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="299">
       <c r="A299" s="2">
         <v>41217</v>
       </c>
@@ -4620,18 +4552,18 @@
         <v>13.50125000000001</v>
       </c>
       <c r="C299">
-        <v>49.453541666666673</v>
+        <v>49.45354166666667</v>
       </c>
       <c r="D299">
         <v>101.7947354166667</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="300">
       <c r="A300" s="2">
         <v>41218</v>
       </c>
       <c r="B300">
-        <v>12.918333333333329</v>
+        <v>12.91833333333333</v>
       </c>
       <c r="C300">
         <v>45.72999999999999</v>
@@ -4640,63 +4572,63 @@
         <v>101.9885520833334</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="301">
       <c r="A301" s="2">
         <v>41219</v>
       </c>
       <c r="B301">
-        <v>11.554166666666671</v>
+        <v>11.55416666666667</v>
       </c>
       <c r="C301">
-        <v>56.420000000000009</v>
+        <v>56.42000000000001</v>
       </c>
       <c r="D301">
         <v>102.25276875</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="302">
       <c r="A302" s="2">
         <v>41220</v>
       </c>
       <c r="B302">
-        <v>13.018333333333331</v>
+        <v>13.01833333333333</v>
       </c>
       <c r="C302">
-        <v>63.736041666666672</v>
+        <v>63.73604166666667</v>
       </c>
       <c r="D302">
-        <v>101.95338333333341</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101.9533833333334</v>
+      </c>
+    </row>
+    <row r="303">
       <c r="A303" s="2">
         <v>41221</v>
       </c>
       <c r="B303">
-        <v>13.096666666666669</v>
+        <v>13.09666666666667</v>
       </c>
       <c r="C303">
-        <v>84.110208333333318</v>
+        <v>84.11020833333332</v>
       </c>
       <c r="D303">
         <v>101.6384833333333</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="304">
       <c r="A304" s="2">
         <v>41222</v>
       </c>
       <c r="B304">
-        <v>14.463333333333329</v>
+        <v>14.46333333333333</v>
       </c>
       <c r="C304">
-        <v>93.050000000000011</v>
+        <v>93.05000000000001</v>
       </c>
       <c r="D304">
         <v>101.5708395833334</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="305">
       <c r="A305" s="2">
         <v>41223</v>
       </c>
@@ -4704,27 +4636,27 @@
         <v>14.9025</v>
       </c>
       <c r="C305">
-        <v>91.812500000000014</v>
+        <v>91.81250000000001</v>
       </c>
       <c r="D305">
         <v>101.3000458333333</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="306">
       <c r="A306" s="2">
         <v>41224</v>
       </c>
       <c r="B306">
-        <v>11.506458333333329</v>
+        <v>11.50645833333333</v>
       </c>
       <c r="C306">
-        <v>55.341041666666683</v>
+        <v>55.34104166666668</v>
       </c>
       <c r="D306">
-        <v>102.12179374999999</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102.12179375</v>
+      </c>
+    </row>
+    <row r="307">
       <c r="A307" s="2">
         <v>41225</v>
       </c>
@@ -4732,69 +4664,69 @@
         <v>12.04104166666667</v>
       </c>
       <c r="C307">
-        <v>50.365624999999987</v>
+        <v>50.36562499999999</v>
       </c>
       <c r="D307">
-        <v>102.06178541666669</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102.0617854166667</v>
+      </c>
+    </row>
+    <row r="308">
       <c r="A308" s="2">
         <v>41226</v>
       </c>
       <c r="B308">
-        <v>12.633333333333329</v>
+        <v>12.63333333333333</v>
       </c>
       <c r="C308">
-        <v>59.092500000000008</v>
+        <v>59.09250000000001</v>
       </c>
       <c r="D308">
         <v>101.7155729166667</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="309">
       <c r="A309" s="2">
         <v>41227</v>
       </c>
       <c r="B309">
-        <v>11.018750000000001</v>
+        <v>11.01875</v>
       </c>
       <c r="C309">
-        <v>44.217291666666661</v>
+        <v>44.21729166666666</v>
       </c>
       <c r="D309">
         <v>102.2288166666667</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="310">
       <c r="A310" s="2">
         <v>41228</v>
       </c>
       <c r="B310">
-        <v>11.247291666666669</v>
+        <v>11.24729166666667</v>
       </c>
       <c r="C310">
-        <v>61.903124999999967</v>
+        <v>61.90312499999997</v>
       </c>
       <c r="D310">
         <v>102.5053875</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="311">
       <c r="A311" s="2">
         <v>41229</v>
       </c>
       <c r="B311">
-        <v>11.352083333333329</v>
+        <v>11.35208333333333</v>
       </c>
       <c r="C311">
-        <v>88.451250000000016</v>
+        <v>88.45125000000002</v>
       </c>
       <c r="D311">
         <v>102.0506270833334</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="312">
       <c r="A312" s="2">
         <v>41230</v>
       </c>
@@ -4802,13 +4734,13 @@
         <v>10.14770833333333</v>
       </c>
       <c r="C312">
-        <v>72.751458333333318</v>
+        <v>72.75145833333332</v>
       </c>
       <c r="D312">
         <v>102.1731645833333</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="313">
       <c r="A313" s="2">
         <v>41231</v>
       </c>
@@ -4816,13 +4748,13 @@
         <v>10.94291666666666</v>
       </c>
       <c r="C313">
-        <v>66.001666666666679</v>
+        <v>66.00166666666668</v>
       </c>
       <c r="D313">
         <v>102.0466291666667</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="314">
       <c r="A314" s="2">
         <v>41232</v>
       </c>
@@ -4830,102 +4762,102 @@
         <v>11.595625</v>
       </c>
       <c r="C314">
-        <v>76.497708333333335</v>
+        <v>76.49770833333334</v>
       </c>
       <c r="D314">
         <v>102.0933</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="315">
       <c r="A315" s="2">
         <v>41233</v>
       </c>
       <c r="B315">
-        <v>12.031874999999999</v>
+        <v>12.031875</v>
       </c>
       <c r="C315">
-        <v>75.087708333333339</v>
+        <v>75.08770833333334</v>
       </c>
       <c r="D315">
-        <v>102.03817916666659</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102.0381791666666</v>
+      </c>
+    </row>
+    <row r="316">
       <c r="A316" s="2">
         <v>41234</v>
       </c>
       <c r="B316">
-        <v>12.582708333333329</v>
+        <v>12.58270833333333</v>
       </c>
       <c r="C316">
-        <v>93.046250000000001</v>
+        <v>93.04625</v>
       </c>
       <c r="D316">
         <v>101.46160625</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="317">
       <c r="A317" s="2">
         <v>41235</v>
       </c>
       <c r="B317">
-        <v>12.276666666666671</v>
+        <v>12.27666666666667</v>
       </c>
       <c r="C317">
-        <v>92.766666666666666</v>
+        <v>92.76666666666667</v>
       </c>
       <c r="D317">
-        <v>101.46713541666669</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101.4671354166667</v>
+      </c>
+    </row>
+    <row r="318">
       <c r="A318" s="2">
         <v>41236</v>
       </c>
       <c r="B318">
-        <v>9.6208333333333336</v>
+        <v>9.620833333333334</v>
       </c>
       <c r="C318">
-        <v>81.423750000000027</v>
+        <v>81.42375000000003</v>
       </c>
       <c r="D318">
-        <v>102.16879166666661</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102.1687916666666</v>
+      </c>
+    </row>
+    <row r="319">
       <c r="A319" s="2">
         <v>41237</v>
       </c>
       <c r="B319">
-        <v>7.7338958333333343</v>
+        <v>7.733895833333334</v>
       </c>
       <c r="C319">
-        <v>61.195416666666659</v>
+        <v>61.19541666666666</v>
       </c>
       <c r="D319">
         <v>102.4263333333333</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="320">
       <c r="A320" s="2">
         <v>41238</v>
       </c>
       <c r="B320">
-        <v>9.2706666666666653</v>
+        <v>9.270666666666665</v>
       </c>
       <c r="C320">
-        <v>85.716666666666654</v>
+        <v>85.71666666666665</v>
       </c>
       <c r="D320">
-        <v>101.63918958333331</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101.6391895833333</v>
+      </c>
+    </row>
+    <row r="321">
       <c r="A321" s="2">
         <v>41239</v>
       </c>
       <c r="B321">
-        <v>6.8849166666666646</v>
+        <v>6.884916666666665</v>
       </c>
       <c r="C321">
         <v>74.11875000000002</v>
@@ -4934,21 +4866,21 @@
         <v>102.3689291666666</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="322">
       <c r="A322" s="2">
         <v>41240</v>
       </c>
       <c r="B322">
-        <v>8.1265000000000018</v>
+        <v>8.126500000000002</v>
       </c>
       <c r="C322">
-        <v>72.417916666666656</v>
+        <v>72.41791666666666</v>
       </c>
       <c r="D322">
         <v>102.1849541666667</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="323">
       <c r="A323" s="2">
         <v>41241</v>
       </c>
@@ -4956,153 +4888,153 @@
         <v>10.6175</v>
       </c>
       <c r="C323">
-        <v>69.976875000000007</v>
+        <v>69.97687500000001</v>
       </c>
       <c r="D323">
-        <v>101.78468125000001</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101.78468125</v>
+      </c>
+    </row>
+    <row r="324">
       <c r="A324" s="2">
         <v>41242</v>
       </c>
       <c r="B324">
-        <v>9.8552083333333318</v>
+        <v>9.855208333333332</v>
       </c>
       <c r="C324">
-        <v>74.783749999999998</v>
+        <v>74.78375</v>
       </c>
       <c r="D324">
         <v>102.112925</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="325">
       <c r="A325" s="2">
         <v>41243</v>
       </c>
       <c r="B325">
-        <v>9.7031249999999982</v>
+        <v>9.703124999999998</v>
       </c>
       <c r="C325">
-        <v>83.345625000000013</v>
+        <v>83.34562500000001</v>
       </c>
       <c r="D325">
         <v>102.2219333333333</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="326">
       <c r="A326" s="2">
         <v>41244</v>
       </c>
       <c r="B326">
-        <v>8.8441666666666663</v>
+        <v>8.844166666666666</v>
       </c>
       <c r="C326">
-        <v>78.994166666666658</v>
+        <v>78.99416666666666</v>
       </c>
       <c r="D326">
-        <v>102.41568541666661</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102.4156854166666</v>
+      </c>
+    </row>
+    <row r="327">
       <c r="A327" s="2">
         <v>41245</v>
       </c>
       <c r="B327">
-        <v>7.6500416666666657</v>
+        <v>7.650041666666666</v>
       </c>
       <c r="C327">
-        <v>84.045000000000016</v>
+        <v>84.04500000000002</v>
       </c>
       <c r="D327">
-        <v>102.18169791666671</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102.1816979166667</v>
+      </c>
+    </row>
+    <row r="328">
       <c r="A328" s="2">
         <v>41246</v>
       </c>
       <c r="B328">
-        <v>8.8356458333333325</v>
+        <v>8.835645833333333</v>
       </c>
       <c r="C328">
-        <v>72.684166666666655</v>
+        <v>72.68416666666666</v>
       </c>
       <c r="D328">
-        <v>102.19471249999999</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102.1947125</v>
+      </c>
+    </row>
+    <row r="329">
       <c r="A329" s="2">
         <v>41247</v>
       </c>
       <c r="B329">
-        <v>6.9111666666666656</v>
+        <v>6.911166666666666</v>
       </c>
       <c r="C329">
-        <v>39.545833333333327</v>
+        <v>39.54583333333333</v>
       </c>
       <c r="D329">
         <v>102.3164625</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="330">
       <c r="A330" s="2">
         <v>41248</v>
       </c>
       <c r="B330">
-        <v>8.2277708333333326</v>
+        <v>8.227770833333333</v>
       </c>
       <c r="C330">
-        <v>53.778750000000002</v>
+        <v>53.77875</v>
       </c>
       <c r="D330">
-        <v>102.22562916666671</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102.2256291666667</v>
+      </c>
+    </row>
+    <row r="331">
       <c r="A331" s="2">
         <v>41249</v>
       </c>
       <c r="B331">
-        <v>5.9776249999999997</v>
+        <v>5.977625</v>
       </c>
       <c r="C331">
-        <v>45.698958333333337</v>
+        <v>45.69895833333334</v>
       </c>
       <c r="D331">
         <v>102.3596541666667</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="332">
       <c r="A332" s="2">
         <v>41250</v>
       </c>
       <c r="B332">
-        <v>8.2633124999999978</v>
+        <v>8.263312499999998</v>
       </c>
       <c r="C332">
-        <v>64.944166666666675</v>
+        <v>64.94416666666667</v>
       </c>
       <c r="D332">
         <v>102.1334333333333</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="333">
       <c r="A333" s="2">
         <v>41251</v>
       </c>
       <c r="B333">
-        <v>7.0145208333333313</v>
+        <v>7.014520833333331</v>
       </c>
       <c r="C333">
-        <v>56.669374999999981</v>
+        <v>56.66937499999998</v>
       </c>
       <c r="D333">
-        <v>102.34717291666669</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102.3471729166667</v>
+      </c>
+    </row>
+    <row r="334">
       <c r="A334" s="2">
         <v>41252</v>
       </c>
@@ -5116,21 +5048,21 @@
         <v>102.5862958333333</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="335">
       <c r="A335" s="2">
         <v>41253</v>
       </c>
       <c r="B335">
-        <v>3.3989583333333329</v>
+        <v>3.398958333333333</v>
       </c>
       <c r="C335">
-        <v>50.053333333333342</v>
+        <v>50.05333333333334</v>
       </c>
       <c r="D335">
-        <v>102.53529791666659</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102.5352979166666</v>
+      </c>
+    </row>
+    <row r="336">
       <c r="A336" s="2">
         <v>41254</v>
       </c>
@@ -5138,69 +5070,69 @@
         <v>5.326249999999999</v>
       </c>
       <c r="C336">
-        <v>65.899583333333325</v>
+        <v>65.89958333333333</v>
       </c>
       <c r="D336">
         <v>102.7018270833334</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="337">
       <c r="A337" s="2">
         <v>41255</v>
       </c>
       <c r="B337">
-        <v>5.5249999999999986</v>
+        <v>5.524999999999999</v>
       </c>
       <c r="C337">
-        <v>65.289166666666645</v>
+        <v>65.28916666666665</v>
       </c>
       <c r="D337">
-        <v>102.83154791666669</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102.8315479166667</v>
+      </c>
+    </row>
+    <row r="338">
       <c r="A338" s="2">
         <v>41256</v>
       </c>
       <c r="B338">
-        <v>9.7095416666666647</v>
+        <v>9.709541666666665</v>
       </c>
       <c r="C338">
-        <v>75.136041666666671</v>
+        <v>75.13604166666667</v>
       </c>
       <c r="D338">
         <v>102.13856875</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="339">
       <c r="A339" s="2">
         <v>41257</v>
       </c>
       <c r="B339">
-        <v>9.8161914893617013</v>
+        <v>9.816191489361701</v>
       </c>
       <c r="C339">
-        <v>88.174468085106383</v>
+        <v>88.17446808510638</v>
       </c>
       <c r="D339">
         <v>101.703985106383</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="340">
       <c r="A340" s="2">
         <v>41258</v>
       </c>
       <c r="B340">
-        <v>6.1798857142857138</v>
+        <v>6.179885714285714</v>
       </c>
       <c r="C340">
-        <v>90.574285714285693</v>
+        <v>90.57428571428569</v>
       </c>
       <c r="D340">
         <v>102.04298</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="341">
       <c r="A341" s="2">
         <v>41259</v>
       </c>
@@ -5208,27 +5140,27 @@
         <v>7.888229166666668</v>
       </c>
       <c r="C341">
-        <v>90.547916666666652</v>
+        <v>90.54791666666665</v>
       </c>
       <c r="D341">
         <v>102.1398708333333</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="342">
       <c r="A342" s="2">
         <v>41260</v>
       </c>
       <c r="B342">
-        <v>6.9464166666666634</v>
+        <v>6.946416666666663</v>
       </c>
       <c r="C342">
-        <v>76.914166666666645</v>
+        <v>76.91416666666665</v>
       </c>
       <c r="D342">
         <v>102.5768104166667</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="343">
       <c r="A343" s="2">
         <v>41261</v>
       </c>
@@ -5236,13 +5168,13 @@
         <v>2.637624999999999</v>
       </c>
       <c r="C343">
-        <v>62.983541666666689</v>
+        <v>62.98354166666669</v>
       </c>
       <c r="D343">
         <v>103.1471791666667</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="344">
       <c r="A344" s="2">
         <v>41262</v>
       </c>
@@ -5256,35 +5188,35 @@
         <v>102.8701458333333</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="345">
       <c r="A345" s="2">
         <v>41263</v>
       </c>
       <c r="B345">
-        <v>6.2279166666666681</v>
+        <v>6.227916666666668</v>
       </c>
       <c r="C345">
-        <v>85.364583333333329</v>
+        <v>85.36458333333333</v>
       </c>
       <c r="D345">
-        <v>102.32226666666671</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102.3222666666667</v>
+      </c>
+    </row>
+    <row r="346">
       <c r="A346" s="2">
         <v>41264</v>
       </c>
       <c r="B346">
-        <v>5.0993749999999993</v>
+        <v>5.099374999999999</v>
       </c>
       <c r="C346">
-        <v>90.233333333333306</v>
+        <v>90.23333333333331</v>
       </c>
       <c r="D346">
-        <v>102.06128541666671</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102.0612854166667</v>
+      </c>
+    </row>
+    <row r="347">
       <c r="A347" s="2">
         <v>41265</v>
       </c>
@@ -5292,13 +5224,13 @@
         <v>3.917153846153846</v>
       </c>
       <c r="C347">
-        <v>79.534871794871805</v>
+        <v>79.5348717948718</v>
       </c>
       <c r="D347">
-        <v>102.94582307692311</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102.9458230769231</v>
+      </c>
+    </row>
+    <row r="348">
       <c r="A348" s="2">
         <v>41266</v>
       </c>
@@ -5306,13 +5238,13 @@
         <v>0.9671249999999999</v>
       </c>
       <c r="C348">
-        <v>63.193749999999987</v>
+        <v>63.19374999999999</v>
       </c>
       <c r="D348">
         <v>103.3879708333333</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="349">
       <c r="A349" s="2">
         <v>41267</v>
       </c>
@@ -5320,18 +5252,18 @@
         <v>0.8250624999999997</v>
       </c>
       <c r="C349">
-        <v>63.314166666666672</v>
+        <v>63.31416666666667</v>
       </c>
       <c r="D349">
         <v>102.84795</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="350">
       <c r="A350" s="2">
         <v>41268</v>
       </c>
       <c r="B350">
-        <v>3.6357708333333338</v>
+        <v>3.635770833333334</v>
       </c>
       <c r="C350">
         <v>71.07854166666668</v>
@@ -5340,49 +5272,49 @@
         <v>102.9286020833333</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="351">
       <c r="A351" s="2">
         <v>41269</v>
       </c>
       <c r="B351">
-        <v>3.3338333333333332</v>
+        <v>3.333833333333333</v>
       </c>
       <c r="C351">
-        <v>85.024166666666673</v>
+        <v>85.02416666666667</v>
       </c>
       <c r="D351">
         <v>103.0094041666667</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="352">
       <c r="A352" s="2">
         <v>41270</v>
       </c>
       <c r="B352">
-        <v>4.4813333333333318</v>
+        <v>4.481333333333332</v>
       </c>
       <c r="C352">
-        <v>91.071428571428555</v>
+        <v>91.07142857142856</v>
       </c>
       <c r="D352">
         <v>102.5524904761905</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="353">
       <c r="A353" s="2">
         <v>41271</v>
       </c>
       <c r="B353">
-        <v>4.2089032258064512</v>
+        <v>4.208903225806451</v>
       </c>
       <c r="C353">
-        <v>93.048387096774206</v>
+        <v>93.04838709677421</v>
       </c>
       <c r="D353">
         <v>102.3252064516129</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="354">
       <c r="A354" s="2">
         <v>41272</v>
       </c>
@@ -5390,13 +5322,13 @@
         <v>3.642653846153848</v>
       </c>
       <c r="C354">
-        <v>93.184230769230751</v>
+        <v>93.18423076923075</v>
       </c>
       <c r="D354">
         <v>102.2352538461539</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="355">
       <c r="A355" s="2">
         <v>41273</v>
       </c>
@@ -5404,29 +5336,27 @@
         <v>-1.004291666666667</v>
       </c>
       <c r="C355">
-        <v>54.669166666666662</v>
+        <v>54.66916666666666</v>
       </c>
       <c r="D355">
-        <v>102.91798958333329</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102.9179895833333</v>
+      </c>
+    </row>
+    <row r="356">
       <c r="A356" s="2">
         <v>41274</v>
       </c>
       <c r="B356">
-        <v>1.0730208333333331</v>
+        <v>1.073020833333333</v>
       </c>
       <c r="C356">
-        <v>57.891874999999999</v>
+        <v>57.891875</v>
       </c>
       <c r="D356">
         <v>102.4755833333334</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>